--- a/Duluth.xlsx
+++ b/Duluth.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Compare Workflow Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4AF7D65-6E82-45E8-92D7-55F4043E48B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFA988A-9415-411A-96C9-4CD699D9D002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="2265" windowWidth="29040" windowHeight="15720" xr2:uid="{1D1F3991-2087-466D-AE76-4E9521C8C816}"/>
   </bookViews>
@@ -56,15 +56,6 @@
     <t>{"Id":219328,"WorkflowTypeId":"4bnefshph7sczrfxq7zvjwk6m7","Name":"Case Public Comment Notifications","IsEnabled":true,"IsSingleton":false,"LockTimeout":0,"LockExpiration":0,"DeleteFinishedWorkflows":true,"Activities":[{"ActivityId":"4y55c210b6vyt5kv25q974rq5p","Name":"ContentPublishedEvent","X":40,"Y":0,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":null},"ContentTypeFilter":["CasePublicComments"]}},{"ActivityId":"46s0sh9ngapac4kd1pjd1fftde","Name":"IfElseTask","X":370,"Y":10,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":null},"Condition":{"Expression":"workflow().Input.ContentItem.Content.CasePublicComments.Comment.Html !=\u0027Comment removed by moderator\u0027"}}},{"ActivityId":"4rx5214z6nhfvs22zkq5fq6ad4","Name":"ForkTask","X":0,"Y":160,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":null},"Forks":["Send Admin Email","Send Applicant Email"]}},{"ActivityId":"4ww1rbsmf09gky4g11yyan0jwv","Name":"TrackEmailTask","X":520,"Y":150,"IsStart":true,"Properties":{"Sender":{"Expression":null},"Author":{"Expression":null},"Recipients":{"Expression":"{% assign caseOwner = Queries.GetUserIdByCaseId | query : caseId : Workflow.Input.ContentItem.Content.CommentSubmissionPart.SubmissionId %} {% assign userdetails = Queries.GetUserEmailByUsername | query : userName : caseOwner[0].Owner %} {{userdetails[0].NormalizedEmail}}"},"ReplyTo":{"Expression":null},"Subject":{"Expression":"Case Public Comment Notification"},"Body":{"Expression":"\u003Cemailtemplate\u003E\u003C/emailtemplate\u003E\r\n A New Comment has been entered on a Case by: \r\n\u003Cb\u003E{{User.Identity.Name}}\u003C/b\u003E - {{Workflow.Input.ContentItem.Content.CasePublicComments.Comment.Html | raw}}  \r\n - \u003Ca href=\u0022{{Request.Scheme}}://{{Request.Host}}{{\u0027~/\u0027| href}}OrchardCore.Case/ProfileCaseDetails/{{Workflow.Input.ContentItem.DisplayText}}\u0022\u003EView Case\u003C/a\u003E\r\n"},"IsBodyHtml":true,"CaseContentItemId":{"Expression":"{{Workflow.Input.ContentItem.DisplayText}}"},"LicenseContentItemId":{"Expression":null},"ActivityMetadata":{"Title":"Case Public Comment Notification"}}},{"ActivityId":"4sffxxts8nhpnvf5pzqj8ebr45","Name":"TrackEmailTask","X":530,"Y":260,"IsStart":true,"Properties":{"Sender":{},"Author":{},"Recipients":{"Expression":"{% assign assignusers = Queries.GetCaseDetailbyContentItemId | query : contentItemId : Workflow.Input.ContentItem.DisplayText %} {% assign users = assignusers[0].AssignedUsers | split: \u0027,\u0027%}  {% for userEmail in users %} {% if userEmail != User.Identity.Name %} {% assign userdetails = Queries.GetUserEmailByUsername | query : userName: userEmail %} {{userdetails[0].NormalizedEmail}}, {%endif%} {% endfor %} OTCcomments@duluthga.net, {% if users == null or users == \u0027\u0027 %} mhales@duluthga.net, kmccgregor@duluthga.net {% endif %}"},"ReplyTo":{},"Subject":{"Expression":"Case Admin Comment Notification"},"Body":{"Expression":"\u003Cemailtemplate\u003E\u003C/emailtemplate\u003E\r\n New Comment has been entered on a Case by \u003Cb\u003E{{User.Identity.Name}}\u003C/b\u003E - {{Workflow.Input.ContentItem.Content.CasePublicComments.Comment.Html | raw}}\r\n - \u003Ca href=\u0022{{Request.Scheme}}://{{Request.Host}}{{\u0027~/\u0027| href}}OrchardCore.Case/Admin/Edit?ContentItemId={{Workflow.Input.ContentItem.DisplayText}}\u0022\u003EView Case\u003C/a\u003E\r\n  "},"IsBodyHtml":true,"CaseContentItemId":{"Expression":"{{Workflow.Input.ContentItem.DisplayText}}"},"LicenseContentItemId":{},"ActivityMetadata":{"Title":"Case Admin Comment Notification"},"AdvancedFormId":{}}}],"Transitions":[{"Id":0,"SourceActivityId":"46s0sh9ngapac4kd1pjd1fftde","SourceOutcomeName":"True","DestinationActivityId":"4rx5214z6nhfvs22zkq5fq6ad4"},{"Id":0,"SourceActivityId":"4y55c210b6vyt5kv25q974rq5p","SourceOutcomeName":"Done","DestinationActivityId":"46s0sh9ngapac4kd1pjd1fftde"},{"Id":0,"SourceActivityId":"4rx5214z6nhfvs22zkq5fq6ad4","SourceOutcomeName":"Send Applicant Email","DestinationActivityId":"4ww1rbsmf09gky4g11yyan0jwv"},{"Id":0,"SourceActivityId":"4rx5214z6nhfvs22zkq5fq6ad4","SourceOutcomeName":"Send Admin Email","DestinationActivityId":"4sffxxts8nhpnvf5pzqj8ebr45"}],"Properties":{}}</t>
   </si>
   <si>
-    <t>{"Id":219329,"WorkflowTypeId":"41y8rxca7qbw17jk7j9bry8wxk","Name":"Send Email the Payment Summary Report and the ALL CSV Report as Links","IsEnabled":true,"IsSingleton":false,"LockTimeout":0,"LockExpiration":0,"DeleteFinishedWorkflows":true,"Activities":[{"ActivityId":"4dja46pdexd0d3118964fsbtm7","Name":"TimerEvent","X":60,"Y":110,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"Execute everyday 6am"},"CronExpression":"0 13 * * *"}},{"ActivityId":"4sgte97qvd12kxztf53a5yn3xk","Name":"TrackEmailTask","X":700,"Y":130,"IsStart":true,"Properties":{"Sender":{"Expression":null},"Author":{"Expression":null},"Recipients":{"Expression":"{% assign accountingemail = \u0027{{AccountingSettings.EmailtoEmailAccountingReportLinkstoDaily}}\u0027 %} {% if accountingemail != null or accountingemail != \u0027\u0027 %} {{AccountingSettings.EmailtoEmailAccountingReportLinkstoDaily}} {% endif %}"},"ReplyTo":{"Expression":null},"Subject":{"Expression":"{{AccountingSettings.EmailSubject}}"},"Body":{"Expression":"{{AccountingSettings.EmailBody}}"},"IsBodyHtml":true,"CaseContentItemId":{"Expression":null},"LicenseContentItemId":{"Expression":null},"ActivityMetadata":{"Title":"Send Payment Report"}}}],"Transitions":[{"Id":0,"SourceActivityId":"4dja46pdexd0d3118964fsbtm7","SourceOutcomeName":"Done","DestinationActivityId":"4sgte97qvd12kxztf53a5yn3xk"}],"Properties":{}}</t>
-  </si>
-  <si>
-    <t>{"Id":219330,"WorkflowTypeId":"45vpnbjw1d4dgvexfywnrarrxr","Name":"Appointment Notifications","IsEnabled":true,"IsSingleton":false,"LockTimeout":0,"LockExpiration":0,"DeleteFinishedWorkflows":true,"Activities":[{"ActivityId":"44zhss1m757jjwjczfh1b4445q","Name":"ScriptTask","X":493,"Y":30,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"Get Value of AppointmentStatus"},"AvailableOutcomes":["Done"],"Script":{"Expression":"var  ApprovedContentItemId = workflow().Input.ContentItem.Content.TeamMemberAppointmentPart.Status;\r\nsetProperty(\u0027ApprovedContentItemId\u0027, ApprovedContentItemId);\r\nsetOutcome(\u0027Done\u0027);"}}},{"ActivityId":"4nwt2ekzhvkpvyhrt4jhevxsxg","Name":"IfElseTask","X":70,"Y":150,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"Check Appointment status is approved"},"Condition":{"Expression":"workflow().Properties.ApprovedContentItemId !=null \u0026\u0026 workflow().Properties.ApprovedContentItemId ==\u00224wkmhvnscbzj4677bv3dchqax9\u0022"}}},{"ActivityId":"4xwd4g9np3mfgvhrb1fdsk12c4","Name":"ContentCreatedEvent","X":93,"Y":20,"IsStart":true,"Properties":{"ContentTypeFilter":["TeamMemberAppointment"],"ActivityMetadata":{"Title":null}}},{"ActivityId":"47ae3ft4fwref6svnh30x4d4dh","Name":"IfElseTask","X":30,"Y":340,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"Is schedule by not null"},"Condition":{"Expression":"workflow().Input.ContentItem.Content.TeamMemberAppointmentPart.ScheduledBy!=null \u0026\u0026 workflow().Input.ContentItem.Content.TeamMemberAppointmentPart.ScheduledBy!=\u0022\u0022 \u0026\u0026 workflow().Input.ContentItem.Content.TeamMemberAppointmentPart.ScheduledBy!=undefined"}}},{"ActivityId":"4pbxex8thv5paty4011x2162w2","Name":"TrackEmailTask","X":500,"Y":170,"IsStart":true,"Properties":{"Sender":{"Expression":null},"Author":{"Expression":null},"Recipients":{"Expression":"{% assign userdetails = Queries.GetTeamMemberById| query : contentItemId: Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.ScheduleWith %} {% for item in userdetails %} {{item.UserEmail }} {% endfor %}"},"ReplyTo":{"Expression":null},"Subject":{"Expression":"Appointment Requested on {{Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.AppointmentDate | date: \u0022%b %d, %y\u0022}}"},"Body":{"Expression":"\u003Cemailtemplate\u003E\u003C/emailtemplate\u003E\r\nAppointment Requested on {{Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.AppointmentDate | date: \u0022%b %d, %y\u0022}} with {% assign userdetails = Queries.GetTeamMemberById | query : contentItemId: Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.ScheduleWith %}{% for item in userdetails %} {{item.FirstName}} {{item.LastName}}{% endfor %}. \r\nDetails of appointment: {{Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.Subject}}. \r\nTo accept your appointment login into the admin \r\n\u003Ca href=\u0022{{Request.Scheme}}://{{Request.Host}}{{\u0027~/\u0027| href}}TeamMember/Admin/Schedule\u0022\u003Elink\u003C/a\u003E\r\n on {{Site.SiteName}}."},"IsBodyHtml":true,"CaseContentItemId":{"Expression":"{{Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.CaseContentItemId}}"},"LicenseContentItemId":{"Expression":null},"ActivityMetadata":{"Title":"New Appointment Submitted"}}},{"ActivityId":"4eqyg4sazhn2mypsgdz5r7yed1","Name":"TrackEmailTask","X":530,"Y":340,"IsStart":true,"Properties":{"Sender":{"Expression":null},"Author":{"Expression":null},"Recipients":{"Expression":"{% assign userdetails = Queries.GetUserEmailByUsername | query : userName : Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.ScheduledBy %}  {% for item in userdetails %} {{item.NormalizedEmail | downcase}} {% endfor %}"},"ReplyTo":{"Expression":null},"Subject":{"Expression":"Appointment Approved on {{Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.AppointmentDate | date: \u0022%b %d, %y\u0022}}"},"Body":{"Expression":"\u003Cemailtemplate\u003E\u003C/emailtemplate\u003E\r\nAppointment Approved on {{Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.AppointmentDate | date: \u0022%b %d, %y\u0022}} with {% assign userdetails = Queries.GetTeamMemberById | query : contentItemId: Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.ScheduleWith %}{% for item in userdetails %} {{item.FirstName}} {{item.LastName}}{% endfor %}.\r\nDetails of appointment: {{Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.Subject}}.\u003Cbr\u003E\r\nTo view your appointment login into your  \r\n\u003Ca href=\u0022{{Request.Scheme}}://{{Request.Host}}{{\u0027~/\u0027| href}}Profile/Appointments\u0022\u003Eprofile\u003C/a\u003E\r\non {{Site.SiteName}}. You are receiving this email from {{Site.SiteName}} because you have an account on the site and requested an appointment."},"IsBodyHtml":true,"CaseContentItemId":{"Expression":"{{Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.CaseContentItemId}}"},"LicenseContentItemId":{"Expression":null},"ActivityMetadata":{"Title":"Appointment Approved"}}}],"Transitions":[{"Id":0,"SourceActivityId":"4xwd4g9np3mfgvhrb1fdsk12c4","SourceOutcomeName":"Done","DestinationActivityId":"44zhss1m757jjwjczfh1b4445q"},{"Id":0,"SourceActivityId":"44zhss1m757jjwjczfh1b4445q","SourceOutcomeName":"Done","DestinationActivityId":"4nwt2ekzhvkpvyhrt4jhevxsxg"},{"Id":0,"SourceActivityId":"4nwt2ekzhvkpvyhrt4jhevxsxg","SourceOutcomeName":"True","DestinationActivityId":"47ae3ft4fwref6svnh30x4d4dh"},{"Id":0,"SourceActivityId":"4nwt2ekzhvkpvyhrt4jhevxsxg","SourceOutcomeName":"False","DestinationActivityId":"4pbxex8thv5paty4011x2162w2"},{"Id":0,"SourceActivityId":"47ae3ft4fwref6svnh30x4d4dh","SourceOutcomeName":"True","DestinationActivityId":"4eqyg4sazhn2mypsgdz5r7yed1"}],"Properties":{}}</t>
-  </si>
-  <si>
-    <t>{"Id":219331,"WorkflowTypeId":"4zhnztmxh0b1x0p9xq3wcwj2xa","Name":"Appointment Update Notification","IsEnabled":true,"IsSingleton":false,"LockTimeout":0,"LockExpiration":0,"DeleteFinishedWorkflows":true,"Activities":[{"ActivityId":"4jf7pvz6sf4sn2t6jdf3zczbwz","Name":"ContentUpdatedEvent","X":60,"Y":0,"IsStart":true,"Properties":{"ContentTypeFilter":["TeamMemberAppointment"],"ActivityMetadata":{"Title":null}}},{"ActivityId":"4v2439kg28w7w4rxpnn0d8kv45","Name":"ScriptTask","X":430,"Y":0,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"Get Value of AppointmentStatus"},"AvailableOutcomes":["Done"],"Script":{"Expression":"var  CancelByAdminContentItemId = workflow().Input.ContentItem.Content.TeamMemberAppointmentPart.Status;\r\nvar  DeclinedContentItemId = workflow().Input.ContentItem.Content.TeamMemberAppointmentPart.Status;\r\nvar  ApprovedContentItemId = workflow().Input.ContentItem.Content.TeamMemberAppointmentPart.Status;\r\nsetProperty(\u0027ApprovedContentItemId\u0027, ApprovedContentItemId);\r\nsetProperty(\u0027CancelByAdminContentItemId\u0027, CancelByAdminContentItemId);\r\nsetProperty(\u0027DeclinedContentItemId\u0027, DeclinedContentItemId);\r\nsetOutcome(\u0027Done\u0027);"}}},{"ActivityId":"486nq28b5dnvn1tg1ft6pqdech","Name":"IfElseTask","X":110,"Y":280,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"Check Appointment status is approved"},"Condition":{"Expression":"workflow().Properties.ApprovedContentItemId !=null \u0026\u0026 workflow().Properties.ApprovedContentItemId ==\u00224wkmhvnscbzj4677bv3dchqax9\u0022"}}},{"ActivityId":"4wx212g7ntd153vm84mb7vghn1","Name":"IfElseTask","X":0,"Y":610,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"Check Appointment status is cancel"},"Condition":{"Expression":"workflow().Properties.CancelByAdminContentItemId!=null \u0026\u0026 workflow().Properties.CancelByAdminContentItemId==\u00224e9zqd5x101ra60emz0xx8yrwa\u0022"}}},{"ActivityId":"4b7363k4y4kgz609k9f14wbf4v","Name":"IfElseTask","X":60,"Y":930,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"Check Appointment status is declined"},"Condition":{"Expression":"workflow().Properties.DeclinedContentItemId !=null \u0026\u0026 workflow().Properties.DeclinedContentItemId==\u00224cjn1mapdc1xz61zt7j08j844j\u0022"}}},{"ActivityId":"4f49m1ccr8xg7tw6n5cz7hnnm7","Name":"IfElseTask","X":30,"Y":140,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"Is schedule by not null"},"Condition":{"Expression":"workflow().Input.ContentItem.Content.TeamMemberAppointmentPart.ScheduledBy!=null \u0026\u0026 workflow().Input.ContentItem.Content.TeamMemberAppointmentPart.ScheduledBy!=\u0027\u0027 \u0026\u0026 workflow().Input.ContentItem.Content.TeamMemberAppointmentPart.ScheduledBy!=undefined"}}},{"ActivityId":"47aca6dcry5m14zc6b82x3sedk","Name":"IfElseTask","X":50,"Y":1240,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"Check Appointment status is cancel by user"},"Condition":{"Expression":"workflow().Properties.CancelByAdminContentItemId!=null \u0026\u0026 workflow().Properties.CancelByAdminContentItemId==\u00224yv6qdh41yhs33r261xy6b29wb\u0022"}}},{"ActivityId":"438y5e90ysqht3hm74b4w3jyx8","Name":"TrackEmailTask","X":469,"Y":440,"IsStart":true,"Properties":{"Sender":{"Expression":null},"Author":{"Expression":null},"Recipients":{"Expression":"{% assign userdetails = Queries.GetUserEmailByUsername | query : userName : Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.ScheduledBy %}  {% for item in userdetails %} {{item.NormalizedEmail | downcase}} {% endfor %}"},"ReplyTo":{"Expression":null},"Subject":{"Expression":"Appointment Approved on {{Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.AppointmentDate | date: \u0022%b %d, %y\u0022}}"},"Body":{"Expression":"\u003Cemailtemplate\u003E\u003C/emailtemplate\u003E\r\nAppointment Approved on {{Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.AppointmentDate | date: \u0022%b %d, %y\u0022}} with {% assign userdetails = Queries.GetTeamMemberById | query : contentItemId: Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.ScheduleWith %}{% for item in userdetails %} {{item.FirstName}} {{item.LastName}}{% endfor %}.\r\nDetails of appointment: {{Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.Subject}}.\u003Cbr\u003E\r\nTo view your appointment login into your  \r\n\u003Ca href=\u0022{{Request.Scheme}}://{{Request.Host}}{{\u0027~/\u0027| href}}Profile/Appointments\u0022\u003Eprofile\u003C/a\u003E\r\non {{Site.SiteName}}. You are receiving this email from {{Site.SiteName}} because you have an account on the site and requested an appointment.\r\n"},"IsBodyHtml":true,"CaseContentItemId":{"Expression":"{{Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.CaseContentItemId}}"},"LicenseContentItemId":{"Expression":null},"ActivityMetadata":{"Title":"Appointment Approved"}}},{"ActivityId":"46hyp0183f45xwzv0snepwnhc3","Name":"TrackEmailTask","X":430,"Y":730,"IsStart":true,"Properties":{"Sender":{"Expression":null},"Author":{"Expression":null},"Recipients":{"Expression":"{% assign userdetails = Queries.GetUserEmailByUsername | query : userName : Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.ScheduledBy %}  {% for item in userdetails %} {{item.NormalizedEmail | downcase}} {% endfor %}"},"ReplyTo":{"Expression":null},"Subject":{"Expression":"Appointment Cancel on {{Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.AppointmentDate | date: \u0022%b %d, %y\u0022}}"},"Body":{"Expression":"\u003Cemailtemplate\u003E\u003C/emailtemplate\u003E\r\nAppointment Cancel on {{Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.AppointmentDate | date: \u0022%b %d, %y\u0022}} with {% assign userdetails = Queries.GetTeamMemberById | query : contentItemId: Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.ScheduleWith %}{% for item in userdetails %} {{item.FirstName}} {{item.LastName}}{% endfor %}.\r\nDetails of appointment: {{Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.Subject}}.\u003Cbr\u003E\r\nTo view your appointment login into your  \r\n\u003Ca href=\u0022{{Request.Scheme}}://{{Request.Host}}{{\u0027~/\u0027| href}}Profile/Appointments\u0022\u003Eprofile\u003C/a\u003E\r\non {{Site.SiteName}}. You are receiving this email from {{Site.SiteName}} because you have an account on the site and requested an appointment.\r\n"},"IsBodyHtml":true,"CaseContentItemId":{"Expression":"{{Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.CaseContentItemId}}"},"LicenseContentItemId":{"Expression":null},"ActivityMetadata":{"Title":"Appointment Cancel"}}},{"ActivityId":"43acc081pz1404fwc89e1aer5n","Name":"TrackEmailTask","X":420,"Y":1110,"IsStart":true,"Properties":{"Sender":{"Expression":null},"Author":{"Expression":null},"Recipients":{"Expression":"{% assign userdetails = Queries.GetUserEmailByUsername | query : userName : Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.ScheduledBy %}  {% for item in userdetails %} {{item.NormalizedEmail | downcase}} {% endfor %}"},"ReplyTo":{"Expression":null},"Subject":{"Expression":"Appointment Declined on {{Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.AppointmentDate | date: \u0022%b %d, %y\u0022}}"},"Body":{"Expression":"\u003Cemailtemplate\u003E\u003C/emailtemplate\u003E\r\nAppointment Declined on {{Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.AppointmentDate | date: \u0022%b %d, %y\u0022}} with {% assign userdetails = Queries.GetTeamMemberById | query : contentItemId: Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.ScheduleWith %}{% for item in userdetails %} {{item.FirstName}} {{item.LastName}}{% endfor %}.\r\nDetails of appointment: {{Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.Subject}}.\u003Cbr\u003E\r\nTo view your appointment login into your  \r\n\u003Ca href=\u0022{{Request.Scheme}}://{{Request.Host}}{{\u0027~/\u0027| href}}Profile/Appointments\u0022\u003Eprofile\u003C/a\u003E\r\non {{Site.SiteName}}.\r\nReason : {{Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.DeclinedComment}}.\r\nYou are receiving this email from {{Site.SiteName}} because you have an account on the site and requested an appointment.\r\n"},"IsBodyHtml":true,"CaseContentItemId":{"Expression":"{{Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.CaseContentItemId}}"},"LicenseContentItemId":{"Expression":null},"ActivityMetadata":{"Title":"Appointment Declined"}}},{"ActivityId":"4kjgyehrm0h5q3kae0dmxqbvn9","Name":"TrackEmailTask","X":210,"Y":1400,"IsStart":true,"Properties":{"Sender":{"Expression":null},"Author":{"Expression":null},"Recipients":{"Expression":"{% assign userdetails = Queries.GetTeamMemberById| query : contentItemId: Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.ScheduleWith %} {% for item in userdetails %} {{item.UserEmail }} {% endfor %}{% assign userdetails = Queries.GetTeamMemberById| query : contentItemId: Workflow.Input.ContentItem.Content.TeamMemberAppointment.ScheduleWith %} {% for item in userdetails %} {{item.UserEmail }} {% endfor %}"},"ReplyTo":{"Expression":null},"Subject":{"Expression":"Appointment Cancelled By User on {{Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.AppointmentDate | date: \u0022%b %d, %y\u0022}}"},"Body":{"Expression":"\u003Cemailtemplate\u003E\u003C/emailtemplate\u003E\r\nAppointment Cancelled By User on {{Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.AppointmentDate | date: \u0022%b %d, %y\u0022}} with {% assign userdetails = Queries.GetTeamMemberById | query : contentItemId: Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.ScheduleWith %}{% for item in userdetails %} {{item.FirstName}} {{item.LastName}}{% endfor %}. \r\nDetails of appointment: {{Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.Subject}}. "},"IsBodyHtml":true,"CaseContentItemId":{"Expression":"{{Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.CaseContentItemId}}"},"LicenseContentItemId":{"Expression":null},"ActivityMetadata":{"Title":"Appointment Cancel By User"}}}],"Transitions":[{"Id":0,"SourceActivityId":"486nq28b5dnvn1tg1ft6pqdech","SourceOutcomeName":"False","DestinationActivityId":"4wx212g7ntd153vm84mb7vghn1"},{"Id":0,"SourceActivityId":"4wx212g7ntd153vm84mb7vghn1","SourceOutcomeName":"False","DestinationActivityId":"4b7363k4y4kgz609k9f14wbf4v"},{"Id":0,"SourceActivityId":"4jf7pvz6sf4sn2t6jdf3zczbwz","SourceOutcomeName":"Done","DestinationActivityId":"4v2439kg28w7w4rxpnn0d8kv45"},{"Id":0,"SourceActivityId":"4v2439kg28w7w4rxpnn0d8kv45","SourceOutcomeName":"Done","DestinationActivityId":"4f49m1ccr8xg7tw6n5cz7hnnm7"},{"Id":0,"SourceActivityId":"4f49m1ccr8xg7tw6n5cz7hnnm7","SourceOutcomeName":"True","DestinationActivityId":"486nq28b5dnvn1tg1ft6pqdech"},{"Id":0,"SourceActivityId":"4b7363k4y4kgz609k9f14wbf4v","SourceOutcomeName":"False","DestinationActivityId":"47aca6dcry5m14zc6b82x3sedk"},{"Id":0,"SourceActivityId":"486nq28b5dnvn1tg1ft6pqdech","SourceOutcomeName":"True","DestinationActivityId":"438y5e90ysqht3hm74b4w3jyx8"},{"Id":0,"SourceActivityId":"4wx212g7ntd153vm84mb7vghn1","SourceOutcomeName":"True","DestinationActivityId":"46hyp0183f45xwzv0snepwnhc3"},{"Id":0,"SourceActivityId":"4b7363k4y4kgz609k9f14wbf4v","SourceOutcomeName":"True","DestinationActivityId":"43acc081pz1404fwc89e1aer5n"},{"Id":0,"SourceActivityId":"47aca6dcry5m14zc6b82x3sedk","SourceOutcomeName":"True","DestinationActivityId":"4kjgyehrm0h5q3kae0dmxqbvn9"}],"Properties":{}}</t>
-  </si>
-  <si>
     <t>{"Id":219332,"WorkflowTypeId":"49haqjnyrabr21ja66hz5kwdxs","Name":"Update Username in TeamMamber","IsEnabled":true,"IsSingleton":false,"LockTimeout":0,"LockExpiration":0,"DeleteFinishedWorkflows":true,"Activities":[{"ActivityId":"4wfe4krzbdwyh0cgnp7fnrc7x2","Name":"UserUpdatedEvent","X":30,"Y":50,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":null}}},{"ActivityId":"471x07gre0j2zyna61bxg55pc9","Name":"ScriptTask","X":580,"Y":60,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":null},"AvailableOutcomes":["Done"],"Script":{"Expression":"var userId = workflow().CorrelationId;\r\nvar queryResult = executeQuery(\u0022GetUserNameById\u0022, { userId : String(userId) });\r\nif(queryResult != null \u0026\u0026 queryResult[0] != undefined \u0026\u0026 queryResult[0] != null){\r\n   setProperty(\u0022TeamMemberContentItemId\u0022, queryResult[0].TeamMemberContentItemId);\r\n   setProperty(\u0022UserName\u0022, queryResult[0].NormalizedUserName);\r\n}\r\nsetOutcome(\u0027Done\u0027);"}}},{"ActivityId":"471m9kea7pkgytmapf7t1mdxms","Name":"UpdateContentTask","X":370,"Y":490,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"Update Team Member  User Name"},"Content":{"Expression":"String(workflow().Properties.TeamMemberContentItemId)"},"ContentProperties":{"Expression":"{\r\n   \u0022TeamMemberPart\u0022:{\r\n         \u0022UserName\u0022: \u0022{{Workflow.Properties.UserName}}\u0022\r\n    },\r\n  \u0022TeamMember\u0022:{\r\n     \u0022UserName\u0022:{\r\n           \u0022Text\u0022:\u0022{{Workflow.Properties.UserName}}\u0022\r\n          }\r\n       }\r\n}"},"Publish":true}},{"ActivityId":"4kcvbfph3d0c04fvrqatm7yfn4","Name":"IfElseTask","X":180,"Y":290,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":null},"Condition":{"Expression":"workflow().Properties.TeamMemberContentItemId != undefined \u0026\u0026 workflow().Properties.TeamMemberContentItemId != null \u0026\u0026 workflow().Properties.TeamMemberContentItemId != \u0022\u0022"}}}],"Transitions":[{"Id":0,"SourceActivityId":"4wfe4krzbdwyh0cgnp7fnrc7x2","SourceOutcomeName":"Done","DestinationActivityId":"471x07gre0j2zyna61bxg55pc9"},{"Id":0,"SourceActivityId":"471x07gre0j2zyna61bxg55pc9","SourceOutcomeName":"Done","DestinationActivityId":"4kcvbfph3d0c04fvrqatm7yfn4"},{"Id":0,"SourceActivityId":"4kcvbfph3d0c04fvrqatm7yfn4","SourceOutcomeName":"True","DestinationActivityId":"471m9kea7pkgytmapf7t1mdxms"}],"Properties":{}}</t>
   </si>
   <si>
@@ -74,43 +65,52 @@
     <t>{"Id":219334,"WorkflowTypeId":"46wqwdnt4p5f608g3xfeyeyqcy","Name":"License Admin Comment Notification","IsEnabled":true,"IsSingleton":false,"LockTimeout":0,"LockExpiration":0,"DeleteFinishedWorkflows":true,"Activities":[{"ActivityId":"4vnej7ht6ngsn5tv7v8r79t44m","Name":"ContentPublishedEvent","X":30,"Y":30,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":null},"ContentTypeFilter":["LicenseAdminComments"]}},{"ActivityId":"4mye6bjstckcc0tasep3resp4v","Name":"IfElseTask","X":310,"Y":30,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":null},"Condition":{"Expression":"workflow().Input.ContentItem.Content.LicenseAdminComments.Comment.Html !=\u0027Comment removed by moderator\u0027"}}},{"ActivityId":"4j7d7xk40er7v5n7kxq5qp5zm5","Name":"TrackEmailTask","X":690,"Y":30,"IsStart":true,"Properties":{"Sender":{"Expression":null},"Author":{"Expression":null},"Recipients":{"Expression":"{% assign assignusers = Queries.GetLicenseDetailbyContentItemId | query : contentItemId : Workflow.Input.ContentItem.DisplayText %} {% assign users = assignusers[0].AssignedUsers | split: \u0027,\u0027%}  {% for userEmail in users %} {% if userEmail != User.Identity.Name %} {% assign userdetails = Queries.GetUserEmailByUsername | query : userName: userEmail %} {{userdetails[0].NormalizedEmail}}, {%endif%}{% endfor %} {% if users == null or users == \u0027\u0027 %} mhales@duluthga.net, kmccgregor@duluthga.net {% endif %}"},"ReplyTo":{"Expression":null},"Subject":{"Expression":"License Admin Comment Notification"},"Body":{"Expression":"\u003Cemailtemplate\u003E\u003C/emailtemplate\u003E\r\n New Comment has been entered on a License by \u003Cb\u003E{{User.Identity.Name}}\u003C/b\u003E - {{Workflow.Input.ContentItem.Content.LicenseAdminComments.Comment.Html | raw}}\r\n - \u003Ca href=\u0022{{Request.Scheme}}://{{Request.Host}}{{\u0027~/\u0027| href}}OrchardCore.License/Admin/Edit?ContentItemId={{Workflow.Input.ContentItem.DisplayText}}\u0022\u003EView License\u003C/a\u003E\r\n"},"IsBodyHtml":true,"CaseContentItemId":{"Expression":null},"LicenseContentItemId":{"Expression":"{{Workflow.Input.ContentItem.DisplayText}}"},"ActivityMetadata":{"Title":"Admin Comment Notification"},"AdvancedFormId":{"Expression":null}}}],"Transitions":[{"Id":0,"SourceActivityId":"4vnej7ht6ngsn5tv7v8r79t44m","SourceOutcomeName":"Done","DestinationActivityId":"4mye6bjstckcc0tasep3resp4v"},{"Id":0,"SourceActivityId":"4mye6bjstckcc0tasep3resp4v","SourceOutcomeName":"True","DestinationActivityId":"4j7d7xk40er7v5n7kxq5qp5zm5"}],"Properties":{}}</t>
   </si>
   <si>
-    <t>{"Id":219335,"WorkflowTypeId":"4r0zppsgb0w1my3cfvskyq905y","Name":"Staff Review - Change License Status","IsEnabled":true,"IsSingleton":false,"LockTimeout":0,"LockExpiration":0,"DeleteFinishedWorkflows":true,"Activities":[{"ActivityId":"451z787s02fx6vpce6r99tkzdq","Name":"ContentUpdatedEvent","X":0,"Y":0,"IsStart":true,"Properties":{"ContentTypeFilter":["AdvancedFormSubmissions"],"ActivityMetadata":{"Title":null}}},{"ActivityId":"48ehxc433efwa14fm6p7aywaxs","Name":"ScriptTask","X":280,"Y":10,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"Get AdminSubmission Details"},"AvailableOutcomes":["Done"],"Script":{"Expression":"    var contentItem = workflow().Input.ContentEvent.ContentItemId;\r\n    var queryResult1 = executeQuery(\u0022GetAdminSubmissionDetails\u0022, { \u0022contentItemId\u0022 : contentItem});\r\n    setProperty(\u0022AdminSubmission\u0022, JSON.parse(queryResult1[0].AdminSubmission));\r\n    setProperty(\u0022Title\u0022, queryResult1[0].Title);\r\n    setOutcome(\u0027Done\u0027);\r\n"}}},{"ActivityId":"4f1evjrwv26hwsp02sesabgjw7","Name":"IfElseTask","X":720,"Y":490,"IsStart":false,"Properties":{"ActivityMetadata":{"Title":"Check If OTC License Application"},"Condition":{"Expression":"workflow().Properties.Title == \u0022Commercial Occupational Tax Certificate Application - Informational Page\u0022"}}},{"ActivityId":"48px23s0rpkz013p7m5sh6qgmr","Name":"IfElseTask","X":1280,"Y":170,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"Was the CD Review Apporved?"},"Condition":{"Expression":"workflow().Properties.AdminSubmission.approveDenyPlanningAndZoning == \u0022approve\u0022"}}},{"ActivityId":"446jprb898ff8vrq93ja806wxs","Name":"SetLicenseStatusTask","X":850,"Y":130,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"Change License Status to CD Approve"},"LicenseContentItemId":{"Expression":"{{Workflow.Properties.QueryResult.ContentItemId}}"},"StatusId":{"Expression":"4ytyv6fp6x3mw3am345mpw0kwr"},"LicenseTypeId":{"Expression":null},"AssignedUsers":{"Expression":null},"IsRenewalApproved":false}},{"ActivityId":"4wwwq8snfpx7b3h8djf6qwda4k","Name":"ScriptTask","X":600,"Y":10,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"Get Attached Items"},"AvailableOutcomes":["Done","Finish"],"Script":{"Expression":"var afSubmissionId = workflow().Input.ContentEvent.ContentItemId;\r\n    queryResult = executeQuery(\u0022GetLicenseDetailsByAdvancedFormsSubmissionId\u0022, { \u0022afSubmissionId\u0022 : afSubmissionId })\r\n    if(queryResult[0].LicenseStatus !== \u0022CD Review\u0022){\r\n    setOutcome(\u0027Finish\u0027);\r\n    }\r\n    else{\r\n    setProperty(\u0022QueryResult\u0022, queryResult[0]);\r\n    setOutcome(\u0027Done\u0027);\r\n    }"}}},{"ActivityId":"4p5g1887wvvga5y0vbkqsq9gw8","Name":"SetLicenseStatusTask","X":950,"Y":350,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"Change License Status to CD Deny"},"LicenseContentItemId":{"Expression":"{{Workflow.Properties.QueryResult.ContentItemId}}"},"StatusId":{"Expression":"44682cp69k42k0sm32hk8ypfn2"},"LicenseTypeId":{"Expression":null},"AssignedUsers":{"Expression":null},"IsRenewalApproved":false}},{"ActivityId":"4grj5z5nxtjq218rne7jxbb0wr","Name":"IfElseTask","X":900,"Y":0,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"Is there a Planning And Zoning Decision?"},"Condition":{"Expression":"workflow().Properties.AdminSubmission.approveDenyPlanningAndZoning !== \u0022\u0022"}}},{"ActivityId":"44qtbafk7zf5rxh817fa5ptm43","Name":"IfElseTask","X":830,"Y":580,"IsStart":false,"Properties":{"ActivityMetadata":{"Title":"Check If Alcohol License Application"},"Condition":{"Expression":"workflow().Properties.Title == \u0022Alcohol Beverage License Application\u0022"}}},{"ActivityId":"4bd1r26dnz7s5sn5s9j5whn95j","Name":"SetLicenseStatusTask","X":60,"Y":560,"IsStart":false,"Properties":{"ActivityMetadata":{"Title":"Update License to City Clerk Approve"},"LicenseContentItemId":{"Expression":"{{Workflow.Properties.QueryResult.ContentItemId}}"},"StatusId":{"Expression":"4cgcy1c1t75g113rsqs21qycmn"},"LicenseTypeId":{"Expression":null},"AssignedUsers":{"Expression":null},"IsRenewalApproved":false}},{"ActivityId":"4k94ewdje5yd746k9xt3q6ff5z","Name":"IfElseTask","X":480,"Y":590,"IsStart":false,"Properties":{"ActivityMetadata":{"Title":"Check If City Clerk Approved"},"Condition":{"Expression":"workflow().Properties.AdminSubmission.cityClerkApproveDeny == \u0022approve\u0022"}}},{"ActivityId":"4c6r90cqn8t4q5txhd8sy4krmn","Name":"SetLicenseStatusTask","X":60,"Y":666,"IsStart":false,"Properties":{"ActivityMetadata":{"Title":"Update License to City Clerk Deny"},"LicenseContentItemId":{"Expression":"{{Workflow.Properties.QueryResult.ContentItemId}}"},"StatusId":{"Expression":"42kxdke3g64p77ygh5rph1q5cr"},"LicenseTypeId":{"Expression":null},"AssignedUsers":{"Expression":null},"IsRenewalApproved":false}},{"ActivityId":"480dkds4tr4wczy5dde6ckngnp","Name":"TrackEmailTask","X":460,"Y":130,"IsStart":true,"Properties":{"Sender":{},"Author":{},"Recipients":{"Expression":"{{Workflow.Properties.QueryResult.Email}}"},"ReplyTo":{},"Subject":{"Expression":"CD APPROVE: Your Occupational Tax Certificate Application has been approved by CD"},"Body":{"Expression":"\u003Cemailtemplate\u003E\u003C/emailtemplate\u003E\r\nHello {{Workflow.Properties.QueryResult.ApplicantFirstName}} {{Workflow.Properties.QueryResult.ApplicantLastName}},\r\n\u003Cbr\u003E\u003Cbr\u003E\r\nPart 2 of your Occupational Tax application, Business Zoning and Use, has been approved by Community Development. Please use the link below to complete the Part 3 of your application.\r\n\u003Cbr\u003E\u003Cbr\u003E\r\n\u003Ca href=\u0022https://duluthga.govbuilt.com/AdvancedForms/Part-3-Occupational-Tax-Certificate-Application-Part-3-of-3/License/{{Workflow.Properties.QueryResult.ContentItemId}}\u0022 target=\u0022_blank\u0022\u003EPart 3 - Occupational Tax Certificate Application\u003C/a\u003E. To review your case, click \u003Ca href=\u0022/profile/license\u0022 target=\u0022_blank\u0022\u003EView Profile\u003C/a\u003E."},"IsBodyHtml":true,"CaseContentItemId":{},"LicenseContentItemId":{"Expression":"{{Workflow.Properties.QueryResult.ContentItemId}}"},"AdvancedFormId":{},"ActivityMetadata":{"Title":"Send CD Approved Email to Applicant"}}},{"ActivityId":"4j24bab9qhp5905r9hwcn5q1mt","Name":"TrackEmailTask","X":610,"Y":350,"IsStart":true,"Properties":{"Sender":{},"Author":{},"Recipients":{"Expression":"{{Workflow.Properties.QueryResult.Email}}"},"ReplyTo":{},"Subject":{"Expression":"CD DENIED: Your Commercial OTC and Home Occupation License Application has been denied"},"Body":{"Expression":"\u003Cemailtemplate\u003E\u003C/emailtemplate\u003E\r\nYour Commercial OTC and Home Occupation License Application has been denied by Community Development. We\u0027ve provided information to the comment section in your profile. To review, click {{ProfileLicenseLink}}. If you have questions, please call Planning and Development at 770-476-1790."},"IsBodyHtml":true,"CaseContentItemId":{},"LicenseContentItemId":{"Expression":"{{Workflow.Properties.QueryResult.ContentItemId}}"},"AdvancedFormId":{},"ActivityMetadata":{"Title":"Send CD Denial Email to Applicant"}}},{"ActivityId":"4edamytwq0mz47xxkr39w7gjc5","Name":"SetLicenseStatusTask","X":140,"Y":150,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"Assign License to Melissa Hales"},"LicenseContentItemId":{"Expression":"{{Workflow.Properties.QueryResult.ContentItemId}}"},"StatusId":{},"LicenseTypeId":{},"AssignedUsers":{"Expression":"4qf8jfgjm8qzvxf1n2agbg59xv"},"IsRenewalApproved":false}},{"ActivityId":"449d7mjkqcefty53c7z33cfbxs","Name":"TrackEmailTask","X":0,"Y":430,"IsStart":true,"Properties":{"Sender":{"Expression":null},"Author":{"Expression":null},"Recipients":{"Expression":"mhales@duluthga.net"},"ReplyTo":{"Expression":null},"Subject":{"Expression":"CD APPROVE: Your Occupational Tax Certificate Application has been approved by CD"},"Body":{"Expression":"\u003Cemailtemplate\u003E\u003C/emailtemplate\u003E\r\nA new Occupational Tax Certificate Application has been approved by Community Development. The secondary application has been provided to the applicant. You will be notified when submitted to complete your OTC Review. To review the submission, click {{AdminLicenseLink}}."},"IsBodyHtml":true,"CaseContentItemId":{"Expression":null},"LicenseContentItemId":{"Expression":"{{Workflow.Properties.QueryResult.ContentItemId}}"},"AdvancedFormId":{"Expression":null},"ActivityMetadata":{"Title":"Send Staff Email on CD Approve"}}},{"ActivityId":"4qcj39r638vs9w7q4e1644aynm","Name":"ScriptTask","X":10,"Y":270,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"Get teammember email"},"AvailableOutcomes":["Done"],"Script":{"Expression":"    var queryResult = executeQuery(\u0022GetTeamMemberById\u0022, { \u0022contentItemId\u0022 : \u00224n05r0k68r4zht2abwrxttm8wk\u0022});\r\n    setProperty(\u0022MemberEmail\u0022, JSON.parse(queryResult[0].UserEmail));\r\n    setOutcome(\u0027Done\u0027);\r\n"}}}],"Transitions":[{"Id":0,"SourceActivityId":"48px23s0rpkz013p7m5sh6qgmr","SourceOutcomeName":"True","DestinationActivityId":"446jprb898ff8vrq93ja806wxs"},{"Id":0,"SourceActivityId":"48px23s0rpkz013p7m5sh6qgmr","SourceOutcomeName":"False","DestinationActivityId":"4p5g1887wvvga5y0vbkqsq9gw8"},{"Id":0,"SourceActivityId":"451z787s02fx6vpce6r99tkzdq","SourceOutcomeName":"Done","DestinationActivityId":"48ehxc433efwa14fm6p7aywaxs"},{"Id":0,"SourceActivityId":"48ehxc433efwa14fm6p7aywaxs","SourceOutcomeName":"Done","DestinationActivityId":"4wwwq8snfpx7b3h8djf6qwda4k"},{"Id":0,"SourceActivityId":"4wwwq8snfpx7b3h8djf6qwda4k","SourceOutcomeName":"Done","DestinationActivityId":"4grj5z5nxtjq218rne7jxbb0wr"},{"Id":0,"SourceActivityId":"44qtbafk7zf5rxh817fa5ptm43","SourceOutcomeName":"True","DestinationActivityId":"4k94ewdje5yd746k9xt3q6ff5z"},{"Id":0,"SourceActivityId":"4k94ewdje5yd746k9xt3q6ff5z","SourceOutcomeName":"True","DestinationActivityId":"4bd1r26dnz7s5sn5s9j5whn95j"},{"Id":0,"SourceActivityId":"4k94ewdje5yd746k9xt3q6ff5z","SourceOutcomeName":"False","DestinationActivityId":"4c6r90cqn8t4q5txhd8sy4krmn"},{"Id":0,"SourceActivityId":"4grj5z5nxtjq218rne7jxbb0wr","SourceOutcomeName":"True","DestinationActivityId":"48px23s0rpkz013p7m5sh6qgmr"},{"Id":0,"SourceActivityId":"446jprb898ff8vrq93ja806wxs","SourceOutcomeName":"Done","DestinationActivityId":"480dkds4tr4wczy5dde6ckngnp"},{"Id":0,"SourceActivityId":"480dkds4tr4wczy5dde6ckngnp","SourceOutcomeName":"Done","DestinationActivityId":"4edamytwq0mz47xxkr39w7gjc5"},{"Id":0,"SourceActivityId":"4edamytwq0mz47xxkr39w7gjc5","SourceOutcomeName":"Done","DestinationActivityId":"4qcj39r638vs9w7q4e1644aynm"},{"Id":0,"SourceActivityId":"4qcj39r638vs9w7q4e1644aynm","SourceOutcomeName":"Done","DestinationActivityId":"449d7mjkqcefty53c7z33cfbxs"},{"Id":0,"SourceActivityId":"4p5g1887wvvga5y0vbkqsq9gw8","SourceOutcomeName":"Done","DestinationActivityId":"4j24bab9qhp5905r9hwcn5q1mt"}],"Properties":{}}</t>
-  </si>
-  <si>
-    <t>{"Id":219336,"WorkflowTypeId":"487s736ttcyn9yr8w3jprxffm7","Name":"OTC - Update Required Documents","IsEnabled":true,"IsSingleton":false,"LockTimeout":0,"LockExpiration":0,"DeleteFinishedWorkflows":true,"Activities":[{"ActivityId":"4b7cgqtmn6y3x4a5mkqdx13zmw","Name":"ContentUpdatedEvent","X":0,"Y":0,"IsStart":true,"Properties":{"ContentTypeFilter":["AdvancedFormSubmissions"],"ActivityMetadata":{"Title":null}}},{"ActivityId":"4ddpakr5p94kqyaxe6r222174c","Name":"ScriptTask","X":210,"Y":10,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"Get AdminSubmission Details"},"AvailableOutcomes":["Done"],"Script":{"Expression":"    var contentItem = workflow().Input.ContentEvent.ContentItemId;\r\n    var queryResult1 = executeQuery(\u0022GetAdminSubmissionDetails\u0022, { \u0022contentItemId\u0022 : contentItem});\r\n    setProperty(\u0022AdminSubmission\u0022, JSON.parse(queryResult1[0].AdminSubmission));\r\n    setProperty(\u0022Title\u0022, queryResult1[0].Title);\r\n    setOutcome(\u0027Done\u0027);"}}},{"ActivityId":"4jq067vp11ct15frqqngvmpwwt","Name":"IfElseTask","X":550,"Y":10,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"If OTC Form"},"Condition":{"Expression":"(workflow().Properties.Title === \u0022Occupational Tax Certificate Application - Informational Page\u0022 || workflow().Properties.Title === \u0022Commercial Occupational Tax Certificate Application - Informational Page\u0022 ||  workflow().Properties.Title === \u0022Step 1 - Occupational Tax Certificate Application - Informational Page\u0022 || workflow().Properties.Title ===  \u0022Part 1 - Business Information Form - Part 1 of 3\u0022 || workflow().Properties.Title ===  \u00221st Part - Business Information Form - Part 1 of 3\u0022)"}}},{"ActivityId":"4q3tz8fs2s241wpvga8vnxn2w6","Name":"ForkTask","X":660,"Y":340,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"Update All Required Document Fields"},"Forks":["CO","StateLicense","PhotoID","EVerify","Lease","Environmental","Exempt","BackgroundCheck","RegAgent","SAVE"]}},{"ActivityId":"45wpe73a9amrfvgy5h8c65k9c9","Name":"SetSubmissionValueTask","X":0,"Y":190,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"Set Fire Marshall CO Value"},"IsAdmin":false,"Key":{"Expression":"fireMarshallCoAf"},"Value":{"Expression":"{{Workflow.Properties.AdminSubmission.fireMarshallCo}}"},"ContentItemId":{"Expression":"{{Workflow.Input.ContentEvent.ContentItemId}}"},"StringValue":{"Expression":"{{Workflow.Properties.AdminSubmission.fireMarshallCo}}"},"IsValue":true}},{"ActivityId":"405mz0a4wbdah3je4g4h3zqqcj","Name":"SetSubmissionValueTask","X":0,"Y":340,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"Set StateLicense Required value"},"IsAdmin":false,"Key":{"Expression":"stateLicenseAf"},"Value":{"Expression":"{{Workflow.Properties.AdminSubmission.stateLicense}}"},"ContentItemId":{"Expression":"{{Workflow.Input.ContentEvent.ContentItemId}}"},"StringValue":{"Expression":"{{Workflow.Properties.AdminSubmission.stateLicense}}"},"IsValue":true}},{"ActivityId":"4q9axf98kzep2yetpg7dazxzdm","Name":"SetSubmissionValueTask","X":1240,"Y":230,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"Set Photo ID Value"},"IsAdmin":false,"Key":{"Expression":"copyOfPhotoIdAf"},"Value":{"Expression":"{{Workflow.Properties.AdminSubmission.copyOfPhotoId}}"},"ContentItemId":{"Expression":"{{Workflow.Input.ContentEvent.ContentItemId}}"},"StringValue":{"Expression":"{{Workflow.Properties.AdminSubmission.copyOfPhotoId}}"},"IsValue":true}},{"ActivityId":"4t9ew96xk5ng6xz0zn74dbht4q","Name":"SetSubmissionValueTask","X":120,"Y":720,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"Set EVerify Value"},"IsAdmin":false,"Key":{"Expression":"eVerifyFormAf"},"Value":{"Expression":"{{Workflow.Properties.AdminSubmission.eVerifyForm}}"},"ContentItemId":{"Expression":"{{Workflow.Input.ContentEvent.ContentItemId}}"},"StringValue":{"Expression":"{{Workflow.Properties.AdminSubmission.eVerifyForm}}"},"IsValue":true}},{"ActivityId":"4gdkccckcke7y16xrkmnz16bxx","Name":"SetSubmissionValueTask","X":60,"Y":550,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"Set Lease Value"},"IsAdmin":false,"Key":{"Expression":"leaseRentalAgreementAf"},"Value":{"Expression":null},"ContentItemId":{"Expression":"{{Workflow.Input.ContentEvent.ContentItemId}}"},"StringValue":{"Expression":"{{Workflow.Properties.AdminSubmission.leaseRentalAgreement}}"},"IsValue":true}},{"ActivityId":"40aa0stt0953z1fmm6nkyzk2nf","Name":"SetSubmissionValueTask","X":1270,"Y":450,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"Set Environmental Value"},"IsAdmin":false,"Key":{"Expression":"environmentalHealthApprovalAf"},"Value":{"Expression":null},"ContentItemId":{"Expression":"{{Workflow.Input.ContentEvent.ContentItemId}}"},"StringValue":{"Expression":"{{Workflow.Properties.AdminSubmission.environmentalHealthApproval}}"},"IsValue":true}},{"ActivityId":"4w6nv1y34vxsvw6r4zm2d43gms","Name":"SetSubmissionValueTask","X":570,"Y":740,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"Set Exempt Value"},"IsAdmin":false,"Key":{"Expression":"irsExemptionLetterAf"},"Value":{"Expression":null},"ContentItemId":{"Expression":"{{Workflow.Input.ContentEvent.ContentItemId}}"},"StringValue":{"Expression":"{{Workflow.Properties.AdminSubmission.irsExemptionLetter}}"},"IsValue":true}},{"ActivityId":"4jh2qryvzapsz7v14n01debp5m","Name":"SetSubmissionValueTask","X":940,"Y":760,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"Set Background Check Value"},"IsAdmin":false,"Key":{"Expression":"backgroundCheckAndFingerprintingAf"},"Value":{"Expression":null},"ContentItemId":{"Expression":"{{Workflow.Input.ContentEvent.ContentItemId}}"},"StringValue":{"Expression":"{{Workflow.Properties.AdminSubmission.backgroundCheckAndFingerprinting}}"},"IsValue":true}},{"ActivityId":"4bmvbm0sry8w9rsf2tkprfdddd","Name":"SetSubmissionValueTask","X":1140,"Y":580,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"Set Register Agent Value"},"IsAdmin":false,"Key":{"Expression":"registeredAgentAf"},"Value":{"Expression":null},"ContentItemId":{"Expression":"{{Workflow.Input.ContentEvent.ContentItemId}}"},"StringValue":{"Expression":"{{Workflow.Properties.AdminSubmission.registeredAgentAf}}"},"IsValue":true}},{"ActivityId":"4jnwqckhq26n4tc3syzwd1ge5x","Name":"SetSubmissionValueTask","X":1270,"Y":340,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"SAVE Affidavit"},"IsAdmin":false,"Key":{"Expression":"saveAffidavitAf"},"Value":{"Expression":null},"ContentItemId":{"Expression":"{{Workflow.Input.ContentEvent.ContentItemId}}"},"StringValue":{"Expression":"{{Workflow.Properties.AdminSubmission.saveAffidavit}}"},"IsValue":true}}],"Transitions":[{"Id":0,"SourceActivityId":"4q3tz8fs2s241wpvga8vnxn2w6","SourceOutcomeName":"CO","DestinationActivityId":"45wpe73a9amrfvgy5h8c65k9c9"},{"Id":0,"SourceActivityId":"4q3tz8fs2s241wpvga8vnxn2w6","SourceOutcomeName":"StateLicense","DestinationActivityId":"405mz0a4wbdah3je4g4h3zqqcj"},{"Id":0,"SourceActivityId":"4q3tz8fs2s241wpvga8vnxn2w6","SourceOutcomeName":"PhotoID","DestinationActivityId":"4q9axf98kzep2yetpg7dazxzdm"},{"Id":0,"SourceActivityId":"4q3tz8fs2s241wpvga8vnxn2w6","SourceOutcomeName":"EVerify","DestinationActivityId":"4t9ew96xk5ng6xz0zn74dbht4q"},{"Id":0,"SourceActivityId":"4q3tz8fs2s241wpvga8vnxn2w6","SourceOutcomeName":"Lease","DestinationActivityId":"4gdkccckcke7y16xrkmnz16bxx"},{"Id":0,"SourceActivityId":"4q3tz8fs2s241wpvga8vnxn2w6","SourceOutcomeName":"Environmental","DestinationActivityId":"40aa0stt0953z1fmm6nkyzk2nf"},{"Id":0,"SourceActivityId":"4q3tz8fs2s241wpvga8vnxn2w6","SourceOutcomeName":"Exempt","DestinationActivityId":"4w6nv1y34vxsvw6r4zm2d43gms"},{"Id":0,"SourceActivityId":"4q3tz8fs2s241wpvga8vnxn2w6","SourceOutcomeName":"BackgroundCheck","DestinationActivityId":"4jh2qryvzapsz7v14n01debp5m"},{"Id":0,"SourceActivityId":"4q3tz8fs2s241wpvga8vnxn2w6","SourceOutcomeName":"RegAgent","DestinationActivityId":"4bmvbm0sry8w9rsf2tkprfdddd"},{"Id":0,"SourceActivityId":"4b7cgqtmn6y3x4a5mkqdx13zmw","SourceOutcomeName":"Done","DestinationActivityId":"4ddpakr5p94kqyaxe6r222174c"},{"Id":0,"SourceActivityId":"4ddpakr5p94kqyaxe6r222174c","SourceOutcomeName":"Done","DestinationActivityId":"4jq067vp11ct15frqqngvmpwwt"},{"Id":0,"SourceActivityId":"4jq067vp11ct15frqqngvmpwwt","SourceOutcomeName":"True","DestinationActivityId":"4q3tz8fs2s241wpvga8vnxn2w6"},{"Id":0,"SourceActivityId":"4q3tz8fs2s241wpvga8vnxn2w6","SourceOutcomeName":"SAVE","DestinationActivityId":"4jnwqckhq26n4tc3syzwd1ge5x"}],"Properties":{}}</t>
-  </si>
-  <si>
-    <t>{"Id":219337,"WorkflowTypeId":"47f19xdt46r0brtyg748tsk1d7","Name":"OTC - Update License Status to Delinquent","IsEnabled":true,"IsSingleton":false,"LockTimeout":0,"LockExpiration":0,"DeleteFinishedWorkflows":true,"Activities":[{"ActivityId":"4wqz3xj5j6cfj3z033y84ncznq","Name":"TimerEvent","X":0,"Y":0,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"Execute May 15th at 5am"},"CronExpression":"0 5 15 5 *"}},{"ActivityId":"4xdynf0c4813qrc43hwndy4z4r","Name":"ScriptTask","X":270,"Y":0,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"Get Expired Licenses"},"AvailableOutcomes":["Done"],"Script":{"Expression":"    var queryResult = executeQuery(\u0022GetDelinquentLicenses\u0022, {});\r\n    setProperty(\u0022QueryResult\u0022, queryResult);\r\n    setOutcome(\u0027Done\u0027);\r\n"}}},{"ActivityId":"4wqfh15dyshje1pegj9yh719de","Name":"ForEachTask","X":550,"Y":0,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":null},"LoopVariableName":"x","Enumerable":{"Expression":"workflow().Properties.QueryResult"}}},{"ActivityId":"44s3vg7y1sxdkw8vbem079g2xx","Name":"SetLicenseStatusTask","X":870,"Y":0,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"Change Status to Delinquent"},"LicenseContentItemId":{"Expression":"{{Workflow.LastResult[\u0022ContentItemId\u0022]}}"},"StatusId":{"Expression":"46rdj9e6fzd14vx7bmxffzjpcq"},"LicenseTypeId":{"Expression":null},"AssignedUsers":{"Expression":"4qf8jfgjm8qzvxf1n2agbg59xv,4a4cprpqhw54yyxqde3egkbvnj"},"IsRenewalApproved":false}},{"ActivityId":"4aab7882sxn0q53bc8r728gsw2","Name":"TrackEmailTask","X":550,"Y":210,"IsStart":true,"Properties":{"Sender":{"Expression":null},"Author":{"Expression":null},"Recipients":{"Expression":"{{Workflow.LastResult[\u0022Email\u0022]}}"},"ReplyTo":{"Expression":null},"Subject":{"Expression":"DELINQUENT: Your Occupational Tax Certificate Application {{Workflow.LastResult[\u0022Number\u0022]}} is Delinquent"},"Body":{"Expression":"\u003Cemailtemplate\u003E\u003C/emailtemplate\u003E\r\nYour Occupational Tax Certificate Application {{Workflow.LastResult[\u0022Number\u0022]}}, is currently in a delinquent status. This means that there are outstanding requirements or actions needed to process your application. We have attached your official delinquent letter to your case. To review, click \u003Ca href=\u0022/profile\u0022 target=\u0022_blank\u0022\u003E{{ProfileLicenseLink}}\u003C/a\u003E.\r\n\r\nIt\u0027s important to address these issues promptly to avoid any further delays in processing your application."},"IsBodyHtml":true,"CaseContentItemId":{"Expression":null},"LicenseContentItemId":{"Expression":"{{Workflow.LastResult[\u0022ContentItemId\u0022]}}"},"AdvancedFormId":{"Expression":null},"ActivityMetadata":{"Title":"Send Applicant Email"}}},{"ActivityId":"4mm763gm44v9q5mshnjjh261x7","Name":"TrackEmailTask","X":550,"Y":120,"IsStart":true,"Properties":{"Sender":{"Expression":null},"Author":{"Expression":null},"Recipients":{"Expression":"{% assign assignusers = Queries.GetLicenseDetailbyContentItemId | query : contentItemId : Workflow.LastResult[\u0022ContentItemId\u0022] %}  {% assign users = assignusers[0].AssignedUsers | split: \u0027,\u0027%}  {% for userEmail in users %} {% if userEmail != User.Identity.Name %}  {% assign userdetails = Queries.GetUserEmailByUsername | query : userName: userEmail %}  {{userdetails[0].NormalizedEmail}}, {%endif%} {% endfor %}  {% if users == null or users == \u0027\u0027 %} mhales@duluthga.net, kmccgregor@duluthga.net {% endif %}"},"ReplyTo":{"Expression":null},"Subject":{"Expression":"DELINQUENT: Your Occupational Tax Certificate Application {{Workflow.LastResult[\u0022Number\u0022]}} is Delinquent"},"Body":{"Expression":"\u003Cemailtemplate\u003E\u003C/emailtemplate\u003E\r\nYour Occupational Tax Certificate Application {{Workflow.LastResult[\u0022Number\u0022]}}, is currently in a delinquent status. This means that there are outstanding requirements or actions needed to process your application. We have attached your official delinquent letter to your case. To review, click \u003Ca href=\u0022/admin\u0022 target=\u0022_blank\u0022\u003E{{AdminLicenseLink}}\u003C/a\u003E.\r\n"},"IsBodyHtml":true,"CaseContentItemId":{"Expression":null},"LicenseContentItemId":{"Expression":"{{Workflow.LastResult[\u0022ContentItemId\u0022]}}"},"AdvancedFormId":{"Expression":null},"ActivityMetadata":{"Title":"Send Team Member Email"}}},{"ActivityId":"4aa9j6ygy9kvpv6eqbf6mjwqmf","Name":"ForkTask","X":959,"Y":160,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":null},"Forks":["applicant","staff"]}},{"ActivityId":"4yz670vk611em07zy926cawgn1","Name":"JoinTask","X":0,"Y":150,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":null},"Mode":0}}],"Transitions":[{"Id":0,"SourceActivityId":"4wqz3xj5j6cfj3z033y84ncznq","SourceOutcomeName":"Done","DestinationActivityId":"4xdynf0c4813qrc43hwndy4z4r"},{"Id":0,"SourceActivityId":"4xdynf0c4813qrc43hwndy4z4r","SourceOutcomeName":"Done","DestinationActivityId":"4wqfh15dyshje1pegj9yh719de"},{"Id":0,"SourceActivityId":"4wqfh15dyshje1pegj9yh719de","SourceOutcomeName":"Iterate","DestinationActivityId":"44s3vg7y1sxdkw8vbem079g2xx"},{"Id":0,"SourceActivityId":"4aa9j6ygy9kvpv6eqbf6mjwqmf","SourceOutcomeName":"applicant","DestinationActivityId":"4aab7882sxn0q53bc8r728gsw2"},{"Id":0,"SourceActivityId":"4aa9j6ygy9kvpv6eqbf6mjwqmf","SourceOutcomeName":"staff","DestinationActivityId":"4mm763gm44v9q5mshnjjh261x7"},{"Id":0,"SourceActivityId":"4mm763gm44v9q5mshnjjh261x7","SourceOutcomeName":"Done","DestinationActivityId":"4yz670vk611em07zy926cawgn1"},{"Id":0,"SourceActivityId":"4mm763gm44v9q5mshnjjh261x7","SourceOutcomeName":"Failed","DestinationActivityId":"4yz670vk611em07zy926cawgn1"},{"Id":0,"SourceActivityId":"4aab7882sxn0q53bc8r728gsw2","SourceOutcomeName":"Done","DestinationActivityId":"4yz670vk611em07zy926cawgn1"},{"Id":0,"SourceActivityId":"4aab7882sxn0q53bc8r728gsw2","SourceOutcomeName":"Failed","DestinationActivityId":"4yz670vk611em07zy926cawgn1"},{"Id":0,"SourceActivityId":"4yz670vk611em07zy926cawgn1","SourceOutcomeName":"Joined","DestinationActivityId":"4wqfh15dyshje1pegj9yh719de"},{"Id":0,"SourceActivityId":"44s3vg7y1sxdkw8vbem079g2xx","SourceOutcomeName":"Done","DestinationActivityId":"4aa9j6ygy9kvpv6eqbf6mjwqmf"}],"Properties":{}}</t>
-  </si>
-  <si>
-    <t>{"Id":219338,"WorkflowTypeId":"477m4s7mxd5xb6jy059ty5fq4v","Name":"Update Payment Received","IsEnabled":true,"IsSingleton":false,"LockTimeout":0,"LockExpiration":0,"DeleteFinishedWorkflows":true,"Activities":[{"ActivityId":"40qhj42vttgjp5panqjngavd57","Name":"ContentUpdatedEvent","X":0,"Y":10,"IsStart":true,"Properties":{"ContentTypeFilter":["AdvancedFormAccountingDetails"],"ActivityMetadata":{"Title":null}}},{"ActivityId":"4ycfszx5tawh4679bg7k5hhqdc","Name":"ScriptTask","X":900,"Y":170,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"GetUnpaidAccountingDetails"},"AvailableOutcomes":["Done","Finish"],"Script":{"Expression":"let contentItemId = workflow().Input.ContentItem.Content.AdvancedFormAccountingDetailsPart.ContentItemId;\r\nlet timestamp = new Date().getTime();\r\nlet modifiedDate = new Date(timestamp);\r\nlet queryResult = executeQuery(\u0022GetNumberOfUnpaidAccountingDetails\u0022, { contentItemId: contentItemId, modifiedDate : modifiedDate });\r\nif (queryResult[0].NumOfUnPaidDetails == \u00270\u0027) {\r\n    setOutcome(\u0027Done\u0027);\r\n} else {\r\n    setOutcome(\u0027Finish\u0027);\r\n}"}}},{"ActivityId":"4t6tzb4xtfcdr4r56b0dga1rwy","Name":"IfElseTask","X":260,"Y":20,"IsStart":false,"Properties":{"ActivityMetadata":{"Title":"Check LicenseContentItemId Not Null"},"Condition":{"Expression":"(workflow().Input.ContentItem.Content.AdvancedFormAccountingDetailsPart != null \u0026\u0026 workflow().Input.ContentItem.Content.AdvancedFormAccountingDetailsPart != \u0022\u0022) \u0026\u0026 (workflow().Input.ContentItem.Content.AdvancedFormAccountingDetailsPart.LicenseContentItemId != null \u0026\u0026 workflow().Input.ContentItem.Content.AdvancedFormAccountingDetailsPart.LicenseContentItemId != \u0022\u0022)"}}},{"ActivityId":"4w8cwndwt3qzrztdezb4xhmgws","Name":"ScriptTask","X":600,"Y":0,"IsStart":false,"Properties":{"ActivityMetadata":{"Title":"Get License Details"},"AvailableOutcomes":["Done"],"Script":{"Expression":"let licenseContentItemId = workflow().Input.ContentItem.Content.AdvancedFormAccountingDetailsPart.LicenseContentItemId;\r\nlet licenseInfo = executeQuery(\u0022GetLicenseDetailbyContentItemId\u0022, {contentItemId: licenseContentItemId});\r\nsetProperty(\u0022LicenseInfo\u0022, licenseInfo);\r\nsetOutcome(\u0027Done\u0027);"}}},{"ActivityId":"4w5gy6dmr0c1e626nr05s0eext","Name":"IfElseTask","X":890,"Y":0,"IsStart":false,"Properties":{"ActivityMetadata":{"Title":"Check License Type Commercial OTC and Home Occupation License and license Status Not Active"},"Condition":{"Expression":"workflow().Properties.LicenseInfo[0].LicenseType == \u00274hz2esy8t7bqtt73er52envqnc\u0027 \u0026\u0026 workflow().Properties.LicenseInfo[0].StatusId != \u00274pajj3z2chb61s8d9gkz0tfh4d\u0027"}}},{"ActivityId":"4rq1v99w2bh9ew0ssxryeetznh","Name":"ForkTask","X":454,"Y":170,"IsStart":false,"Properties":{"ActivityMetadata":{"Title":"Check Following License Status"},"Forks":["Approved Pending Payment","Renewal Pending Payment"]}},{"ActivityId":"4xjr0nx7eepm8wm2tchzjjy2ne","Name":"IfElseTask","X":274,"Y":290,"IsStart":false,"Properties":{"ActivityMetadata":{"Title":"Check Status Approved Pending Payment"},"Condition":{"Expression":"workflow().Properties.LicenseInfo[0].StatusId == \u00274sg87rp5xj1tr3pr3w5m1v7fcf\u0027"}}},{"ActivityId":"4ckq786h30ea41f97fkrpz0vcf","Name":"IfElseTask","X":614,"Y":290,"IsStart":false,"Properties":{"ActivityMetadata":{"Title":"Check Status Renewal Pending Payment"},"Condition":{"Expression":"workflow().Properties.LicenseInfo[0].StatusId == \u00274q5yqgaxjheqf4w7y578zwe551\u0027"}}},{"ActivityId":"4pk7jecv89dhxsadyb3a6hsbxp","Name":"SetLicenseStatusTask","X":254,"Y":450,"IsStart":false,"Properties":{"ActivityMetadata":{"Title":"Update License Status to Active"},"LicenseContentItemId":{"Expression":"{{Workflow.Input.ContentItem.Content.AdvancedFormAccountingDetailsPart.LicenseContentItemId}}"},"StatusId":{"Expression":"4pajj3z2chb61s8d9gkz0tfh4d"},"LicenseTypeId":{},"AssignedUsers":{},"IsRenewalApproved":false}},{"ActivityId":"402axpcj7n2y16xnhrp01575wr","Name":"SetLicenseStatusTask","X":614,"Y":440,"IsStart":false,"Properties":{"ActivityMetadata":{"Title":"Change Status to Active After Renewal"},"LicenseContentItemId":{"Expression":"{{Workflow.Input.ContentItem.Content.AdvancedFormAccountingDetailsPart.LicenseContentItemId}}"},"StatusId":{"Expression":"4pajj3z2chb61s8d9gkz0tfh4d"},"LicenseTypeId":{},"AssignedUsers":{},"IsRenewalApproved":true}},{"ActivityId":"48tvqvnk656bb6tpjbqs5b105h","Name":"PublishContentTask","X":0,"Y":0,"IsStart":false,"Properties":{"ActivityMetadata":{},"Content":{}}}],"Transitions":[{"Id":0,"SourceActivityId":"40qhj42vttgjp5panqjngavd57","SourceOutcomeName":"Done","DestinationActivityId":"4t6tzb4xtfcdr4r56b0dga1rwy"},{"Id":0,"SourceActivityId":"4t6tzb4xtfcdr4r56b0dga1rwy","SourceOutcomeName":"True","DestinationActivityId":"4w8cwndwt3qzrztdezb4xhmgws"},{"Id":0,"SourceActivityId":"4w8cwndwt3qzrztdezb4xhmgws","SourceOutcomeName":"Done","DestinationActivityId":"4w5gy6dmr0c1e626nr05s0eext"},{"Id":0,"SourceActivityId":"4w5gy6dmr0c1e626nr05s0eext","SourceOutcomeName":"True","DestinationActivityId":"4ycfszx5tawh4679bg7k5hhqdc"},{"Id":0,"SourceActivityId":"4ycfszx5tawh4679bg7k5hhqdc","SourceOutcomeName":"Done","DestinationActivityId":"4rq1v99w2bh9ew0ssxryeetznh"},{"Id":0,"SourceActivityId":"4rq1v99w2bh9ew0ssxryeetznh","SourceOutcomeName":"Approved Pending Payment","DestinationActivityId":"4xjr0nx7eepm8wm2tchzjjy2ne"},{"Id":0,"SourceActivityId":"4rq1v99w2bh9ew0ssxryeetznh","SourceOutcomeName":"Renewal Pending Payment","DestinationActivityId":"4ckq786h30ea41f97fkrpz0vcf"},{"Id":0,"SourceActivityId":"4xjr0nx7eepm8wm2tchzjjy2ne","SourceOutcomeName":"True","DestinationActivityId":"4pk7jecv89dhxsadyb3a6hsbxp"},{"Id":0,"SourceActivityId":"4ckq786h30ea41f97fkrpz0vcf","SourceOutcomeName":"True","DestinationActivityId":"402axpcj7n2y16xnhrp01575wr"}],"Properties":{}}</t>
-  </si>
-  <si>
-    <t>{"Id":219339,"WorkflowTypeId":"49hv4h64gapebsrg7a4p9jck5e","Name":"OTC - Change to OTC Review on Part 3 Submission","IsEnabled":true,"IsSingleton":false,"LockTimeout":0,"LockExpiration":0,"DeleteFinishedWorkflows":true,"Activities":[{"ActivityId":"44wzkj7zhvqzcw0qytmj9rwyw2","Name":"ContentCreatedEvent","X":0,"Y":0,"IsStart":true,"Properties":{"ContentTypeFilter":["AdvancedFormSubmissions"],"ActivityMetadata":{}}},{"ActivityId":"42nf9rnsrg5mcterh56w30pqcm","Name":"ScriptTask","X":230,"Y":10,"IsStart":false,"Properties":{"ActivityMetadata":{"Title":"Get License Data"},"AvailableOutcomes":["Done","Finish"],"Script":{"Expression":"let afSubmissionId = workflow().Input.ContentEvent.ContentItemId;\r\nlet afInfo = executeQuery(\u0022GetAdvancedFormSubmissionById\u0022, {\u0022contentItemId\u0022 : afSubmissionId});\r\nvar queryResult = executeQuery(\u0022GetLicenseDetailbyContentItemId\u0022, { \u0022contentItemId\u0022 : afInfo[0].LicenseContentItemId});\r\nsetProperty(\u0022QueryResult\u0022, queryResult[0]);\r\nsetProperty(\u0022afInfo\u0022, afInfo[0]);\r\nif(!afInfo[0].Title.includes(\u0022Part 3\u0022) || afInfo[0].Title.includes(\u0022Clone\u0022) || queryResult[0].LicenseStatus != \u0022CD Approved\u0022 || afInfo[0].StatusId == \u002741f62ck7g6z4m6x6ypcbgvmpx5\u0027){\r\nsetOutcome(\u0027Finish\u0027);\r\n}else{\r\nsetOutcome(\u0027Done\u0027);\r\n}"}}},{"ActivityId":"4s6xq696ppmwc29mc7a1jg13d7","Name":"SetLicenseStatusTask","X":490,"Y":10,"IsStart":false,"Properties":{"ActivityMetadata":{"Title":"Change to OTC Review"},"LicenseContentItemId":{"Expression":"{{Workflow.Properties.afInfo.LicenseContentItemId}}"},"StatusId":{"Expression":"49w6tb1753mr53ak5c3hajp24s"},"LicenseTypeId":{},"AssignedUsers":{"Expression":"4qf8jfgjm8qzvxf1n2agbg59xv"},"IsRenewalApproved":false}},{"ActivityId":"47eh3f76fr0g8ye0fm5271gpdm","Name":"TrackEmailTask","X":810,"Y":10,"IsStart":false,"Properties":{"Sender":{},"Author":{},"Recipients":{"Expression":"mhales@duluthga.net"},"ReplyTo":{},"Subject":{"Expression":"OTC REVIEW: Your Occupational Tax Certificate Application Is Under Review"},"Body":{"Expression":"\u003Cemailtemplate\u003E\u003C/emailtemplate\u003E\r\nYour Occupational Tax Certificate Application License is under review. We\u0027ll provide an update on your license once our review process is complete. To review your license, click \u003Ca href=\u0022/admin\u0022 target=\u0022_blank\u0022\u003Ehere\u003C/a\u003E."},"IsBodyHtml":true,"CaseContentItemId":{},"LicenseContentItemId":{"Expression":"{{Workflow.Properties.afInfo.LicenseContentItemId}}"},"AdvancedFormId":{},"ActivityMetadata":{}}},{"ActivityId":"4bnpqep7hryawydadnagj2h7cy","Name":"TrackEmailTask","X":1180,"Y":10,"IsStart":false,"Properties":{"Sender":{},"Author":{},"Recipients":{"Expression":"{{Workflow.Properties.QueryResult.Email}}"},"ReplyTo":{},"Subject":{"Expression":"OTC REVIEW: Your Occupational Tax Certificate Application Is Under Review"},"Body":{"Expression":"\u003Cemailtemplate\u003E\u003C/emailtemplate\u003E\r\nHello {{Attached[0].applicantFirstName}} {{Attached[0].applicantLastName}},\r\n\u003Cbr\u003E\u003Cbr\u003E\r\nThank you for submitting Part 3 of the Occupational Tax (business license) process.  Your application is currently under review for completeness and accuracy.  The verification process may take 5-7 business days.  Once approved, you will receive an email when your invoice is available for payment."},"IsBodyHtml":true,"CaseContentItemId":{},"LicenseContentItemId":{"Expression":"{{Workflow.Properties.QueryResult.ContentItemId}}"},"AdvancedFormId":{},"ActivityMetadata":{"Title":"Send Email to Applicant"}}}],"Transitions":[{"Id":0,"SourceActivityId":"44wzkj7zhvqzcw0qytmj9rwyw2","SourceOutcomeName":"Done","DestinationActivityId":"42nf9rnsrg5mcterh56w30pqcm"},{"Id":0,"SourceActivityId":"42nf9rnsrg5mcterh56w30pqcm","SourceOutcomeName":"Done","DestinationActivityId":"4s6xq696ppmwc29mc7a1jg13d7"},{"Id":0,"SourceActivityId":"4s6xq696ppmwc29mc7a1jg13d7","SourceOutcomeName":"Done","DestinationActivityId":"47eh3f76fr0g8ye0fm5271gpdm"},{"Id":0,"SourceActivityId":"4s6xq696ppmwc29mc7a1jg13d7","SourceOutcomeName":"Failed","DestinationActivityId":"47eh3f76fr0g8ye0fm5271gpdm"},{"Id":0,"SourceActivityId":"47eh3f76fr0g8ye0fm5271gpdm","SourceOutcomeName":"Done","DestinationActivityId":"4bnpqep7hryawydadnagj2h7cy"},{"Id":0,"SourceActivityId":"47eh3f76fr0g8ye0fm5271gpdm","SourceOutcomeName":"Failed","DestinationActivityId":"4bnpqep7hryawydadnagj2h7cy"}],"Properties":{}}</t>
-  </si>
-  <si>
-    <t>{"Id":219340,"WorkflowTypeId":"4f2qptpx35s620mafn4142sk5g","Name":"Set license status to renewal submitted of OTC","IsEnabled":true,"IsSingleton":false,"LockTimeout":0,"LockExpiration":0,"DeleteFinishedWorkflows":true,"Activities":[{"ActivityId":"42410s9apfe3g3ecc090satmnf","Name":"ContentPublishedEvent","X":0,"Y":70,"IsStart":true,"Properties":{"ActivityMetadata":{},"ContentTypeFilter":["AdvancedFormSubmissions"]}},{"ActivityId":"432fzxya3z4zc4cq3vwcxw2fcr","Name":"ScriptTask","X":310,"Y":30,"IsStart":false,"Properties":{"ActivityMetadata":{"Title":"Get License Data"},"AvailableOutcomes":["Done","Finish"],"Script":{"Expression":"var formId = workflow().Input.ContentItem.Content.AdvancedFormSubmissions.AdvancedFormId.Text;\r\nvar queryResult = executeQuery(\u0022GetFormTypeByVersionId\u0022, { contentItemVersionId : String(formId) }); \r\nvar licenseInfo = executeQuery(\u0022GetAdvancedFormSubmissionById\u0022, { contentItemId : workflow().Input.ContentEvent.ContentItemId } );\r\nvar applicantInfo = executeQuery(\u0022GetLicenseDetailbyContentItemId\u0022, { contentItemId : licenseInfo[0].LicenseContentItemId });\r\nvar queryBusTax = executeQuery(\u0022GETBusEquipInvTaxByLicense\u0022, { licensenContentItemId : licenseInfo[0].LicenseContentItemId })\r\nsetProperty(\u0022TypeOfForm\u0022, queryResult[0].TypeOfForm);\r\nsetProperty(\u0022AdvancedFormContentItemId\u0022, queryResult[0].ContentItemId);\r\nsetProperty(\u0022AdvancedFormId\u0022, formId);\r\nsetProperty(\u0022FormStatus\u0022, licenseInfo[0].Status);\r\nsetProperty(\u0022Title\u0022, licenseInfo[0].Title );\r\nsetProperty(\u0022LicensenContentItemId\u0022, licenseInfo[0].LicenseContentItemId );\r\nsetProperty(\u0022ApplicantInfo\u0022, applicantInfo[0]);\r\nsetProperty(\u0022BusEquipInvTaxByLicense\u0022, queryBusTax[0]);\r\nif(licenseInfo[0].StatusId == \u002245g8de07jxfsf5c5sn5jeq5r4n\u0022){\r\nsetOutcome(\u0027Done\u0027);\r\n}else{\r\n    setOutcome(\u0027Finish\u0027);\r\n}"}}},{"ActivityId":"4ja178a040sg5t7ma29w6a7z5g","Name":"SetLicenseStatusTask","X":500,"Y":260,"IsStart":false,"Properties":{"ActivityMetadata":{"Title":"Update license status to Renewal Submitted"},"LicenseContentItemId":{"Expression":"{{Workflow.Input.ContentItem.Content.AdvancedFormSubmissionsPart.LicenseContentItemId}}"},"StatusId":{"Expression":"4r4qx6by0zey2sad0jw8fhn9xq"},"LicenseTypeId":{},"AssignedUsers":{},"IsRenewalApproved":false}},{"ActivityId":"4qk9b3cca0564yntppah9cvpxn","Name":"IfElseTask","X":720,"Y":20,"IsStart":false,"Properties":{"ActivityMetadata":{"Title":"Check Renewal form"},"Condition":{"Expression":"(workflow().Properties.AdvancedFormContentItemId == \u00224wajbf3sptrz9ykqae9rdgzzna\u0022 || workflow().Properties.AdvancedFormContentItemId ==  \u002242n0zyzdf00dk4jkbv304gx7c5\u0022) \u0026\u0026 workflow().Input.ContentItem.Content.AdvancedFormSubmissionsPart.Status != \u0022Closed\u0022"}}},{"ActivityId":"4nqzvhc7t1ras2krvn4ev8pqwc","Name":"SetSubmissionValueTask","X":1250,"Y":330,"IsStart":false,"Properties":{"ActivityMetadata":{},"IsAdmin":true,"Key":{"Expression":"busEquipInvTax"},"Value":{},"ContentItemId":{"Expression":"{{Workflow.Input.ContentItem.Content.AdvancedFormSubmissionsPart.LicenseContentItemId}}"},"StringValue":{"Expression":"{{Workflow.Properties.BusEquipInvTaxByLicense}}"},"IsValue":true}},{"ActivityId":"4fahg2xzqtytvtfhestt7hfxme","Name":"IfElseTask","X":1180,"Y":130,"IsStart":false,"Properties":{"ActivityMetadata":{"Title":"If BusEquipInvTaxByLicense"},"Condition":{"Expression":"(!!workflow().Properties.BusEquipInvTaxByLicense)"}}},{"ActivityId":"45d9z5jsfkyb3xr1k5bxwvz34z","Name":"TrackEmailTask","X":70,"Y":260,"IsStart":false,"Properties":{"ActivityMetadata":{},"Sender":{},"Author":{},"Recipients":{"Expression":"{{Workflow.Properties.ApplicantInfo.Email}}"},"ReplyTo":{},"Subject":{"Expression":"RENEWAL SUBMITTED: Your Occupational Tax Renewal Application Is Under Review"},"Body":{"Expression":"\u003Cemailtemplate\u003E\u003C/emailtemplate\u003E\r\nHello {{Workflow.Properties.ApplicantInfo.ApplicantFirstName}} {{Workflow.Properties.ApplicantInfo.ApplicantLastName}},\r\n\u003Cbr\u003E\u003Cbr\u003E\r\nThank you for submitting your Occupational Tax renewal application.  Your renewal is currently under review for completeness and accuracy.   The verification process may take 10-14 business days during peak renewal season.  Once approved, you will receive an email when your invoice is available for payment. There is a grace period from January 31 until April 30th, at which time full payment must be made to avoid interest and penalties."},"IsBodyHtml":true,"CaseContentItemId":{},"LicenseContentItemId":{"Expression":"{{Workflow.Input.ContentItem.Content.AdvancedFormSubmissionsPart.LicenseContentItemId}}"},"AdvancedFormId":{}}}],"Transitions":[{"Id":0,"SourceActivityId":"42410s9apfe3g3ecc090satmnf","SourceOutcomeName":"Done","DestinationActivityId":"432fzxya3z4zc4cq3vwcxw2fcr"},{"Id":0,"SourceActivityId":"432fzxya3z4zc4cq3vwcxw2fcr","SourceOutcomeName":"Done","DestinationActivityId":"4qk9b3cca0564yntppah9cvpxn"},{"Id":0,"SourceActivityId":"4qk9b3cca0564yntppah9cvpxn","SourceOutcomeName":"False","DestinationActivityId":"4qk9b3cca0564yntppah9cvpxn"},{"Id":0,"SourceActivityId":"4nqzvhc7t1ras2krvn4ev8pqwc","SourceOutcomeName":"Failed","DestinationActivityId":"4ja178a040sg5t7ma29w6a7z5g"},{"Id":0,"SourceActivityId":"4nqzvhc7t1ras2krvn4ev8pqwc","SourceOutcomeName":"Done","DestinationActivityId":"4ja178a040sg5t7ma29w6a7z5g"},{"Id":0,"SourceActivityId":"4qk9b3cca0564yntppah9cvpxn","SourceOutcomeName":"True","DestinationActivityId":"4fahg2xzqtytvtfhestt7hfxme"},{"Id":0,"SourceActivityId":"4fahg2xzqtytvtfhestt7hfxme","SourceOutcomeName":"True","DestinationActivityId":"4nqzvhc7t1ras2krvn4ev8pqwc"},{"Id":0,"SourceActivityId":"4fahg2xzqtytvtfhestt7hfxme","SourceOutcomeName":"False","DestinationActivityId":"4ja178a040sg5t7ma29w6a7z5g"},{"Id":0,"SourceActivityId":"4ja178a040sg5t7ma29w6a7z5g","SourceOutcomeName":"Done","DestinationActivityId":"45d9z5jsfkyb3xr1k5bxwvz34z"},{"Id":0,"SourceActivityId":"4ja178a040sg5t7ma29w6a7z5g","SourceOutcomeName":"Failed","DestinationActivityId":"45d9z5jsfkyb3xr1k5bxwvz34z"}],"Properties":{}}</t>
-  </si>
-  <si>
-    <t>{"Id":219341,"WorkflowTypeId":"47zrvja1je0j76nrjexdqtmyxy","Name":"License Status Set Expired","IsEnabled":true,"IsSingleton":false,"LockTimeout":0,"LockExpiration":0,"DeleteFinishedWorkflows":true,"Activities":[{"ActivityId":"46thsaahnwy1c3fd6q8y2tj2wr","Name":"TimerEvent","X":40,"Y":150,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"Execute everyday 6am"},"CronExpression":"0 13 * * *"}},{"ActivityId":"4akn21f0thmwk07b9hhe1tqjcx","Name":"ScriptTask","X":300,"Y":30,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"GetAllExpiredLicense"},"AvailableOutcomes":["Done"],"Script":{"Expression":"var queryResult = executeQuery(\u0022GetAllExpiredLicense\u0022, { dateDelivered: \u0027\u0027 }); \r\nsetProperty(\u0027QueryResult\u0027, queryResult);\r\nsetOutcome(\u0027Done\u0027);"}}},{"ActivityId":"495fg1ht3p7arv6aeq4zxmfqcm","Name":"ForEachTask","X":910,"Y":100,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":null},"LoopVariableName":"x","Enumerable":{"Expression":"workflow().Properties.QueryResult"}}},{"ActivityId":"4tb3dapd6ry3sw841jzr9gex46","Name":"SetLicenseStatusTask","X":460,"Y":270,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"Set License Status Expired"},"LicenseContentItemId":{"Expression":"{{Workflow.LastResult[\u0022ContentItemId\u0022]}}"},"StatusId":{"Expression":"4ar9awz156txd54qda6gdzevnv"},"LicenseTypeId":{"Expression":null}}}],"Transitions":[{"Id":0,"SourceActivityId":"46thsaahnwy1c3fd6q8y2tj2wr","SourceOutcomeName":"Done","DestinationActivityId":"4akn21f0thmwk07b9hhe1tqjcx"},{"Id":0,"SourceActivityId":"4akn21f0thmwk07b9hhe1tqjcx","SourceOutcomeName":"Done","DestinationActivityId":"495fg1ht3p7arv6aeq4zxmfqcm"},{"Id":0,"SourceActivityId":"495fg1ht3p7arv6aeq4zxmfqcm","SourceOutcomeName":"Iterate","DestinationActivityId":"4tb3dapd6ry3sw841jzr9gex46"},{"Id":0,"SourceActivityId":"4tb3dapd6ry3sw841jzr9gex46","SourceOutcomeName":"Done","DestinationActivityId":"495fg1ht3p7arv6aeq4zxmfqcm"}],"Properties":{}}</t>
-  </si>
-  <si>
     <t>{"Id":219342,"WorkflowTypeId":"4hmrrzt1h0jebzn0nxqr0zcec6","Name":"Migration - Change License Status to Expired","IsEnabled":false,"IsSingleton":true,"LockTimeout":0,"LockExpiration":0,"DeleteFinishedWorkflows":true,"Activities":[{"ActivityId":"4pbg8079x4fvcvwf5te6pcvmw5","Name":"HttpRequestEvent","X":0,"Y":0,"IsStart":true,"Properties":{"ActivityMetadata":{},"HttpMethod":"POST","Url":"/workflows/Invoke?token=CfDJ8LTPCim2SIdNr8sZN1RcXOeq6QYUAHuZo9OqiYFyr6WvizQtfFB_hlAu4BAD5OYCkLNrByfM6B_ji4pz0M-PPYJz9s0fIvIDRJpyXYJ7THGCFdeA7Dk4q3IWf3sal-BvNzVachpjJQgAl_i7QnGS8Db-ABQNh2t071Br1st0pS-Ao4T3h7XibDhbnEw9cl5BnJiIwc4g7e-6-4UISy9Oa4da_8DB7s7ISTKierAzq5Vv","ValidateAntiforgeryToken":true,"TokenLifeSpan":0,"FormLocationKey":""}},{"ActivityId":"42mk9n2b19h6zz0z13axmqrp41","Name":"ScriptTask","X":340,"Y":10,"IsStart":false,"Properties":{"ActivityMetadata":{"Title":"Get Licenses with Migration Statuses"},"AvailableOutcomes":["Done"],"Script":{"Expression":"var queryResult = executeQuery(\u0027MigrationChangeLicenseStatustoExpired\u0027,{}); \r\nsetProperty(\u0027QueryResult\u0027, queryResult);\r\nsetOutcome(\u0027Done\u0027);"}}},{"ActivityId":"4acwwbgvk4b50zk5bwe6y5g04v","Name":"ForEachTask","X":550,"Y":240,"IsStart":false,"Properties":{"ActivityMetadata":{},"LoopVariableName":"x","Enumerable":{"Expression":"workflow().Properties.QueryResult"}}},{"ActivityId":"42x8g15jqhxees2sze8extevch","Name":"SetLicenseStatusTask","X":1260,"Y":240,"IsStart":false,"Properties":{"ActivityMetadata":{"Title":"Update License to Expired"},"LicenseContentItemId":{"Expression":"{{Workflow.LastResult[\u0022ContentItemId\u0022]}}"},"StatusId":{"Expression":"4ar9awz156txd54qda6gdzevnv"},"LicenseTypeId":{},"AssignedUsers":{},"IsRenewalApproved":false}}],"Transitions":[{"Id":0,"SourceActivityId":"42mk9n2b19h6zz0z13axmqrp41","SourceOutcomeName":"Done","DestinationActivityId":"4acwwbgvk4b50zk5bwe6y5g04v"},{"Id":0,"SourceActivityId":"4acwwbgvk4b50zk5bwe6y5g04v","SourceOutcomeName":"Iterate","DestinationActivityId":"42x8g15jqhxees2sze8extevch"},{"Id":0,"SourceActivityId":"42x8g15jqhxees2sze8extevch","SourceOutcomeName":"Done","DestinationActivityId":"4acwwbgvk4b50zk5bwe6y5g04v"},{"Id":0,"SourceActivityId":"42x8g15jqhxees2sze8extevch","SourceOutcomeName":"Failed","DestinationActivityId":"4acwwbgvk4b50zk5bwe6y5g04v"},{"Id":0,"SourceActivityId":"4pbg8079x4fvcvwf5te6pcvmw5","SourceOutcomeName":"Done","DestinationActivityId":"42mk9n2b19h6zz0z13axmqrp41"}],"Properties":{}}</t>
   </si>
   <si>
-    <t>{"Id":325758,"WorkflowTypeId":"4zxt86pd041rk4b3r60b4qnmcv","Name":"Migration - Update Admin Fields","IsEnabled":true,"IsSingleton":true,"LockTimeout":0,"LockExpiration":0,"DeleteFinishedWorkflows":false,"Activities":[{"ActivityId":"44zymjzgkhh6t606q919bcy953","Name":"ScriptTask","X":350,"Y":40,"IsStart":false,"Properties":{"ActivityMetadata":{"Title":"GetLicenseInfo"},"AvailableOutcomes":["Done"],"Script":{"Expression":"let queryResult =  [\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224sd1yqzafwynerajq0rgt5nr4x\u0022,\r\n        \u0022submissionID\u0022: \u00224kc0x9ws09c5z24xqz6162ffxp\u0022,\r\n        \u0022saveName\u0022: \u0022KAMAL PREET\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224wf6dj6068v5b42pdvdc7a4exx\u0022,\r\n        \u0022submissionID\u0022: \u00224y0apdfq4azhvxjqb8wakytsx5\u0022,\r\n        \u0022saveName\u0022: \u0022JAY ORZECH\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224n7jgw5bs1nbqx8t1qp7b6x8d6\u0022,\r\n        \u0022submissionID\u0022: \u00224dt344hqzms2p0xhzxky0qsxwt\u0022,\r\n        \u0022saveName\u0022: \u0022PETER H MERRIAM\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224hxqc0harcr3k42yewjyehxhck\u0022,\r\n        \u0022submissionID\u0022: \u002246kpmejpxemc969p14728ejam4\u0022,\r\n        \u0022saveName\u0022: \u0022AMRYM SOLDIER\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224wy52tez76tbzvjpwc1y1zcx40\u0022,\r\n        \u0022submissionID\u0022: \u00224mkcfdp67pf3kth6m9cpfepr5v\u0022,\r\n        \u0022saveName\u0022: \u0022RONNIE NIXON\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224j0wsg62p61f7s5s4kw3tnts43\u0022,\r\n        \u0022submissionID\u0022: \u002246pt41z56w6xvxzhvpca4gnmd6\u0022,\r\n        \u0022saveName\u0022: \u0022ROBERT Y SHIN\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224mmxsy429apq0tq1dtw2eet9mm\u0022,\r\n        \u0022submissionID\u0022: \u00224hkpystf2y4tftcr2v6jfj6sn8\u0022,\r\n        \u0022saveName\u0022: \u0022AKLILE A BEZAW\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224eh3frsgx1k69tqzdmv05qn6nx\u0022,\r\n        \u0022submissionID\u0022: \u00224b1cfs112e4rc0hssbm3rbrmw9\u0022,\r\n        \u0022saveName\u0022: \u0022TIMOTHY HOWE\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u0022450dqtzk7dc0d61wjwyp3zz2x0\u0022,\r\n        \u0022submissionID\u0022: \u002248zr1vgvargwq4bfg17ayz924g\u0022,\r\n        \u0022saveName\u0022: \u0022PAUL CURTIS\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224qw03c1zfs1hers10h0mbby7cg\u0022,\r\n        \u0022submissionID\u0022: \u00224w8ebstqg6pghv02gpyx84qynb\u0022,\r\n        \u0022saveName\u0022: \u0022MICHAEL NAPPI\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u002249k6db5gqj777y1evcrz9cbnw0\u0022,\r\n        \u0022submissionID\u0022: \u00224sr9wg585ewdg5sjm4tqbbhkn8\u0022,\r\n        \u0022saveName\u0022: \u0022JAMES Z MAWHINNEY\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224t73sfht66mtkv987xpck88p5a\u0022,\r\n        \u0022submissionID\u0022: \u002243gxcg4351xxwr4nkyaxjxcy4e\u0022,\r\n        \u0022saveName\u0022: \u0022TIMOHTY SHINGLETON\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224afzw4ht2h6261fsjejb0nx3d4\u0022,\r\n        \u0022submissionID\u0022: \u002242tx7bcavktkc6hd7rh793vdm1\u0022,\r\n        \u0022saveName\u0022: \u0022CHRISTOPHER WHITE\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224xwjya51xgsj7swma8mfxvq2wy\u0022,\r\n        \u0022submissionID\u0022: \u00224fdkrcfa8r3ay14acd8p1r34my\u0022,\r\n        \u0022saveName\u0022: \u0022LINDA Y. LEE\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224p4z9qbyq2faz3r57n7hhs7mx5\u0022,\r\n        \u0022submissionID\u0022: \u002244y757b979v1mwm9fa8v2rcynw\u0022,\r\n        \u0022saveName\u0022: \u0022POORNIMA KADDI\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u002243we36n394zj40c9bym624h9d7\u0022,\r\n        \u0022submissionID\u0022: \u0022489emtyb3m5tj424hzje20vkc8\u0022,\r\n        \u0022saveName\u0022: \u0022CHRISTINE LEE\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u002242pbbjbdm8c6jv9vqxywssxbcz\u0022,\r\n        \u0022submissionID\u0022: \u002245g6p1haan755v327r7d75twwf\u0022,\r\n        \u0022saveName\u0022: \u0022HYOSOK CHO\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224awrjas9d4np945rkb7wb31mwj\u0022,\r\n        \u0022submissionID\u0022: \u002242y1w0wqsahn44gnysf7zhbtm6\u0022,\r\n        \u0022saveName\u0022: \u0022JOMON P SEBASTIAN\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224qzw2m68rjc275gb8ys2ddqbd7\u0022,\r\n        \u0022submissionID\u0022: \u00224rexzjpen538xwyr9bbwysc6dr\u0022,\r\n        \u0022saveName\u0022: \u0022RACHEL M DUNCAN\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224wxqp8gqzr2pjy02q3akmjy6n4\u0022,\r\n        \u0022submissionID\u0022: \u00224s5b6cdf527g84vsp1y6ykv9nt\u0022,\r\n        \u0022saveName\u0022: \u0022ERICA WOO KIM\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224vnb7t1cfv10e7zqbz9a1awtxa\u0022,\r\n        \u0022submissionID\u0022: \u00224tqpngf2pdv495hp5ad0mh57xd\u0022,\r\n        \u0022saveName\u0022: \u0022HUASHI AMY PARK\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224cxa5k6daxdgp1bsksj7mah1de\u0022,\r\n        \u0022submissionID\u0022: \u00224ypktar388bw605enapgezm7m8\u0022,\r\n        \u0022saveName\u0022: \u0022JUAN C ESCARATE\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u002242chrjby86fbe6n1ccwg8tf4d6\u0022,\r\n        \u0022submissionID\u0022: \u002242755gv4dbhhswrt97gv3cdmm7\u0022,\r\n        \u0022saveName\u0022: \u0022NEUNG LEE\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224eccsears82104wkmqctt91x4s\u0022,\r\n        \u0022submissionID\u0022: \u00224dm7xv5yfj55x2qkeh5ww1z156\u0022,\r\n        \u0022saveName\u0022: \u0022JENNIFER O\u0027BRIEN\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224c878x9q4bmha4081vf9y3g9mr\u0022,\r\n        \u0022submissionID\u0022: \u00224yakkf7hevgb8trjnhjdnzgbc6\u0022,\r\n        \u0022saveName\u0022: \u0022CHUNG HUN LEE\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224kskq6nch7yy70rvafwthhnfwy\u0022,\r\n        \u0022submissionID\u0022: \u00224e5twkk3dpss45dbxkn4d5ybwz\u0022,\r\n        \u0022saveName\u0022: \u0022THOMAS E RAINES\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224pnfyn85we70jygmabrzdgszx4\u0022,\r\n        \u0022submissionID\u0022: \u00224x9qrzj646hawxst1rh275deme\u0022,\r\n        \u0022saveName\u0022: \u0022ZACHARY YURCHUCK\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u002240r7ttyefbs1k3jbn6429a6rmp\u0022,\r\n        \u0022submissionID\u0022: \u00224005rsnxcexwztsvmea0jf7hxm\u0022,\r\n        \u0022saveName\u0022: \u0022DEBORAH M LOVETT\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224pd01v0tkyc77ztqbztzt54fx1\u0022,\r\n        \u0022submissionID\u0022: \u00224zxvkkx1mqj755rb4cz2wsk44q\u0022,\r\n        \u0022saveName\u0022: \u0022JIM MALKASIAN\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u0022416m59vy3avdc72t66zeg3ywmd\u0022,\r\n        \u0022submissionID\u0022: \u00224ch2ewvyr0h910v44mvjd36c4v\u0022,\r\n        \u0022saveName\u0022: \u0022JAMES D ELLIOTT\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u0022460vxdk8f0qpjyysj1qbz7heds\u0022,\r\n        \u0022submissionID\u0022: \u00224jpthhaabm2en51ze86kbywexa\u0022,\r\n        \u0022saveName\u0022: \u0022TERESA D. PARRISH\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224sd392q72rwev5x77m4ztj6zm6\u0022,\r\n        \u0022submissionID\u0022: \u00224tex4w72fe42zw9cnse5fpk64z\u0022,\r\n        \u0022saveName\u0022: \u0022YAAGSOOK YU\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224scgerqzn5tfr2hsms3bre5sdf\u0022,\r\n        \u0022submissionID\u0022: \u002240wtgfp1emsaxtsv783m667yn6\u0022,\r\n        \u0022saveName\u0022: \u0022JAIME O\u0027KEEFFE\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224tt88dn2znex000gwpzm4wtnn7\u0022,\r\n        \u0022submissionID\u0022: \u00224yyjgz7yc4r6z076dq3zc8zwn8\u0022,\r\n        \u0022saveName\u0022: \u0022WEIQIANG LING\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224rrg21kx2kgn3v2mepwxxv6dw8\u0022,\r\n        \u0022submissionID\u0022: \u00224hb0pmq3t7yyh7xc91cxndyjm5\u0022,\r\n        \u0022saveName\u0022: \u0022YANTING LI\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224zqcsfd6vnd2ntyg8g9aa81hw2\u0022,\r\n        \u0022submissionID\u0022: \u00224dmvhf77cxe19syf279tpanqn6\u0022,\r\n        \u0022saveName\u0022: \u0022MARGARET RYAN MCLYNN\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224rtskzfz80jcp7e0cfavevm7dx\u0022,\r\n        \u0022submissionID\u0022: \u002243phrjdptna1rsjf7kzm3gxkm6\u0022,\r\n        \u0022saveName\u0022: \u0022DAVID SOBARO\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224hp21az5c9rjsxdfb9ehckmgm7\u0022,\r\n        \u0022submissionID\u0022: \u00224dswrnhrycpfb64mmx2v15j2ny\u0022,\r\n        \u0022saveName\u0022: \u0022HYOUN HEE CHANG\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224nbaaq0e395n8x0ka3ew2tjhmn\u0022,\r\n        \u0022submissionID\u0022: \u002248hsy1nesrmcy0040eeptxmjd9\u0022,\r\n        \u0022saveName\u0022: \u0022 XUAN CAO\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224wetmf55k0ewf2pakg70sb0tcf\u0022,\r\n        \u0022submissionID\u0022: \u00224x3twqdcns8dcxwv9tkbrjsmdy\u0022,\r\n        \u0022saveName\u0022: \u0022JOONHEE SIM\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224wetmf55k0ewf2pakg70sb0tcf\u0022,\r\n        \u0022submissionID\u0022: \u00224rz588apfy2mz4mvphtwxmfmnm\u0022,\r\n        \u0022saveName\u0022: \u0022JOONHEE SIM\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224n0q8mcwx8tzp1e133t2bbw1wr\u0022,\r\n        \u0022submissionID\u0022: \u00224vgj07gpt1pwt0a8vyeyxh8r4j\u0022,\r\n        \u0022saveName\u0022: \u0022WENQIANG LU\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224enk6zkzwcabe4j61w2z1hj4wm\u0022,\r\n        \u0022submissionID\u0022: \u002242f2c239xk5ys386j6hgrdk7ne\u0022,\r\n        \u0022saveName\u0022: \u0022DAMIAN ROBERTS\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u002244dqfghgrz5mysjd1crgjn2jn7\u0022,\r\n        \u0022submissionID\u0022: \u00224r0w96pf70j8t5zv84069ec15t\u0022,\r\n        \u0022saveName\u0022: \u0022MELANIE L CONNER\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224tbjvc5gs4kmh702r46n1gfvnz\u0022,\r\n        \u0022submissionID\u0022: \u00224kpn7jbsck5zjycmwcs39zm7m7\u0022,\r\n        \u0022saveName\u0022: \u0022EUN MI YOO\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224q99w6kzf7b2h776b1cw7ekmwh\u0022,\r\n        \u0022submissionID\u0022: \u002244ndjdpeyjtay2fthvzyx3q8xr\u0022,\r\n        \u0022saveName\u0022: \u0022ANWAR GILANI\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224ahsc8v9jhxgm4816whasknpw7\u0022,\r\n        \u0022submissionID\u0022: \u00224c5x8rje5td3531x8x17jkt4cp\u0022,\r\n        \u0022saveName\u0022: \u0022SUJITHA JOHN\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224m46jewv58mjxz672s76bd8v5e\u0022,\r\n        \u0022submissionID\u0022: \u00224zd2mkqxxx7jc5750bgwst16c9\u0022,\r\n        \u0022saveName\u0022: \u0022JAESEOK HWANG\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224etndt8ns8stesqkmh82ar1wdz\u0022,\r\n        \u0022submissionID\u0022: \u00224ab7qp039w0qazcqjx5dx05jdj\u0022,\r\n        \u0022saveName\u0022: \u0022JAE KIM\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u002242nkvp1gwn0pjthgp4vcajm7m6\u0022,\r\n        \u0022submissionID\u0022: \u00224gdg83xmbp40nsm2m2day7avma\u0022,\r\n        \u0022saveName\u0022: \u0022GLENN SARVER\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224pfvm9djsb89s7111k3cv5sfcx\u0022,\r\n        \u0022submissionID\u0022: \u0022499vk2g0v61k95p5cxhg69a2cg\u0022,\r\n        \u0022saveName\u0022: \u0022AKLILE A BEZAW\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224ke1d60n6pmfp08by42m1pm65s\u0022,\r\n        \u0022submissionID\u0022: \u00224d1qdfhyy4hfm2j1wvb3zd2rc8\u0022,\r\n        \u0022saveName\u0022: \u0022OGHENERUME S ANAJE\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224t8bkzxp5hnhdrgsb81hxw115n\u0022,\r\n        \u0022submissionID\u0022: \u00224hybedtgkjn3a74njajfn0ngch\u0022,\r\n        \u0022saveName\u0022: \u0022GREGORY G MELLOTT\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u0022491q8x7662qcr0v81zz6bn06w6\u0022,\r\n        \u0022submissionID\u0022: \u00224pp5v1qb4w7bpry7ygmshy2c5m\u0022,\r\n        \u0022saveName\u0022: \u0022MELANIE FOSTER\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224pnfyjwjd8529yg0yaqw1jry40\u0022,\r\n        \u0022submissionID\u0022: \u00224f6paxz53q6bh6fgbybk6txb5g\u0022,\r\n        \u0022saveName\u0022: \u0022JASON BURR\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u002243sjy05aw0qq0s23r2ykvc7gw7\u0022,\r\n        \u0022submissionID\u0022: \u002248wghfjqs5qfz25kkjcee0q9nb\u0022,\r\n        \u0022saveName\u0022: \u0022YUON JU KWON\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224f31jm6873bb3r3b643je5we4q\u0022,\r\n        \u0022submissionID\u0022: \u00224rc1h5v91kpmzyjdejszb1xs54\u0022,\r\n        \u0022saveName\u0022: \u0022RYAN DAN\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224mk7x63ewnkdj0389v5fwx5vw1\u0022,\r\n        \u0022submissionID\u0022: \u002243zr30mjzva083asz0ncqttzcc\u0022,\r\n        \u0022saveName\u0022: \u0022THAO THI PHUONG NGUYEN\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224btwz687scv2t729n6jz3pr145\u0022,\r\n        \u0022submissionID\u0022: \u00224zrp6kmkapffx0gz6k3kacg4wn\u0022,\r\n        \u0022saveName\u0022: \u0022HYO JIN HA\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u0022475ep6b9wzwvh0r93mmda0symg\u0022,\r\n        \u0022submissionID\u0022: \u00224gq1h3pqawrd0whnv2w567nj5q\u0022,\r\n        \u0022saveName\u0022: \u0022XIANG LIANG\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224q3cems8bqhyb2fbs64t5fxhwc\u0022,\r\n        \u0022submissionID\u0022: \u00224fna9gmjgzkcx4zt51f0stme46\u0022,\r\n        \u0022saveName\u0022: \u0022JOSE M RODRIGUEZ DOMINGUEZ\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u002243j1amde3h4cmwjaggjzekm9cq\u0022,\r\n        \u0022submissionID\u0022: \u002243m4gh6qndddrtk674npwbk7x8\u0022,\r\n        \u0022saveName\u0022: \u0022AZIZ RATNANI\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224ae1v052zs8746tzwybtqbzqct\u0022,\r\n        \u0022submissionID\u0022: \u002242pjm5kkyf8rm01wev7a2wqmnc\u0022,\r\n        \u0022saveName\u0022: \u0022LEH SUEN\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224e2ydawznfxwg1w5t7vthwkwnb\u0022,\r\n        \u0022submissionID\u0022: \u00224de8407wy2gjxvpzf6jw4bd94s\u0022,\r\n        \u0022saveName\u0022: \u0022ROBERT M BAILEY\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224p8jp5e1pxzsk5npzxypn05txb\u0022,\r\n        \u0022submissionID\u0022: \u00224gn5gx07aca056bps8mr6spt44\u0022,\r\n        \u0022saveName\u0022: \u0022PHILLIP SONG\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u0022435dnjyavjkn2smc0731h4fyx8\u0022,\r\n        \u0022submissionID\u0022: \u00224g8bmqb9ecr6258c1ybzt2ejmm\u0022,\r\n        \u0022saveName\u0022: \u0022ESTHER LEE\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224xjszjgfxzec5ykhaw5x30kkd7\u0022,\r\n        \u0022submissionID\u0022: \u0022477gqh9wjcj07vz12p79p9614n\u0022,\r\n        \u0022saveName\u0022: \u0022YANLI MENG\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224nrttfts2njhsz6kjgb0kt10xc\u0022,\r\n        \u0022submissionID\u0022: \u002249ckbjvz8tn8w36d7ab8j5k95h\u0022,\r\n        \u0022saveName\u0022: \u0022ELIZABETH M SPONSELLER\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u0022460snyjv0459a75q1c8r6tdg5g\u0022,\r\n        \u0022submissionID\u0022: \u00224rd2b3agzxptgwadns123s5tw3\u0022,\r\n        \u0022saveName\u0022: \u0022ANGELLA PEROTTI\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u0022467pdkeqf56hyse94sqpwbrcwn\u0022,\r\n        \u0022submissionID\u0022: \u00224fdtaww14ty1q5y4qdpe0a904e\u0022,\r\n        \u0022saveName\u0022: \u0022JUMG YUP LEE\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u002247bt90wzb507m43gnbsxsspgxw\u0022,\r\n        \u0022submissionID\u0022: \u00224agznzw7r32c16dp12pw6nfyd6\u0022,\r\n        \u0022saveName\u0022: \u0022KRISTINA ILINA\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224qzz09xyhdcjk5mrnmsp9d5qm6\u0022,\r\n        \u0022submissionID\u0022: \u00224d9500gy2cb9j4d0a4y6vaf4mr\u0022,\r\n        \u0022saveName\u0022: \u0022PATRICIA A WALLIS\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u002240k3bx7dfp2cgsa940yc74mwn3\u0022,\r\n        \u0022submissionID\u0022: \u00224ynr0mazfj1ks4p9rdt3q6scd1\u0022,\r\n        \u0022saveName\u0022: \u0022MEIFENG ZHENG\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224echdn44nswkn6fsv9tgwf5ex1\u0022,\r\n        \u0022submissionID\u0022: \u0022410g1fq7xtx6h19162qrzkc74k\u0022,\r\n        \u0022saveName\u0022: \u0022JUNG HYUN GIL\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224s84cz5w63kc66tmya47pkhdw4\u0022,\r\n        \u0022submissionID\u0022: \u00224b5dtcjhgs9yqs88t4qrr57amh\u0022,\r\n        \u0022saveName\u0022: \u0022SUZIE L HAN\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224benrh80zs0pm31ptgdp82nmwk\u0022,\r\n        \u0022submissionID\u0022: \u00224entmy6hvssbkswq8rs69r1k4c\u0022,\r\n        \u0022saveName\u0022: \u0022KAREN WASSERMAN\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224nj58mszk87nb2qwwn4wrf3qw1\u0022,\r\n        \u0022submissionID\u0022: \u00224mh9zmnchb4ba21knr4qba9rwe\u0022,\r\n        \u0022saveName\u0022: \u0022JEFF RICHARDSON\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224nfmj5mhbhq4s5ykt364qbncdz\u0022,\r\n        \u0022submissionID\u0022: \u00224p9jhkat4t4rj46fx795n0jmx4\u0022,\r\n        \u0022saveName\u0022: \u0022MIN SUNG KOH\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u002242qwf5fw2p2cwtrrtsstyww8m9\u0022,\r\n        \u0022submissionID\u0022: \u00224yakf8av9mdqp235tw6kgmmene\u0022,\r\n        \u0022saveName\u0022: \u0022JAMES JONES\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224x308t3pv8dyhzc5m00tn8vhnk\u0022,\r\n        \u0022submissionID\u0022: \u00224wrs46r400jw858bsyfyvaw25q\u0022,\r\n        \u0022saveName\u0022: \u0022WEI WANG\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224g3pgrtkjzygc2yh9e9qzkgmn6\u0022,\r\n        \u0022submissionID\u0022: \u00224rhmaxghqtdhs3dn7dxdcy3d5q\u0022,\r\n        \u0022saveName\u0022: \u0022HYEBIN KIM\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224768dqzpb4rbjveptgr4s3ce4c\u0022,\r\n        \u0022submissionID\u0022: \u00224955pjm1sh4je37t15yp22m6ce\u0022,\r\n        \u0022saveName\u0022: \u0022MILAGROS JACOME\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224s6frc5qw69txtne1g7fb78v4f\u0022,\r\n        \u0022submissionID\u0022: \u00224y318jy96wq4x7pvsv393fntnm\u0022,\r\n        \u0022saveName\u0022: \u0022SHAMSUDDIN LAKHANI\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224hf70jycgxb2kv6k0fpxgkq6my\u0022,\r\n        \u0022submissionID\u0022: \u00224ez50kz6gzsqrw6gn1cppp7vm2\u0022,\r\n        \u0022saveName\u0022: \u0022HUI LING YU\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224svxq4kp2xzzn2sfhhqy98gmdf\u0022,\r\n        \u0022submissionID\u0022: \u00224nm6vbe4g9n9qzjm042zkbn950\u0022,\r\n        \u0022saveName\u0022: \u0022TIA ROBINSON\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u002247fbwgxajgn3v59q1xyscdkn4w\u0022,\r\n        \u0022submissionID\u0022: \u00224xxvaa0y0wvjms19etecjgrsmd\u0022,\r\n        \u0022saveName\u0022: \u0022CHARLES E MILLER\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224z62n0av4b9ew4t11jk2cgqmmq\u0022,\r\n        \u0022submissionID\u0022: \u002243ca6e5z4w1922gr8ynb2adpd7\u0022,\r\n        \u0022saveName\u0022: \u0022HICHAM TOURABI\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224sbkrwn5samaw6a35p9023vzdc\u0022,\r\n        \u0022submissionID\u0022: \u00224tqfxnpefwxntyj1jmh6wxrzcm\u0022,\r\n        \u0022saveName\u0022: \u0022KIMIBEN PATEL\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224qvnvnjc8p5x632ymj29ham346\u0022,\r\n        \u0022submissionID\u0022: \u00224j224t6tjbq105dp97b9c83gn7\u0022,\r\n        \u0022saveName\u0022: \u0022IDY SEOWYEE LIM\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224edffh2xpj3tq6kkwphrdgtsxj\u0022,\r\n        \u0022submissionID\u0022: \u002240xd8538kmm4hx7wbp2gkhr0c4\u0022,\r\n        \u0022saveName\u0022: \u0022DYLAN G DEGRAAF\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u002248sfcyhtf7v7ayq3kjt1wa674h\u0022,\r\n        \u0022submissionID\u0022: \u00224d9fyqa6j4mt3xg24d5n83p9dz\u0022,\r\n        \u0022saveName\u0022: \u0022SUDHIR SHARMA\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224ppkdk95hjxt2tfcbzcmqhra4r\u0022,\r\n        \u0022submissionID\u0022: \u00224b8vg2m3pj1qbr2fy97rzt5s4d\u0022,\r\n        \u0022saveName\u0022: \u0022GALAL GARGODHI\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u002248raj2ta0anf16vb8xxys4jqd2\u0022,\r\n        \u0022submissionID\u0022: \u002245m8cn9xab2z6zyp3zdm6yvpx8\u0022,\r\n        \u0022saveName\u0022: \u0022EUN SUK KIM\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224519e5ygpm5p7x3nc9m15jjr47\u0022,\r\n        \u0022submissionID\u0022: \u00224g9bae3r6maek7cwcbk0gpcpws\u0022,\r\n        \u0022saveName\u0022: \u0022DANIELA V BOCK-MARTINEZ\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u002248a587ybzjhke34x6vaz17x15y\u0022,\r\n        \u0022submissionID\u0022: \u00224cfwf6xxq12tt3qrd38b3b8f4z\u0022,\r\n        \u0022saveName\u0022: \u0022HYOSOON PARK\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224f9wb691xk1cd12e6sqvv0xcnw\u0022,\r\n        \u0022submissionID\u0022: \u00224gh4yx7c37dmr7c15cdxzgvgnf\u0022,\r\n        \u0022saveName\u0022: \u0022RASHAN DICKINSON\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224zq7m19e2gr56t8kczvcdnqk5b\u0022,\r\n        \u0022submissionID\u0022: \u00224j4mpp72xdddyz3grpzdqrrtwr\u0022,\r\n        \u0022saveName\u0022: \u0022RAJ PATEL\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u002242s6fdmpcvgqasqd0816dxtx58\u0022,\r\n        \u0022submissionID\u0022: \u00224hhh0bhrwh4qrwjbnkw4vtyjmj\u0022,\r\n        \u0022saveName\u0022: \u0022TONY LU\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224n9qhvkr1jcptr95vpanh7g0m0\u0022,\r\n        \u0022submissionID\u0022: \u002247cn54rypyetpth43qfy2v0cd1\u0022,\r\n        \u0022saveName\u0022: \u0022JONATHAN TURMON\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u002240gnqar3frbgw33s6spwvetkcs\u0022,\r\n        \u0022submissionID\u0022: \u00224wfftezf0a0fsy29thgzet01dj\u0022,\r\n        \u0022saveName\u0022: \u0022TONY ROGERS\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224ghv6492tzsg2w9zdgj5k317dj\u0022,\r\n        \u0022submissionID\u0022: \u00224byjr52nh5kptw54f4j7rvk9c6\u0022,\r\n        \u0022saveName\u0022: \u0022JENNIFER LEIGH MCDONALD\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224ydxdgkvqke9ws6cx91fr2rtdy\u0022,\r\n        \u0022submissionID\u0022: \u00224e49g3wes58vv4xphpxe9z99m2\u0022,\r\n        \u0022saveName\u0022: \u0022RAFAEL ANGARICA VILLSENOR\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u002243sh6f6jf5wxfyphy0c1ev6jw2\u0022,\r\n        \u0022submissionID\u0022: \u002242pjey85v5e6avsq8a9sr1a85d\u0022,\r\n        \u0022saveName\u0022: \u0022KWAN H PAK\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224ccy7rfszf65464evkr9se6fwc\u0022,\r\n        \u0022submissionID\u0022: \u002246vvmd0qgee1yxcpnrq2sq35d4\u0022,\r\n        \u0022saveName\u0022: \u0022PAULEKA COOPER\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224ekqhxvqzh0zjy499sz9w4gt5p\u0022,\r\n        \u0022submissionID\u0022: \u002247yjy71pyqaw84kxe0617fnj4q\u0022,\r\n        \u0022saveName\u0022: \u0022YOUN SUN LEE\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224f9fhj24p5gfavvkfnjwg4xk5t\u0022,\r\n        \u0022submissionID\u0022: \u00224grzbr0tdfd8h4e1tkhj07wsmn\u0022,\r\n        \u0022saveName\u0022: \u0022DAE H KIM\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u0022463cmhw3ajqcr3vxr83vjkgnwz\u0022,\r\n        \u0022submissionID\u0022: \u002240xv8qxhqdv4bsknm6dwj9f4mb\u0022,\r\n        \u0022saveName\u0022: \u0022GUBRAN GUBRAN\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u002246855rts011331g2g4x3xk12mg\u0022,\r\n        \u0022submissionID\u0022: \u002246djbe7bev16p1t8pncr81r1w2\u0022,\r\n        \u0022saveName\u0022: \u0022JOON KIM\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224neqy97hra5qm5tqck5ywxkgm4\u0022,\r\n        \u0022submissionID\u0022: \u00224rre96h4syg2qtcgxmabn4mpcf\u0022,\r\n        \u0022saveName\u0022: \u0022STEVEN WILLIS\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224zfvjy9f5cpkryns5h820dz45v\u0022,\r\n        \u0022submissionID\u0022: \u00224eefcwev24z9k0jmreckmp3d4y\u0022,\r\n        \u0022saveName\u0022: \u0022MIN JEON CHO\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224w1gx4np89qssw01ky1n1q96ch\u0022,\r\n        \u0022submissionID\u0022: \u00224hx90r4q4swnr4t70jy3ed4tme\u0022,\r\n        \u0022saveName\u0022: \u0022GREGORY G. MELLOTT\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224pzd3atcd0mjasjzdztqecmbnp\u0022,\r\n        \u0022submissionID\u0022: \u00224e9gchknvwdqa28qqkdssqtems\u0022,\r\n        \u0022saveName\u0022: \u0022JACOB ZECHARIAH SMITH\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224rhderqsrmgjqt08vx09tfy4cr\u0022,\r\n        \u0022submissionID\u0022: \u002243t82wshpt5t21pfay2m6jyjnf\u0022,\r\n        \u0022saveName\u0022: \u0022VICTORIA JEISY SCOTT\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u002241h1reja06yj66sqkp3efvg7m7\u0022,\r\n        \u0022submissionID\u0022: \u00224zz2axyyb13k819vdkeecxcpd1\u0022,\r\n        \u0022saveName\u0022: \u0022ANTIONETTE P HAMILTON\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u002240thpxw16sg5x741bf1xqf3h4k\u0022,\r\n        \u0022submissionID\u0022: \u00224jtjwt4ydcmtkvmg2d4d32s3xz\u0022,\r\n        \u0022saveName\u0022: \u0022OGHENERUME SIEBERE\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224gqpxke29d0pv0djg1ywthvpny\u0022,\r\n        \u0022submissionID\u0022: \u002243ykc0r6jtmd1twpnrxf8radm4\u0022,\r\n        \u0022saveName\u0022: \u0022DEBRA A SIBILA\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u002248yf4kxh35a4y78er75nfxr1ny\u0022,\r\n        \u0022submissionID\u0022: \u0022455cm0nrfz8jd6mbsbjr21kedh\u0022,\r\n        \u0022saveName\u0022: \u0022HONG JA JEONG\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224nnzct6awyhhz2md6gkczz42cd\u0022,\r\n        \u0022submissionID\u0022: \u00224net4xwxepw7w4pd453hbdrpmw\u0022,\r\n        \u0022saveName\u0022: \u0022JUNG HEE LEE\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224bqdcba1sbry1zeh5yz8hq5jwz\u0022,\r\n        \u0022submissionID\u0022: \u00224wcg1t6ze9nj0w9agjjt9vwbca\u0022,\r\n        \u0022saveName\u0022: \u0022BETTY UNDERWOOD MCATEE\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u0022419w61d7tjzya22zz4j99rttd2\u0022,\r\n        \u0022submissionID\u0022: \u002242hxkz586b6zdze552bx869jx1\u0022,\r\n        \u0022saveName\u0022: \u0022JEAN P VINALS JR\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224zzgaj319s6pzxrrga435135n3\u0022,\r\n        \u0022submissionID\u0022: \u0022410kxybbf5mzxww9cbnsy0mhmq\u0022,\r\n        \u0022saveName\u0022: \u0022JAMES LIN\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224jy2pk65npwj9wk61hej3zc6xg\u0022,\r\n        \u0022submissionID\u0022: \u00224fkb14mrd2jge39z85j71tfac5\u0022,\r\n        \u0022saveName\u0022: \u0022TODD A WEAR\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u002244534qsjv26f42gmztaqhyjgww\u0022,\r\n        \u0022submissionID\u0022: \u00224w80g6sxcrzxb3jhcmnqcy18n5\u0022,\r\n        \u0022saveName\u0022: \u0022XUAN CAO\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224g7hcnpr265mg0f79sd565a5xt\u0022,\r\n        \u0022submissionID\u0022: \u00224yv33j845qs5jvmajgx03gzwde\u0022,\r\n        \u0022saveName\u0022: \u0022JASON R INGERMANSON\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u002243tvhjcd94m683gfn94eb2ppd1\u0022,\r\n        \u0022submissionID\u0022: \u0022401ran6ka0g7rv5njkxv5mjv59\u0022,\r\n        \u0022saveName\u0022: \u0022EDGAR SILVA\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224p17ndfbzfmarygbs9gvkrx74j\u0022,\r\n        \u0022submissionID\u0022: \u00224s13b1dhh6bfc2ckg3yp6gep4d\u0022,\r\n        \u0022saveName\u0022: \u0022IN S KANG\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u002242xzyrw9qhvna3qmv7snc1tq5g\u0022,\r\n        \u0022submissionID\u0022: \u002247wsxpacgg0dtwzvpp32dxfnwm\u0022,\r\n        \u0022saveName\u0022: \u0022NAHYUN JOO\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224g006zy02vwqj3kg9rtvvk8rmm\u0022,\r\n        \u0022submissionID\u0022: \u00224kcfrb9tn6d3prehjptqd6235t\u0022,\r\n        \u0022saveName\u0022: \u0022Shu Wan Chen\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224ex7s13xqgkex5txtvepncq64x\u0022,\r\n        \u0022submissionID\u0022: \u00224e4yatcr2v4ac5q5jzvjt95rn8\u0022,\r\n        \u0022saveName\u0022: \u0022YOUNG JOON KIM\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224n8xxym35hez3s5s2m8y0rt7wj\u0022,\r\n        \u0022submissionID\u0022: \u002241rrsmvjsnxn0vvsy3fgmxm9n8\u0022,\r\n        \u0022saveName\u0022: \u0022MILIND KSMIRSAGAR\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224pkynwpkq5hc9zwdcbpe2dvkwj\u0022,\r\n        \u0022submissionID\u0022: \u00224jz76w47sdsbyw2qam3bnt6yxn\u0022,\r\n        \u0022saveName\u0022: \u0022JING SHI\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224wjdzh3rbvfwg49fx1qer6qsnb\u0022,\r\n        \u0022submissionID\u0022: \u00224n9whygv5jg3t0ahzmkfdaf4xd\u0022,\r\n        \u0022saveName\u0022: \u0022SYLVIA WANG\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u002247se6135p7p4f3m8h24rmnp2wt\u0022,\r\n        \u0022submissionID\u0022: \u00224hs5hfnahvfrq69rz2dsxrqz4g\u0022,\r\n        \u0022saveName\u0022: \u0022YOUNG RA KIM\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224h9mqzwm0b90b0b4dhs14a2tc4\u0022,\r\n        \u0022submissionID\u0022: \u00224j9pyfgst90t3tchqvjj5z30d1\u0022,\r\n        \u0022saveName\u0022: \u0022JAMES A RICE\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u002244t6jbhwk</t>
-  </si>
-  <si>
-    <t>nrv7xvyq674ytq456\u0022,\r\n        \u0022submissionID\u0022: \u00224rtn0468yj2xxtzsgg8nhf43nw\u0022,\r\n        \u0022saveName\u0022: \u0022HONG PING WEI\u0022\r\n    }\r\n]\r\n\r\nsetProperty(\u0022Result\u0022, queryResult);\r\nsetOutcome(\u0027Done\u0027);"}}},{"ActivityId":"4zw1g7vqtq36j084dc9q2c20xn","Name":"ForEachTask","X":600,"Y":30,"IsStart":false,"Properties":{"ActivityMetadata":{},"LoopVariableName":"x","Enumerable":{"Expression":"workflow().Properties.Result"}}},{"ActivityId":"4fx7qheyx72vt51ce3g5sx4m5x","Name":"SetSubmissionValueTask","X":1280,"Y":140,"IsStart":false,"Properties":{"ActivityMetadata":{"Title":"busEquipInvTax"},"IsAdmin":false,"Key":{"Expression":"busEquipInvTax"},"Value":{},"ContentItemId":{"Expression":"{{Workflow.LastResult.submissionID}}"},"StringValue":{"Expression":"{{Workflow.LastResult[\u0022busEquipInvTax\u0022]}}"},"IsValue":true}},{"ActivityId":"42722cy2vycmf6hy7vr2zf7fc3","Name":"SetSubmissionValueTask","X":1421,"Y":230,"IsStart":false,"Properties":{"ActivityMetadata":{"Title":"saveVerification"},"IsAdmin":true,"Key":{"Expression":"saveVerification"},"Value":{},"ContentItemId":{"Expression":"{{Workflow.LastResult.submissionID}}"},"StringValue":{"Expression":"{{Workflow.LastResult[\u0022saveVerification\u0022] | default: \u0022\u0022}}"},"IsValue":true}},{"ActivityId":"4x55v21mczhwgsk2pgkmnjxy56","Name":"SetSubmissionValueTask","X":1370,"Y":320,"IsStart":false,"Properties":{"ActivityMetadata":{"Title":"documentExpiration"},"IsAdmin":true,"Key":{"Expression":"documentExpiration"},"Value":{},"ContentItemId":{"Expression":"{{Workflow.LastResult.submissionID}}"},"StringValue":{"Expression":"{{Workflow.LastResult[\u0022documentExpiration\u0022] | default: \u0022\u0022}}"},"IsValue":true}},{"ActivityId":"4jvmycr08rh83vdr6wxnrdajwn","Name":"SetSubmissionValueTask","X":1100,"Y":330,"IsStart":false,"Properties":{"ActivityMetadata":{"Title":"areYouAUSCitizenSAVE"},"IsAdmin":true,"Key":{"Expression":"areYouAUSCitizenSAVE"},"Value":{},"ContentItemId":{"Expression":"{{Workflow.LastResult.submissionID}}"},"StringValue":{"Expression":"{{Workflow.LastResult[\u0022areYouAUSCitizenSAVE\u0022]}}"},"IsValue":true}},{"ActivityId":"4e2n9yjs8fzc3v897y4nmh1741","Name":"SetSubmissionValueTask","X":660,"Y":360,"IsStart":false,"Properties":{"ActivityMetadata":{"Title":"everifyExempt"},"IsAdmin":true,"Key":{"Expression":"everifyExempt"},"Value":{},"ContentItemId":{"Expression":"{{Workflow.LastResult.submissionID}}"},"StringValue":{"Expression":"{{Workflow.LastResult[\u0022everifyExempt\u0022]}}"},"IsValue":true}},{"ActivityId":"4fjm2p7bhsdv6tz5n4xvpyhbwv","Name":"SetSubmissionValueTask","X":190,"Y":360,"IsStart":false,"Properties":{"ActivityMetadata":{"Title":"everify"},"IsAdmin":true,"Key":{"Expression":"everify"},"Value":{},"ContentItemId":{"Expression":"{{Workflow.LastResult.submissionID}}"},"StringValue":{"Expression":"{{Workflow.LastResult[\u0022everify\u0022]}}"},"IsValue":true}},{"ActivityId":"43zmcnccbdfh40aezymk633vcw","Name":"HttpRequestEvent","X":0,"Y":50,"IsStart":true,"Properties":{"ActivityMetadata":{},"HttpMethod":"GET","Url":"/workflows/Invoke?token=CfDJ8LTPCim2SIdNr8sZN1RcXOe0dhIV_ztAVxETLKwVS23mNGbKCSkt3qsonWXNSa6dxs6qhTn8E9RmtgpAQUzG4BN4UwZO5sKsVQo2_78-9EUkV0R4ecNjyVSSfb2ayktu8MYDMoBhqkoHarA_dvgVAnT5B99SNMnHXnKFmbDX0ORJg_Cjxu3WqSB5RcyTvJx_pm8OV0kijfZstoN4ZIPu8bK9CI2BOFV4xUg5pP7hikKQ","ValidateAntiforgeryToken":true,"TokenLifeSpan":0,"FormLocationKey":""}},{"ActivityId":"40gztw636s12bt71y795474dwv","Name":"SetSubmissionValueTask","X":920,"Y":50,"IsStart":false,"Properties":{"ActivityMetadata":{"Title":"saveName"},"IsAdmin":true,"Key":{"Expression":"saveName"},"Value":{},"ContentItemId":{"Expression":"{{Workflow.LastResult.submissionID}}"},"StringValue":{"Expression":"{{Workflow.LastResult[\u0022saveName\u0022]}}"},"IsValue":true}}],"Transitions":[{"Id":0,"SourceActivityId":"44zymjzgkhh6t606q919bcy953","SourceOutcomeName":"Done","DestinationActivityId":"4zw1g7vqtq36j084dc9q2c20xn"},{"Id":0,"SourceActivityId":"42722cy2vycmf6hy7vr2zf7fc3","SourceOutcomeName":"Done","DestinationActivityId":"4x55v21mczhwgsk2pgkmnjxy56"},{"Id":0,"SourceActivityId":"42722cy2vycmf6hy7vr2zf7fc3","SourceOutcomeName":"Failed","DestinationActivityId":"4x55v21mczhwgsk2pgkmnjxy56"},{"Id":0,"SourceActivityId":"4x55v21mczhwgsk2pgkmnjxy56","SourceOutcomeName":"Done","DestinationActivityId":"4jvmycr08rh83vdr6wxnrdajwn"},{"Id":0,"SourceActivityId":"4x55v21mczhwgsk2pgkmnjxy56","SourceOutcomeName":"Failed","DestinationActivityId":"4jvmycr08rh83vdr6wxnrdajwn"},{"Id":0,"SourceActivityId":"4jvmycr08rh83vdr6wxnrdajwn","SourceOutcomeName":"Done","DestinationActivityId":"4e2n9yjs8fzc3v897y4nmh1741"},{"Id":0,"SourceActivityId":"4jvmycr08rh83vdr6wxnrdajwn","SourceOutcomeName":"Failed","DestinationActivityId":"4e2n9yjs8fzc3v897y4nmh1741"},{"Id":0,"SourceActivityId":"4e2n9yjs8fzc3v897y4nmh1741","SourceOutcomeName":"Done","DestinationActivityId":"4fjm2p7bhsdv6tz5n4xvpyhbwv"},{"Id":0,"SourceActivityId":"4e2n9yjs8fzc3v897y4nmh1741","SourceOutcomeName":"Failed","DestinationActivityId":"4fjm2p7bhsdv6tz5n4xvpyhbwv"},{"Id":0,"SourceActivityId":"43zmcnccbdfh40aezymk633vcw","SourceOutcomeName":"Done","DestinationActivityId":"44zymjzgkhh6t606q919bcy953"},{"Id":0,"SourceActivityId":"4zw1g7vqtq36j084dc9q2c20xn","SourceOutcomeName":"Iterate","DestinationActivityId":"40gztw636s12bt71y795474dwv"},{"Id":0,"SourceActivityId":"40gztw636s12bt71y795474dwv","SourceOutcomeName":"Done","DestinationActivityId":"4zw1g7vqtq36j084dc9q2c20xn"},{"Id":0,"SourceActivityId":"40gztw636s12bt71y795474dwv","SourceOutcomeName":"Failed","DestinationActivityId":"4zw1g7vqtq36j084dc9q2c20xn"}],"Properties":{}}</t>
-  </si>
-  <si>
-    <t>{"Id":327672,"WorkflowTypeId":"411p5t1ns9q1as60awrmerrbcq","Name":"Migration - Renewal Submitted","IsEnabled":true,"IsSingleton":false,"LockTimeout":0,"LockExpiration":0,"DeleteFinishedWorkflows":false,"Activities":[{"ActivityId":"41az7shj6s7rjxa8f3d8jje15x","Name":"SetLicenseStatusTask","X":1130,"Y":20,"IsStart":false,"Properties":{"ActivityMetadata":{"Title":"Update status to Expired"},"LicenseContentItemId":{"Expression":"{{Workflow.LastResult[\u0022ContentItemId\u0022]}}"},"StatusId":{"Expression":"4k917d2f49dpzzpd1g8r1pxwdb"},"LicenseTypeId":{},"AssignedUsers":{},"IsRenewalApproved":false}},{"ActivityId":"4jsdc3g4k3yy1tqfdae1ev10w4","Name":"ForEachTask","X":660,"Y":0,"IsStart":false,"Properties":{"ActivityMetadata":{},"LoopVariableName":"x","Enumerable":{"Expression":"workflow().Properties.Result"}}},{"ActivityId":"46rvrzjqefr4jvqgntdg9pdkmd","Name":"ScriptTask","X":320,"Y":90,"IsStart":false,"Properties":{"ActivityMetadata":{"Title":"Incorrectly In Renewal Submitted"},"AvailableOutcomes":["Done"],"Script":{"Expression":"let result = [\r\n    {\r\n        \u0022ContentItemId\u0022: \u00224ga97xm1x10bz310v0fgg10wmp\u0022,\r\n        \u0022Number\u0022: \u0022OTC-3042\u0022,\r\n        \u0022OTCID\u0022: \u00224w6jg2q1rdrb25v2p7dxeacywh\u0022,\r\n        \u0022LicenseStatus\u0022: \u0022Renewal Submitted\u0022,\r\n        \u0022FormStatus\u0022: \u0022Draft\u0022,\r\n        \u0022CreatedUTC\u0022: \u00222025-01-24T20:16:31.553\u0022,\r\n        \u0022ModifiedUTC\u0022: \u00222025-01-28T03:22:51.02\u0022,\r\n        \u0022FormModifiedUTC\u0022: \u00222025-02-07T14:30:36.837\u0022\r\n    }\r\n];\r\nsetProperty(\u0022Result\u0022, result);\r\nsetOutcome(\u0027Done\u0027);"}}},{"ActivityId":"48qdz3vbdxa1a702j0n5xyy2c7","Name":"HttpRequestEvent","X":0,"Y":0,"IsStart":true,"Properties":{"ActivityMetadata":{},"HttpMethod":"GET","Url":"/workflows/Invoke?token=CfDJ8LTPCim2SIdNr8sZN1RcXOf3sNLP_0GmQ7kNRiD9bweK5dRe15MmpY72vaxZ8ZzgO9nEwjsMnvuq3CxarE1YzpdNCqrzn-_Ojvp0Yi73etBG6ac4Q9YpCwPBmnW1jCyzG9BgW5e_Ag_XnGHf0mGFDxjM4uBGFHBCGw0ucgti0xejX5A69-jV7CWbr6XkvMre-6jwC-y6uWVmEbGiH4XbrIxTB-53DVHGQMRftKRHt1Va","ValidateAntiforgeryToken":true,"TokenLifeSpan":0,"FormLocationKey":""}}],"Transitions":[{"Id":0,"SourceActivityId":"4jsdc3g4k3yy1tqfdae1ev10w4","SourceOutcomeName":"Iterate","DestinationActivityId":"41az7shj6s7rjxa8f3d8jje15x"},{"Id":0,"SourceActivityId":"41az7shj6s7rjxa8f3d8jje15x","SourceOutcomeName":"Done","DestinationActivityId":"4jsdc3g4k3yy1tqfdae1ev10w4"},{"Id":0,"SourceActivityId":"41az7shj6s7rjxa8f3d8jje15x","SourceOutcomeName":"Failed","DestinationActivityId":"4jsdc3g4k3yy1tqfdae1ev10w4"},{"Id":0,"SourceActivityId":"46rvrzjqefr4jvqgntdg9pdkmd","SourceOutcomeName":"Done","DestinationActivityId":"4jsdc3g4k3yy1tqfdae1ev10w4"},{"Id":0,"SourceActivityId":"48qdz3vbdxa1a702j0n5xyy2c7","SourceOutcomeName":"Done","DestinationActivityId":"46rvrzjqefr4jvqgntdg9pdkmd"}],"Properties":{}}</t>
-  </si>
-  <si>
-    <t>{"Id":344824,"WorkflowTypeId":"4ryz35ws5w8vm7q9sywjfeffm0","Name":"Migration - Update Gross Receipts Tax Calculations","IsEnabled":true,"IsSingleton":true,"LockTimeout":0,"LockExpiration":0,"DeleteFinishedWorkflows":false,"Activities":[{"ActivityId":"4gjxxyth1vbgwrs5t1x55v055m","Name":"ScriptTask","X":310,"Y":30,"IsStart":false,"Properties":{"ActivityMetadata":{},"AvailableOutcomes":["Done"],"Script":{"Expression":"let queryResult = [\r\n    {\r\n        \u0022ContentItemId\u0022: \u00224cvkg26s6zdqw0d5krx80h9zd4\u0022,\r\n        \u0022data\u0022: {\r\n            \u0022TaxYear\u0022: \u00222025\u0022,\r\n            \u0022NAICS\u0022: \u00225611\u0022,\r\n            \u0022TaxClass\u0022: \u00224\u0022,\r\n            \u0022EstimatedGrossReceipts\u0022: \u00221000\u0022,\r\n            \u0022TaxClassDecimal\u0022: \u00220.0008\u0022,\r\n            \u0022Subtotal\u0022: \u002250\u0022,\r\n            \u0022AdministrationFee\u0022: \u002250\u0022,\r\n            \u0022oneTimeLatePenalty\u0022: \u00220\u0022,\r\n            \u0022monthlyDelinquencyFee\u0022: \u00220\u0022,\r\n            \u0022amountDue\u0022: \u0022100\u0022\r\n        }\r\n    }];\r\nsetProperty(\u0027Result\u0027, queryResult);\r\nsetOutcome(\u0027Done\u0027);"}}},{"ActivityId":"4brcb4dqa11qdxk6x6324nx8x2","Name":"ForEachTask","X":440,"Y":30,"IsStart":false,"Properties":{"ActivityMetadata":{},"LoopVariableName":"x","Enumerable":{"Expression":"workflow().Properties.Result"}}},{"ActivityId":"4szy5cynv40m42atve9fcvkb5z","Name":"SetSubmissionValueTask","X":1130,"Y":20,"IsStart":false,"Properties":{"ActivityMetadata":{"Title":"Update Data Grid"},"IsAdmin":false,"Key":{"Expression":"dataGrid"},"Value":{"Expression":"{{Workflow.LastResult.data}}"},"ContentItemId":{"Expression":"{{Workflow.LastResult.ContentItemId}}"},"StringValue":{},"IsValue":false}},{"ActivityId":"4cd414k5csxs6r4dppab9kv6xk","Name":"HttpRequestEvent","X":0,"Y":70,"IsStart":true,"Properties":{"ActivityMetadata":{},"HttpMethod":"GET","Url":"/workflows/Invoke?token=CfDJ8LTPCim2SIdNr8sZN1RcXOfjEJxsI4YdwfTVa4fSqT_15bZlHiPaGJ9m4hfnaOQFiZ2IjfgRa9-VGOCqVS65sxK5ay2uLGllmZ4tyUrisTE3Zxy3KwHiE4q1H3KNzuwHd-vWcbyApviSc6fqgdXFjm3cUbo7Wl-GBi6hm6k9hhBCeroCC99ZofVmkIUZ0OExSWHKHrzRSZGIFcDOYlhdAW6bcMuY7PLs4QETJ4gkaaFm","ValidateAntiforgeryToken":true,"TokenLifeSpan":0,"FormLocationKey":""}}],"Transitions":[{"Id":0,"SourceActivityId":"4gjxxyth1vbgwrs5t1x55v055m","SourceOutcomeName":"Done","DestinationActivityId":"4brcb4dqa11qdxk6x6324nx8x2"},{"Id":0,"SourceActivityId":"4brcb4dqa11qdxk6x6324nx8x2","SourceOutcomeName":"Iterate","DestinationActivityId":"4szy5cynv40m42atve9fcvkb5z"},{"Id":0,"SourceActivityId":"4cd414k5csxs6r4dppab9kv6xk","SourceOutcomeName":"Done","DestinationActivityId":"4gjxxyth1vbgwrs5t1x55v055m"},{"Id":0,"SourceActivityId":"4szy5cynv40m42atve9fcvkb5z","SourceOutcomeName":"Done","DestinationActivityId":"4brcb4dqa11qdxk6x6324nx8x2"}],"Properties":{}}</t>
-  </si>
-  <si>
-    <t>{"Id":355226,"WorkflowTypeId":"4zbk36bytw1rg1trgkr18ajpwy","Name":"Migration - Update Number of Employees","IsEnabled":true,"IsSingleton":false,"LockTimeout":0,"LockExpiration":0,"DeleteFinishedWorkflows":false,"Activities":[{"ActivityId":"4sv03ykdzppd9sj3yefe7rxz5w","Name":"ScriptTask","X":340,"Y":20,"IsStart":false,"Properties":{"ActivityMetadata":{},"AvailableOutcomes":["Done"],"Script":{"Expression":"let queryResult = [\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u0022409qrvz9sh4vz56qpn175z0gxm\u0022,\r\n        \u0022ContentItemId\u0022: \u00224awxk03apvb3k1y4vnzftc46ww\u0022,\r\n        \u0022totalOfEmployeesExcludingOwners\u0022: 0,\r\n        \u0022totalOfEmployees\u0022: 0,\r\n        \u0022DisplayText\u0022: \u0022Part 3 Occupational Tax Certificate Application - Part 3 of 3 Clone 3480 PALISADE LAKE DR\u0022\r\n    }\r\n]\r\nsetProperty(\u0022Result\u0022, queryResult);\r\nsetOutcome(\u0027Done\u0027);"}}},{"ActivityId":"4yxaysn8a2kg16333pm7n9pewx","Name":"ForEachTask","X":580,"Y":20,"IsStart":false,"Properties":{"ActivityMetadata":{},"LoopVariableName":"x","Enumerable":{"Expression":"workflow().Properties.Result"}}},{"ActivityId":"4txna44cnmwe3vx7a6swsc2mxk","Name":"SetSubmissionValueTask","X":630,"Y":290,"IsStart":false,"Properties":{"ActivityMetadata":{"Title":"totalOfEmployees"},"IsAdmin":false,"Key":{"Expression":"totalOfEmployees"},"Value":{},"ContentItemId":{"Expression":"{{Workflow.LastResult[\u0022ContentItemId\u0022]}}"},"StringValue":{"Expression":"{{Workflow.LastResult[\u0022totalOfEmployees\u0022]}}"},"IsValue":true}},{"ActivityId":"4r6vkzp3m86eprk6pgv718c7da","Name":"SetSubmissionValueTask","X":970,"Y":10,"IsStart":false,"Properties":{"ActivityMetadata":{"Title":"Set totalOfEmployeesExcludingOwners"},"IsAdmin":false,"Key":{"Expression":"totalOfEmployeesExcludingOwners"},"Value":{},"ContentItemId":{"Expression":"{{Workflow.LastResult[\u0022ContentItemId\u0022]}}"},"StringValue":{"Expression":"{{Workflow.LastResult[\u0022totalOfEmployeesExcludingOwners\u0022]}}"},"IsValue":true}},{"ActivityId":"47qrwj584tkcdrdrpsxcwzj6w7","Name":"HttpRequestEvent","X":0,"Y":20,"IsStart":true,"Properties":{"ActivityMetadata":{},"HttpMethod":"GET","Url":"/workflows/Invoke?token=CfDJ8LTPCim2SIdNr8sZN1RcXOc5YG6SUDFOVhz2cfSvYe8hRiHi__Lx5fBn6ScTGh0k8Rm4bOlGbE8LpFP0xtDy3feWItss3d8d9FiZ_Ha4YN8g21x3atOfmn8X1Y2w_PPmBf2X5IrHAo-aRiYVKzosHtoVECfY_7ILVJS90FkNe3knsEJDRHkK7PN9g4XwKtOIfDIQQFsijDMhUVgi5zw_U_yQzeBXknoepRThy8LDD3KM","ValidateAntiforgeryToken":true,"TokenLifeSpan":0,"FormLocationKey":""}}],"Transitions":[{"Id":0,"SourceActivityId":"4r6vkzp3m86eprk6pgv718c7da","SourceOutcomeName":"Done","DestinationActivityId":"4txna44cnmwe3vx7a6swsc2mxk"},{"Id":0,"SourceActivityId":"4yxaysn8a2kg16333pm7n9pewx","SourceOutcomeName":"Iterate","DestinationActivityId":"4r6vkzp3m86eprk6pgv718c7da"},{"Id":0,"SourceActivityId":"4txna44cnmwe3vx7a6swsc2mxk","SourceOutcomeName":"Done","DestinationActivityId":"4yxaysn8a2kg16333pm7n9pewx"},{"Id":0,"SourceActivityId":"4sv03ykdzppd9sj3yefe7rxz5w","SourceOutcomeName":"Done","DestinationActivityId":"4yxaysn8a2kg16333pm7n9pewx"},{"Id":0,"SourceActivityId":"47qrwj584tkcdrdrpsxcwzj6w7","SourceOutcomeName":"Done","DestinationActivityId":"4sv03ykdzppd9sj3yefe7rxz5w"}],"Properties":{}}</t>
+    <t>{"Id":219329,"WorkflowTypeId":"41y8rxca7qbw17jk7j9bry8wxk","Name":"Send Email the Payment Summary Report and the ALL CSV Report as Links","IsEnabled":true,"IsSingleton":true,"LockTimeout":0,"LockExpiration":0,"DeleteFinishedWorkflows":true,"Activities":[{"ActivityId":"4dja46pdexd0d3118964fsbtm7","Name":"TimerEvent","X":60,"Y":110,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"Execute everyday 6am"},"CronExpression":"0 13 * * *"}},{"ActivityId":"4sgte97qvd12kxztf53a5yn3xk","Name":"TrackEmailTask","X":700,"Y":130,"IsStart":true,"Properties":{"Sender":{"Expression":null},"Author":{"Expression":null},"Recipients":{"Expression":"{% assign accountingemail = \u0027{{AccountingSettings.EmailtoEmailAccountingReportLinkstoDaily}}\u0027 %} {% if accountingemail != null or accountingemail != \u0027\u0027 %} {{AccountingSettings.EmailtoEmailAccountingReportLinkstoDaily}} {% endif %}"},"ReplyTo":{"Expression":null},"Subject":{"Expression":"{{AccountingSettings.EmailSubject}}"},"Body":{"Expression":"{{AccountingSettings.EmailBody}}"},"IsBodyHtml":true,"CaseContentItemId":{"Expression":null},"LicenseContentItemId":{"Expression":null},"ActivityMetadata":{"Title":"Send Payment Report"}}}],"Transitions":[{"Id":0,"SourceActivityId":"4dja46pdexd0d3118964fsbtm7","SourceOutcomeName":"Done","DestinationActivityId":"4sgte97qvd12kxztf53a5yn3xk"}],"Properties":{}}</t>
+  </si>
+  <si>
+    <t>{"Id":219330,"WorkflowTypeId":"45vpnbjw1d4dgvexfywnrarrxr","Name":"Appointment Notifications","IsEnabled":false,"IsSingleton":false,"LockTimeout":0,"LockExpiration":0,"DeleteFinishedWorkflows":true,"Activities":[{"ActivityId":"44zhss1m757jjwjczfh1b4445q","Name":"ScriptTask","X":493,"Y":30,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"Get Value of AppointmentStatus"},"AvailableOutcomes":["Done"],"Script":{"Expression":"var  ApprovedContentItemId = workflow().Input.ContentItem.Content.TeamMemberAppointmentPart.Status;\r\nsetProperty(\u0027ApprovedContentItemId\u0027, ApprovedContentItemId);\r\nsetOutcome(\u0027Done\u0027);"}}},{"ActivityId":"4nwt2ekzhvkpvyhrt4jhevxsxg","Name":"IfElseTask","X":70,"Y":150,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"Check Appointment status is approved"},"Condition":{"Expression":"workflow().Properties.ApprovedContentItemId !=null \u0026\u0026 workflow().Properties.ApprovedContentItemId ==\u00224wkmhvnscbzj4677bv3dchqax9\u0022"}}},{"ActivityId":"4xwd4g9np3mfgvhrb1fdsk12c4","Name":"ContentCreatedEvent","X":93,"Y":20,"IsStart":true,"Properties":{"ContentTypeFilter":["TeamMemberAppointment"],"ActivityMetadata":{"Title":null}}},{"ActivityId":"47ae3ft4fwref6svnh30x4d4dh","Name":"IfElseTask","X":30,"Y":340,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"Is schedule by not null"},"Condition":{"Expression":"workflow().Input.ContentItem.Content.TeamMemberAppointmentPart.ScheduledBy!=null \u0026\u0026 workflow().Input.ContentItem.Content.TeamMemberAppointmentPart.ScheduledBy!=\u0022\u0022 \u0026\u0026 workflow().Input.ContentItem.Content.TeamMemberAppointmentPart.ScheduledBy!=undefined"}}},{"ActivityId":"4pbxex8thv5paty4011x2162w2","Name":"TrackEmailTask","X":500,"Y":170,"IsStart":true,"Properties":{"Sender":{"Expression":null},"Author":{"Expression":null},"Recipients":{"Expression":"{% assign userdetails = Queries.GetTeamMemberById| query : contentItemId: Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.ScheduleWith %} {% for item in userdetails %} {{item.UserEmail }} {% endfor %}"},"ReplyTo":{"Expression":null},"Subject":{"Expression":"Appointment Requested on {{Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.AppointmentDate | date: \u0022%b %d, %y\u0022}}"},"Body":{"Expression":"\u003Cemailtemplate\u003E\u003C/emailtemplate\u003E\r\nAppointment Requested on {{Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.AppointmentDate | date: \u0022%b %d, %y\u0022}} with {% assign userdetails = Queries.GetTeamMemberById | query : contentItemId: Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.ScheduleWith %}{% for item in userdetails %} {{item.FirstName}} {{item.LastName}}{% endfor %}. \r\nDetails of appointment: {{Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.Subject}}. \r\nTo accept your appointment login into the admin \r\n\u003Ca href=\u0022{{Request.Scheme}}://{{Request.Host}}{{\u0027~/\u0027| href}}TeamMember/Admin/Schedule\u0022\u003Elink\u003C/a\u003E\r\n on {{Site.SiteName}}."},"IsBodyHtml":true,"CaseContentItemId":{"Expression":"{{Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.CaseContentItemId}}"},"LicenseContentItemId":{"Expression":null},"ActivityMetadata":{"Title":"New Appointment Submitted"}}},{"ActivityId":"4eqyg4sazhn2mypsgdz5r7yed1","Name":"TrackEmailTask","X":530,"Y":340,"IsStart":true,"Properties":{"Sender":{"Expression":null},"Author":{"Expression":null},"Recipients":{"Expression":"{% assign userdetails = Queries.GetUserEmailByUsername | query : userName : Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.ScheduledBy %}  {% for item in userdetails %} {{item.NormalizedEmail | downcase}} {% endfor %}"},"ReplyTo":{"Expression":null},"Subject":{"Expression":"Appointment Approved on {{Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.AppointmentDate | date: \u0022%b %d, %y\u0022}}"},"Body":{"Expression":"\u003Cemailtemplate\u003E\u003C/emailtemplate\u003E\r\nAppointment Approved on {{Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.AppointmentDate | date: \u0022%b %d, %y\u0022}} with {% assign userdetails = Queries.GetTeamMemberById | query : contentItemId: Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.ScheduleWith %}{% for item in userdetails %} {{item.FirstName}} {{item.LastName}}{% endfor %}.\r\nDetails of appointment: {{Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.Subject}}.\u003Cbr\u003E\r\nTo view your appointment login into your  \r\n\u003Ca href=\u0022{{Request.Scheme}}://{{Request.Host}}{{\u0027~/\u0027| href}}Profile/Appointments\u0022\u003Eprofile\u003C/a\u003E\r\non {{Site.SiteName}}. You are receiving this email from {{Site.SiteName}} because you have an account on the site and requested an appointment."},"IsBodyHtml":true,"CaseContentItemId":{"Expression":"{{Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.CaseContentItemId}}"},"LicenseContentItemId":{"Expression":null},"ActivityMetadata":{"Title":"Appointment Approved"}}}],"Transitions":[{"Id":0,"SourceActivityId":"4xwd4g9np3mfgvhrb1fdsk12c4","SourceOutcomeName":"Done","DestinationActivityId":"44zhss1m757jjwjczfh1b4445q"},{"Id":0,"SourceActivityId":"44zhss1m757jjwjczfh1b4445q","SourceOutcomeName":"Done","DestinationActivityId":"4nwt2ekzhvkpvyhrt4jhevxsxg"},{"Id":0,"SourceActivityId":"4nwt2ekzhvkpvyhrt4jhevxsxg","SourceOutcomeName":"True","DestinationActivityId":"47ae3ft4fwref6svnh30x4d4dh"},{"Id":0,"SourceActivityId":"4nwt2ekzhvkpvyhrt4jhevxsxg","SourceOutcomeName":"False","DestinationActivityId":"4pbxex8thv5paty4011x2162w2"},{"Id":0,"SourceActivityId":"47ae3ft4fwref6svnh30x4d4dh","SourceOutcomeName":"True","DestinationActivityId":"4eqyg4sazhn2mypsgdz5r7yed1"}],"Properties":{}}</t>
+  </si>
+  <si>
+    <t>{"Id":219331,"WorkflowTypeId":"4zhnztmxh0b1x0p9xq3wcwj2xa","Name":"Appointment Update Notification","IsEnabled":false,"IsSingleton":false,"LockTimeout":0,"LockExpiration":0,"DeleteFinishedWorkflows":true,"Activities":[{"ActivityId":"4jf7pvz6sf4sn2t6jdf3zczbwz","Name":"ContentUpdatedEvent","X":60,"Y":0,"IsStart":true,"Properties":{"ContentTypeFilter":["TeamMemberAppointment"],"ActivityMetadata":{"Title":null}}},{"ActivityId":"4v2439kg28w7w4rxpnn0d8kv45","Name":"ScriptTask","X":430,"Y":0,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"Get Value of AppointmentStatus"},"AvailableOutcomes":["Done"],"Script":{"Expression":"var  CancelByAdminContentItemId = workflow().Input.ContentItem.Content.TeamMemberAppointmentPart.Status;\r\nvar  DeclinedContentItemId = workflow().Input.ContentItem.Content.TeamMemberAppointmentPart.Status;\r\nvar  ApprovedContentItemId = workflow().Input.ContentItem.Content.TeamMemberAppointmentPart.Status;\r\nsetProperty(\u0027ApprovedContentItemId\u0027, ApprovedContentItemId);\r\nsetProperty(\u0027CancelByAdminContentItemId\u0027, CancelByAdminContentItemId);\r\nsetProperty(\u0027DeclinedContentItemId\u0027, DeclinedContentItemId);\r\nsetOutcome(\u0027Done\u0027);"}}},{"ActivityId":"486nq28b5dnvn1tg1ft6pqdech","Name":"IfElseTask","X":110,"Y":280,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"Check Appointment status is approved"},"Condition":{"Expression":"workflow().Properties.ApprovedContentItemId !=null \u0026\u0026 workflow().Properties.ApprovedContentItemId ==\u00224wkmhvnscbzj4677bv3dchqax9\u0022"}}},{"ActivityId":"4wx212g7ntd153vm84mb7vghn1","Name":"IfElseTask","X":0,"Y":610,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"Check Appointment status is cancel"},"Condition":{"Expression":"workflow().Properties.CancelByAdminContentItemId!=null \u0026\u0026 workflow().Properties.CancelByAdminContentItemId==\u00224e9zqd5x101ra60emz0xx8yrwa\u0022"}}},{"ActivityId":"4b7363k4y4kgz609k9f14wbf4v","Name":"IfElseTask","X":60,"Y":930,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"Check Appointment status is declined"},"Condition":{"Expression":"workflow().Properties.DeclinedContentItemId !=null \u0026\u0026 workflow().Properties.DeclinedContentItemId==\u00224cjn1mapdc1xz61zt7j08j844j\u0022"}}},{"ActivityId":"4f49m1ccr8xg7tw6n5cz7hnnm7","Name":"IfElseTask","X":30,"Y":140,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"Is schedule by not null"},"Condition":{"Expression":"workflow().Input.ContentItem.Content.TeamMemberAppointmentPart.ScheduledBy!=null \u0026\u0026 workflow().Input.ContentItem.Content.TeamMemberAppointmentPart.ScheduledBy!=\u0027\u0027 \u0026\u0026 workflow().Input.ContentItem.Content.TeamMemberAppointmentPart.ScheduledBy!=undefined"}}},{"ActivityId":"47aca6dcry5m14zc6b82x3sedk","Name":"IfElseTask","X":50,"Y":1240,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"Check Appointment status is cancel by user"},"Condition":{"Expression":"workflow().Properties.CancelByAdminContentItemId!=null \u0026\u0026 workflow().Properties.CancelByAdminContentItemId==\u00224yv6qdh41yhs33r261xy6b29wb\u0022"}}},{"ActivityId":"438y5e90ysqht3hm74b4w3jyx8","Name":"TrackEmailTask","X":469,"Y":440,"IsStart":true,"Properties":{"Sender":{"Expression":null},"Author":{"Expression":null},"Recipients":{"Expression":"{% assign userdetails = Queries.GetUserEmailByUsername | query : userName : Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.ScheduledBy %}  {% for item in userdetails %} {{item.NormalizedEmail | downcase}} {% endfor %}"},"ReplyTo":{"Expression":null},"Subject":{"Expression":"Appointment Approved on {{Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.AppointmentDate | date: \u0022%b %d, %y\u0022}}"},"Body":{"Expression":"\u003Cemailtemplate\u003E\u003C/emailtemplate\u003E\r\nAppointment Approved on {{Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.AppointmentDate | date: \u0022%b %d, %y\u0022}} with {% assign userdetails = Queries.GetTeamMemberById | query : contentItemId: Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.ScheduleWith %}{% for item in userdetails %} {{item.FirstName}} {{item.LastName}}{% endfor %}.\r\nDetails of appointment: {{Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.Subject}}.\u003Cbr\u003E\r\nTo view your appointment login into your  \r\n\u003Ca href=\u0022{{Request.Scheme}}://{{Request.Host}}{{\u0027~/\u0027| href}}Profile/Appointments\u0022\u003Eprofile\u003C/a\u003E\r\non {{Site.SiteName}}. You are receiving this email from {{Site.SiteName}} because you have an account on the site and requested an appointment.\r\n"},"IsBodyHtml":true,"CaseContentItemId":{"Expression":"{{Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.CaseContentItemId}}"},"LicenseContentItemId":{"Expression":null},"ActivityMetadata":{"Title":"Appointment Approved"}}},{"ActivityId":"46hyp0183f45xwzv0snepwnhc3","Name":"TrackEmailTask","X":430,"Y":730,"IsStart":true,"Properties":{"Sender":{"Expression":null},"Author":{"Expression":null},"Recipients":{"Expression":"{% assign userdetails = Queries.GetUserEmailByUsername | query : userName : Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.ScheduledBy %}  {% for item in userdetails %} {{item.NormalizedEmail | downcase}} {% endfor %}"},"ReplyTo":{"Expression":null},"Subject":{"Expression":"Appointment Cancel on {{Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.AppointmentDate | date: \u0022%b %d, %y\u0022}}"},"Body":{"Expression":"\u003Cemailtemplate\u003E\u003C/emailtemplate\u003E\r\nAppointment Cancel on {{Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.AppointmentDate | date: \u0022%b %d, %y\u0022}} with {% assign userdetails = Queries.GetTeamMemberById | query : contentItemId: Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.ScheduleWith %}{% for item in userdetails %} {{item.FirstName}} {{item.LastName}}{% endfor %}.\r\nDetails of appointment: {{Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.Subject}}.\u003Cbr\u003E\r\nTo view your appointment login into your  \r\n\u003Ca href=\u0022{{Request.Scheme}}://{{Request.Host}}{{\u0027~/\u0027| href}}Profile/Appointments\u0022\u003Eprofile\u003C/a\u003E\r\non {{Site.SiteName}}. You are receiving this email from {{Site.SiteName}} because you have an account on the site and requested an appointment.\r\n"},"IsBodyHtml":true,"CaseContentItemId":{"Expression":"{{Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.CaseContentItemId}}"},"LicenseContentItemId":{"Expression":null},"ActivityMetadata":{"Title":"Appointment Cancel"}}},{"ActivityId":"43acc081pz1404fwc89e1aer5n","Name":"TrackEmailTask","X":420,"Y":1110,"IsStart":true,"Properties":{"Sender":{"Expression":null},"Author":{"Expression":null},"Recipients":{"Expression":"{% assign userdetails = Queries.GetUserEmailByUsername | query : userName : Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.ScheduledBy %}  {% for item in userdetails %} {{item.NormalizedEmail | downcase}} {% endfor %}"},"ReplyTo":{"Expression":null},"Subject":{"Expression":"Appointment Declined on {{Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.AppointmentDate | date: \u0022%b %d, %y\u0022}}"},"Body":{"Expression":"\u003Cemailtemplate\u003E\u003C/emailtemplate\u003E\r\nAppointment Declined on {{Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.AppointmentDate | date: \u0022%b %d, %y\u0022}} with {% assign userdetails = Queries.GetTeamMemberById | query : contentItemId: Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.ScheduleWith %}{% for item in userdetails %} {{item.FirstName}} {{item.LastName}}{% endfor %}.\r\nDetails of appointment: {{Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.Subject}}.\u003Cbr\u003E\r\nTo view your appointment login into your  \r\n\u003Ca href=\u0022{{Request.Scheme}}://{{Request.Host}}{{\u0027~/\u0027| href}}Profile/Appointments\u0022\u003Eprofile\u003C/a\u003E\r\non {{Site.SiteName}}.\r\nReason : {{Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.DeclinedComment}}.\r\nYou are receiving this email from {{Site.SiteName}} because you have an account on the site and requested an appointment.\r\n"},"IsBodyHtml":true,"CaseContentItemId":{"Expression":"{{Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.CaseContentItemId}}"},"LicenseContentItemId":{"Expression":null},"ActivityMetadata":{"Title":"Appointment Declined"}}},{"ActivityId":"4kjgyehrm0h5q3kae0dmxqbvn9","Name":"TrackEmailTask","X":210,"Y":1400,"IsStart":true,"Properties":{"Sender":{"Expression":null},"Author":{"Expression":null},"Recipients":{"Expression":"{% assign userdetails = Queries.GetTeamMemberById| query : contentItemId: Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.ScheduleWith %} {% for item in userdetails %} {{item.UserEmail }} {% endfor %}{% assign userdetails = Queries.GetTeamMemberById| query : contentItemId: Workflow.Input.ContentItem.Content.TeamMemberAppointment.ScheduleWith %} {% for item in userdetails %} {{item.UserEmail }} {% endfor %}"},"ReplyTo":{"Expression":null},"Subject":{"Expression":"Appointment Cancelled By User on {{Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.AppointmentDate | date: \u0022%b %d, %y\u0022}}"},"Body":{"Expression":"\u003Cemailtemplate\u003E\u003C/emailtemplate\u003E\r\nAppointment Cancelled By User on {{Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.AppointmentDate | date: \u0022%b %d, %y\u0022}} with {% assign userdetails = Queries.GetTeamMemberById | query : contentItemId: Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.ScheduleWith %}{% for item in userdetails %} {{item.FirstName}} {{item.LastName}}{% endfor %}. \r\nDetails of appointment: {{Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.Subject}}. "},"IsBodyHtml":true,"CaseContentItemId":{"Expression":"{{Workflow.Input.ContentItem.Content.TeamMemberAppointmentPart.CaseContentItemId}}"},"LicenseContentItemId":{"Expression":null},"ActivityMetadata":{"Title":"Appointment Cancel By User"}}}],"Transitions":[{"Id":0,"SourceActivityId":"486nq28b5dnvn1tg1ft6pqdech","SourceOutcomeName":"False","DestinationActivityId":"4wx212g7ntd153vm84mb7vghn1"},{"Id":0,"SourceActivityId":"4wx212g7ntd153vm84mb7vghn1","SourceOutcomeName":"False","DestinationActivityId":"4b7363k4y4kgz609k9f14wbf4v"},{"Id":0,"SourceActivityId":"4jf7pvz6sf4sn2t6jdf3zczbwz","SourceOutcomeName":"Done","DestinationActivityId":"4v2439kg28w7w4rxpnn0d8kv45"},{"Id":0,"SourceActivityId":"4v2439kg28w7w4rxpnn0d8kv45","SourceOutcomeName":"Done","DestinationActivityId":"4f49m1ccr8xg7tw6n5cz7hnnm7"},{"Id":0,"SourceActivityId":"4f49m1ccr8xg7tw6n5cz7hnnm7","SourceOutcomeName":"True","DestinationActivityId":"486nq28b5dnvn1tg1ft6pqdech"},{"Id":0,"SourceActivityId":"4b7363k4y4kgz609k9f14wbf4v","SourceOutcomeName":"False","DestinationActivityId":"47aca6dcry5m14zc6b82x3sedk"},{"Id":0,"SourceActivityId":"486nq28b5dnvn1tg1ft6pqdech","SourceOutcomeName":"True","DestinationActivityId":"438y5e90ysqht3hm74b4w3jyx8"},{"Id":0,"SourceActivityId":"4wx212g7ntd153vm84mb7vghn1","SourceOutcomeName":"True","DestinationActivityId":"46hyp0183f45xwzv0snepwnhc3"},{"Id":0,"SourceActivityId":"4b7363k4y4kgz609k9f14wbf4v","SourceOutcomeName":"True","DestinationActivityId":"43acc081pz1404fwc89e1aer5n"},{"Id":0,"SourceActivityId":"47aca6dcry5m14zc6b82x3sedk","SourceOutcomeName":"True","DestinationActivityId":"4kjgyehrm0h5q3kae0dmxqbvn9"}],"Properties":{}}</t>
+  </si>
+  <si>
+    <t>{"Id":219335,"WorkflowTypeId":"4r0zppsgb0w1my3cfvskyq905y","Name":"Staff Review - Change License Status","IsEnabled":false,"IsSingleton":false,"LockTimeout":0,"LockExpiration":0,"DeleteFinishedWorkflows":false,"Activities":[{"ActivityId":"451z787s02fx6vpce6r99tkzdq","Name":"ContentUpdatedEvent","X":0,"Y":0,"IsStart":true,"Properties":{"ContentTypeFilter":["AdvancedFormSubmissions"],"ActivityMetadata":{"Title":null}}},{"ActivityId":"48ehxc433efwa14fm6p7aywaxs","Name":"ScriptTask","X":280,"Y":10,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"Get AdminSubmission Details"},"AvailableOutcomes":["Done"],"Script":{"Expression":"    var contentItem = workflow().Input.ContentEvent.ContentItemId;\r\n    var queryResult1 = executeQuery(\u0022GetAdminSubmissionDetails\u0022, { \u0022contentItemId\u0022 : contentItem});\r\n    if(queryResult1[0].AdminSubmission != \u0022\u0022){\r\n        setProperty(\u0022AdminSubmission\u0022, JSON.parse(queryResult1[0].AdminSubmission));\r\n        setProperty(\u0022Title\u0022, queryResult1[0].Title);\r\n        setOutcome(\u0027Done\u0027);\r\n    }\r\n"}}},{"ActivityId":"4f1evjrwv26hwsp02sesabgjw7","Name":"IfElseTask","X":720,"Y":490,"IsStart":false,"Properties":{"ActivityMetadata":{"Title":"Check If OTC License Application"},"Condition":{"Expression":"workflow().Properties.Title == \u0022Commercial Occupational Tax Certificate Application - Informational Page\u0022"}}},{"ActivityId":"48px23s0rpkz013p7m5sh6qgmr","Name":"IfElseTask","X":1280,"Y":170,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"Was the CD Review Apporved?"},"Condition":{"Expression":"workflow().Properties.AdminSubmission.approveDenyPlanningAndZoning == \u0022approve\u0022"}}},{"ActivityId":"446jprb898ff8vrq93ja806wxs","Name":"SetLicenseStatusTask","X":850,"Y":130,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"Change License Status to CD Approve"},"LicenseContentItemId":{"Expression":"{{Workflow.Properties.QueryResult.ContentItemId}}"},"StatusId":{"Expression":"4ytyv6fp6x3mw3am345mpw0kwr"},"LicenseTypeId":{"Expression":null},"AssignedUsers":{"Expression":null},"IsRenewalApproved":false}},{"ActivityId":"4wwwq8snfpx7b3h8djf6qwda4k","Name":"ScriptTask","X":600,"Y":10,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"Get Attached Items"},"AvailableOutcomes":["Done","Finish"],"Script":{"Expression":"var afSubmissionId = workflow().Input.ContentEvent.ContentItemId;\r\n    queryResult = executeQuery(\u0022GetLicenseDetailsByAdvancedFormsSubmissionId\u0022, { \u0022afSubmissionId\u0022 : afSubmissionId })\r\n    if(queryResult[0].LicenseStatus !== \u0022CD Review\u0022){\r\n    setOutcome(\u0027Finish\u0027);\r\n    }\r\n    else{\r\n    setProperty(\u0022QueryResult\u0022, queryResult[0]);\r\n    setOutcome(\u0027Done\u0027);\r\n    }"}}},{"ActivityId":"4p5g1887wvvga5y0vbkqsq9gw8","Name":"SetLicenseStatusTask","X":950,"Y":350,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"Change License Status to CD Deny"},"LicenseContentItemId":{"Expression":"{{Workflow.Properties.QueryResult.ContentItemId}}"},"StatusId":{"Expression":"44682cp69k42k0sm32hk8ypfn2"},"LicenseTypeId":{"Expression":null},"AssignedUsers":{"Expression":null},"IsRenewalApproved":false}},{"ActivityId":"4grj5z5nxtjq218rne7jxbb0wr","Name":"IfElseTask","X":900,"Y":0,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"Is there a Planning And Zoning Decision?"},"Condition":{"Expression":"workflow().Properties.AdminSubmission.approveDenyPlanningAndZoning !== \u0022\u0022"}}},{"ActivityId":"44qtbafk7zf5rxh817fa5ptm43","Name":"IfElseTask","X":830,"Y":580,"IsStart":false,"Properties":{"ActivityMetadata":{"Title":"Check If Alcohol License Application"},"Condition":{"Expression":"workflow().Properties.Title == \u0022Alcohol Beverage License Application\u0022"}}},{"ActivityId":"4bd1r26dnz7s5sn5s9j5whn95j","Name":"SetLicenseStatusTask","X":60,"Y":560,"IsStart":false,"Properties":{"ActivityMetadata":{"Title":"Update License to City Clerk Approve"},"LicenseContentItemId":{"Expression":"{{Workflow.Properties.QueryResult.ContentItemId}}"},"StatusId":{"Expression":"4cgcy1c1t75g113rsqs21qycmn"},"LicenseTypeId":{"Expression":null},"AssignedUsers":{"Expression":null},"IsRenewalApproved":false}},{"ActivityId":"4k94ewdje5yd746k9xt3q6ff5z","Name":"IfElseTask","X":480,"Y":590,"IsStart":false,"Properties":{"ActivityMetadata":{"Title":"Check If City Clerk Approved"},"Condition":{"Expression":"workflow().Properties.AdminSubmission.cityClerkApproveDeny == \u0022approve\u0022"}}},{"ActivityId":"4c6r90cqn8t4q5txhd8sy4krmn","Name":"SetLicenseStatusTask","X":60,"Y":666,"IsStart":false,"Properties":{"ActivityMetadata":{"Title":"Update License to City Clerk Deny"},"LicenseContentItemId":{"Expression":"{{Workflow.Properties.QueryResult.ContentItemId}}"},"StatusId":{"Expression":"42kxdke3g64p77ygh5rph1q5cr"},"LicenseTypeId":{"Expression":null},"AssignedUsers":{"Expression":null},"IsRenewalApproved":false}},{"ActivityId":"480dkds4tr4wczy5dde6ckngnp","Name":"TrackEmailTask","X":460,"Y":130,"IsStart":true,"Properties":{"Sender":{},"Author":{},"Recipients":{"Expression":"{{Workflow.Properties.QueryResult.Email}}"},"ReplyTo":{},"Subject":{"Expression":"CD APPROVE: Your Occupational Tax Certificate Application has been approved by CD"},"Body":{"Expression":"\u003Cemailtemplate\u003E\u003C/emailtemplate\u003E\r\nHello {{Workflow.Properties.QueryResult.ApplicantFirstName}} {{Workflow.Properties.QueryResult.ApplicantLastName}},\r\n\u003Cbr\u003E\u003Cbr\u003E\r\nPart 2 of your Occupational Tax application, Business Zoning and Use, has been approved by Community Development. Please use the link below to complete the Part 3 of your application.\r\n\u003Cbr\u003E\u003Cbr\u003E\r\n\u003Ca href=\u0022https://duluthga.govbuilt.com/AdvancedForms/Part-3-Occupational-Tax-Certificate-Application-Part-3-of-3/License/{{Workflow.Properties.QueryResult.ContentItemId}}\u0022 target=\u0022_blank\u0022\u003EPart 3 - Occupational Tax Certificate Application\u003C/a\u003E. To review your case, click \u003Ca href=\u0022/profile/license\u0022 target=\u0022_blank\u0022\u003EView Profile\u003C/a\u003E."},"IsBodyHtml":true,"CaseContentItemId":{},"LicenseContentItemId":{"Expression":"{{Workflow.Properties.QueryResult.ContentItemId}}"},"AdvancedFormId":{},"ActivityMetadata":{"Title":"Send CD Approved Email to Applicant"}}},{"ActivityId":"4j24bab9qhp5905r9hwcn5q1mt","Name":"TrackEmailTask","X":610,"Y":350,"IsStart":true,"Properties":{"Sender":{},"Author":{},"Recipients":{"Expression":"{{Workflow.Properties.QueryResult.Email}}"},"ReplyTo":{},"Subject":{"Expression":"CD DENIED: Your Commercial OTC and Home Occupation License Application has been denied"},"Body":{"Expression":"\u003Cemailtemplate\u003E\u003C/emailtemplate\u003E\r\nYour Commercial OTC and Home Occupation License Application has been denied by Community Development. We\u0027ve provided information to the comment section in your profile. To review, click {{ProfileLicenseLink}}. If you have questions, please call Planning and Development at 770-476-1790."},"IsBodyHtml":true,"CaseContentItemId":{},"LicenseContentItemId":{"Expression":"{{Workflow.Properties.QueryResult.ContentItemId}}"},"AdvancedFormId":{},"ActivityMetadata":{"Title":"Send CD Denial Email to Applicant"}}},{"ActivityId":"4edamytwq0mz47xxkr39w7gjc5","Name":"SetLicenseStatusTask","X":140,"Y":150,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"Assign License to Melissa Hales"},"LicenseContentItemId":{"Expression":"{{Workflow.Properties.QueryResult.ContentItemId}}"},"StatusId":{},"LicenseTypeId":{},"AssignedUsers":{"Expression":"4qf8jfgjm8qzvxf1n2agbg59xv"},"IsRenewalApproved":false}},{"ActivityId":"449d7mjkqcefty53c7z33cfbxs","Name":"TrackEmailTask","X":0,"Y":430,"IsStart":true,"Properties":{"Sender":{"Expression":null},"Author":{"Expression":null},"Recipients":{"Expression":"mhales@duluthga.net"},"ReplyTo":{"Expression":null},"Subject":{"Expression":"CD APPROVE: Your Occupational Tax Certificate Application has been approved by CD"},"Body":{"Expression":"\u003Cemailtemplate\u003E\u003C/emailtemplate\u003E\r\nA new Occupational Tax Certificate Application has been approved by Community Development. The secondary application has been provided to the applicant. You will be notified when submitted to complete your OTC Review. To review the submission, click {{AdminLicenseLink}}."},"IsBodyHtml":true,"CaseContentItemId":{"Expression":null},"LicenseContentItemId":{"Expression":"{{Workflow.Properties.QueryResult.ContentItemId}}"},"AdvancedFormId":{"Expression":null},"ActivityMetadata":{"Title":"Send Staff Email on CD Approve"}}},{"ActivityId":"4qcj39r638vs9w7q4e1644aynm","Name":"ScriptTask","X":10,"Y":270,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"Get teammember email"},"AvailableOutcomes":["Done"],"Script":{"Expression":"    var queryResult = executeQuery(\u0022GetTeamMemberById\u0022, { \u0022contentItemId\u0022 : \u00224n05r0k68r4zht2abwrxttm8wk\u0022});\r\n    setProperty(\u0022MemberEmail\u0022, JSON.parse(queryResult[0].UserEmail));\r\n    setOutcome(\u0027Done\u0027);\r\n"}}}],"Transitions":[{"Id":0,"SourceActivityId":"48px23s0rpkz013p7m5sh6qgmr","SourceOutcomeName":"True","DestinationActivityId":"446jprb898ff8vrq93ja806wxs"},{"Id":0,"SourceActivityId":"48px23s0rpkz013p7m5sh6qgmr","SourceOutcomeName":"False","DestinationActivityId":"4p5g1887wvvga5y0vbkqsq9gw8"},{"Id":0,"SourceActivityId":"451z787s02fx6vpce6r99tkzdq","SourceOutcomeName":"Done","DestinationActivityId":"48ehxc433efwa14fm6p7aywaxs"},{"Id":0,"SourceActivityId":"48ehxc433efwa14fm6p7aywaxs","SourceOutcomeName":"Done","DestinationActivityId":"4wwwq8snfpx7b3h8djf6qwda4k"},{"Id":0,"SourceActivityId":"4wwwq8snfpx7b3h8djf6qwda4k","SourceOutcomeName":"Done","DestinationActivityId":"4grj5z5nxtjq218rne7jxbb0wr"},{"Id":0,"SourceActivityId":"44qtbafk7zf5rxh817fa5ptm43","SourceOutcomeName":"True","DestinationActivityId":"4k94ewdje5yd746k9xt3q6ff5z"},{"Id":0,"SourceActivityId":"4k94ewdje5yd746k9xt3q6ff5z","SourceOutcomeName":"True","DestinationActivityId":"4bd1r26dnz7s5sn5s9j5whn95j"},{"Id":0,"SourceActivityId":"4k94ewdje5yd746k9xt3q6ff5z","SourceOutcomeName":"False","DestinationActivityId":"4c6r90cqn8t4q5txhd8sy4krmn"},{"Id":0,"SourceActivityId":"4grj5z5nxtjq218rne7jxbb0wr","SourceOutcomeName":"True","DestinationActivityId":"48px23s0rpkz013p7m5sh6qgmr"},{"Id":0,"SourceActivityId":"446jprb898ff8vrq93ja806wxs","SourceOutcomeName":"Done","DestinationActivityId":"480dkds4tr4wczy5dde6ckngnp"},{"Id":0,"SourceActivityId":"480dkds4tr4wczy5dde6ckngnp","SourceOutcomeName":"Done","DestinationActivityId":"4edamytwq0mz47xxkr39w7gjc5"},{"Id":0,"SourceActivityId":"4edamytwq0mz47xxkr39w7gjc5","SourceOutcomeName":"Done","DestinationActivityId":"4qcj39r638vs9w7q4e1644aynm"},{"Id":0,"SourceActivityId":"4qcj39r638vs9w7q4e1644aynm","SourceOutcomeName":"Done","DestinationActivityId":"449d7mjkqcefty53c7z33cfbxs"},{"Id":0,"SourceActivityId":"4p5g1887wvvga5y0vbkqsq9gw8","SourceOutcomeName":"Done","DestinationActivityId":"4j24bab9qhp5905r9hwcn5q1mt"}],"Properties":{}}</t>
+  </si>
+  <si>
+    <t>{"Id":219336,"WorkflowTypeId":"487s736ttcyn9yr8w3jprxffm7","Name":"OTC - Update Required Documents","IsEnabled":true,"IsSingleton":false,"LockTimeout":0,"LockExpiration":0,"DeleteFinishedWorkflows":true,"Activities":[{"ActivityId":"4b7cgqtmn6y3x4a5mkqdx13zmw","Name":"ContentUpdatedEvent","X":0,"Y":0,"IsStart":true,"Properties":{"ContentTypeFilter":["AdvancedFormSubmissions"],"ActivityMetadata":{"Title":null}}},{"ActivityId":"4ddpakr5p94kqyaxe6r222174c","Name":"ScriptTask","X":260,"Y":10,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"Get AdminSubmission Details"},"AvailableOutcomes":["Done"],"Script":{"Expression":"    var contentItem = workflow().Input.ContentEvent.ContentItemId;\r\n    var queryResult1 = executeQuery(\u0022GetAdminSubmissionDetails\u0022, { \u0022contentItemId\u0022 : contentItem});\r\n    if(queryResult1[0].AdminSubmission != \u0022\u0022){\r\n        setProperty(\u0022AdminSubmission\u0022, JSON.parse(queryResult1[0].AdminSubmission));\r\n        setProperty(\u0022Title\u0022, queryResult1[0].Title);\r\n        setOutcome(\u0027Done\u0027);\r\n    }"}}},{"ActivityId":"4jq067vp11ct15frqqngvmpwwt","Name":"IfElseTask","X":640,"Y":10,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"If OTC Form"},"Condition":{"Expression":"workflow().Properties.Title === \u0022Occupational Tax Certificate Application - Informational Page\u0022 || workflow().Properties.Title === \u0022Commercial Occupational Tax Certificate Application - Informational Page\u0022 ||  workflow().Properties.Title === \u0022Step 1 - Occupational Tax Certificate Application - Informational Page\u0022 || workflow().Properties.Title ===  \u0022Part 1 - Business Information Form - Part 1 of 3\u0022 || workflow().Properties.Title ===  \u00221st Part - Business Information Form - Part 1 of 3\u0022"}}},{"ActivityId":"4q3tz8fs2s241wpvga8vnxn2w6","Name":"ForkTask","X":660,"Y":340,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"Update All Required Document Fields"},"Forks":["CO","StateLicense","PhotoID","EVerify","Lease","Environmental","Exempt","BackgroundCheck","RegAgent","SAVE"]}},{"ActivityId":"45wpe73a9amrfvgy5h8c65k9c9","Name":"SetSubmissionValueTask","X":0,"Y":190,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"Set Fire Marshall CO Value"},"IsAdmin":false,"Key":{"Expression":"fireMarshallCoAf"},"Value":{"Expression":"{{Workflow.Properties.AdminSubmission.fireMarshallCo}}"},"ContentItemId":{"Expression":"{{Workflow.Input.ContentEvent.ContentItemId}}"},"StringValue":{"Expression":"{{Workflow.Properties.AdminSubmission.fireMarshallCo}}"},"IsValue":true}},{"ActivityId":"405mz0a4wbdah3je4g4h3zqqcj","Name":"SetSubmissionValueTask","X":0,"Y":340,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"Set StateLicense Required value"},"IsAdmin":false,"Key":{"Expression":"stateLicenseAf"},"Value":{"Expression":"{{Workflow.Properties.AdminSubmission.stateLicense}}"},"ContentItemId":{"Expression":"{{Workflow.Input.ContentEvent.ContentItemId}}"},"StringValue":{"Expression":"{{Workflow.Properties.AdminSubmission.stateLicense}}"},"IsValue":true}},{"ActivityId":"4q9axf98kzep2yetpg7dazxzdm","Name":"SetSubmissionValueTask","X":1240,"Y":230,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"Set Photo ID Value"},"IsAdmin":false,"Key":{"Expression":"copyOfPhotoIdAf"},"Value":{"Expression":"{{Workflow.Properties.AdminSubmission.copyOfPhotoId}}"},"ContentItemId":{"Expression":"{{Workflow.Input.ContentEvent.ContentItemId}}"},"StringValue":{"Expression":"{{Workflow.Properties.AdminSubmission.copyOfPhotoId}}"},"IsValue":true}},{"ActivityId":"4t9ew96xk5ng6xz0zn74dbht4q","Name":"SetSubmissionValueTask","X":120,"Y":720,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"Set EVerify Value"},"IsAdmin":false,"Key":{"Expression":"eVerifyFormAf"},"Value":{"Expression":"{{Workflow.Properties.AdminSubmission.eVerifyForm}}"},"ContentItemId":{"Expression":"{{Workflow.Input.ContentEvent.ContentItemId}}"},"StringValue":{"Expression":"{{Workflow.Properties.AdminSubmission.eVerifyForm}}"},"IsValue":true}},{"ActivityId":"4gdkccckcke7y16xrkmnz16bxx","Name":"SetSubmissionValueTask","X":60,"Y":550,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"Set Lease Value"},"IsAdmin":false,"Key":{"Expression":"leaseRentalAgreementAf"},"Value":{"Expression":null},"ContentItemId":{"Expression":"{{Workflow.Input.ContentEvent.ContentItemId}}"},"StringValue":{"Expression":"{{Workflow.Properties.AdminSubmission.leaseRentalAgreement}}"},"IsValue":true}},{"ActivityId":"40aa0stt0953z1fmm6nkyzk2nf","Name":"SetSubmissionValueTask","X":1270,"Y":450,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"Set Environmental Value"},"IsAdmin":false,"Key":{"Expression":"environmentalHealthApprovalAf"},"Value":{"Expression":null},"ContentItemId":{"Expression":"{{Workflow.Input.ContentEvent.ContentItemId}}"},"StringValue":{"Expression":"{{Workflow.Properties.AdminSubmission.environmentalHealthApproval}}"},"IsValue":true}},{"ActivityId":"4w6nv1y34vxsvw6r4zm2d43gms","Name":"SetSubmissionValueTask","X":570,"Y":740,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"Set Exempt Value"},"IsAdmin":false,"Key":{"Expression":"irsExemptionLetterAf"},"Value":{"Expression":null},"ContentItemId":{"Expression":"{{Workflow.Input.ContentEvent.ContentItemId}}"},"StringValue":{"Expression":"{{Workflow.Properties.AdminSubmission.irsExemptionLetter}}"},"IsValue":true}},{"ActivityId":"4jh2qryvzapsz7v14n01debp5m","Name":"SetSubmissionValueTask","X":940,"Y":760,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"Set Background Check Value"},"IsAdmin":false,"Key":{"Expression":"backgroundCheckAndFingerprintingAf"},"Value":{"Expression":null},"ContentItemId":{"Expression":"{{Workflow.Input.ContentEvent.ContentItemId}}"},"StringValue":{"Expression":"{{Workflow.Properties.AdminSubmission.backgroundCheckAndFingerprinting}}"},"IsValue":true}},{"ActivityId":"4bmvbm0sry8w9rsf2tkprfdddd","Name":"SetSubmissionValueTask","X":1140,"Y":580,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"Set Register Agent Value"},"IsAdmin":false,"Key":{"Expression":"registeredAgentAf"},"Value":{"Expression":null},"ContentItemId":{"Expression":"{{Workflow.Input.ContentEvent.ContentItemId}}"},"StringValue":{"Expression":"{{Workflow.Properties.AdminSubmission.registeredAgentAf}}"},"IsValue":true}},{"ActivityId":"4jnwqckhq26n4tc3syzwd1ge5x","Name":"SetSubmissionValueTask","X":1270,"Y":340,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"SAVE Affidavit"},"IsAdmin":false,"Key":{"Expression":"saveAffidavitAf"},"Value":{"Expression":null},"ContentItemId":{"Expression":"{{Workflow.Input.ContentEvent.ContentItemId}}"},"StringValue":{"Expression":"{{Workflow.Properties.AdminSubmission.saveAffidavit}}"},"IsValue":true}}],"Transitions":[{"Id":0,"SourceActivityId":"4q3tz8fs2s241wpvga8vnxn2w6","SourceOutcomeName":"CO","DestinationActivityId":"45wpe73a9amrfvgy5h8c65k9c9"},{"Id":0,"SourceActivityId":"4q3tz8fs2s241wpvga8vnxn2w6","SourceOutcomeName":"StateLicense","DestinationActivityId":"405mz0a4wbdah3je4g4h3zqqcj"},{"Id":0,"SourceActivityId":"4q3tz8fs2s241wpvga8vnxn2w6","SourceOutcomeName":"PhotoID","DestinationActivityId":"4q9axf98kzep2yetpg7dazxzdm"},{"Id":0,"SourceActivityId":"4q3tz8fs2s241wpvga8vnxn2w6","SourceOutcomeName":"EVerify","DestinationActivityId":"4t9ew96xk5ng6xz0zn74dbht4q"},{"Id":0,"SourceActivityId":"4q3tz8fs2s241wpvga8vnxn2w6","SourceOutcomeName":"Lease","DestinationActivityId":"4gdkccckcke7y16xrkmnz16bxx"},{"Id":0,"SourceActivityId":"4q3tz8fs2s241wpvga8vnxn2w6","SourceOutcomeName":"Environmental","DestinationActivityId":"40aa0stt0953z1fmm6nkyzk2nf"},{"Id":0,"SourceActivityId":"4q3tz8fs2s241wpvga8vnxn2w6","SourceOutcomeName":"Exempt","DestinationActivityId":"4w6nv1y34vxsvw6r4zm2d43gms"},{"Id":0,"SourceActivityId":"4q3tz8fs2s241wpvga8vnxn2w6","SourceOutcomeName":"BackgroundCheck","DestinationActivityId":"4jh2qryvzapsz7v14n01debp5m"},{"Id":0,"SourceActivityId":"4q3tz8fs2s241wpvga8vnxn2w6","SourceOutcomeName":"RegAgent","DestinationActivityId":"4bmvbm0sry8w9rsf2tkprfdddd"},{"Id":0,"SourceActivityId":"4b7cgqtmn6y3x4a5mkqdx13zmw","SourceOutcomeName":"Done","DestinationActivityId":"4ddpakr5p94kqyaxe6r222174c"},{"Id":0,"SourceActivityId":"4ddpakr5p94kqyaxe6r222174c","SourceOutcomeName":"Done","DestinationActivityId":"4jq067vp11ct15frqqngvmpwwt"},{"Id":0,"SourceActivityId":"4jq067vp11ct15frqqngvmpwwt","SourceOutcomeName":"True","DestinationActivityId":"4q3tz8fs2s241wpvga8vnxn2w6"},{"Id":0,"SourceActivityId":"4q3tz8fs2s241wpvga8vnxn2w6","SourceOutcomeName":"SAVE","DestinationActivityId":"4jnwqckhq26n4tc3syzwd1ge5x"}],"Properties":{}}</t>
+  </si>
+  <si>
+    <t>{"Id":219337,"WorkflowTypeId":"47f19xdt46r0brtyg748tsk1d7","Name":"OTC - Update License Status to Delinquent","IsEnabled":true,"IsSingleton":false,"LockTimeout":0,"LockExpiration":0,"DeleteFinishedWorkflows":false,"Activities":[{"ActivityId":"4wqz3xj5j6cfj3z033y84ncznq","Name":"TimerEvent","X":0,"Y":0,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"Execute May 15th at 5am"},"CronExpression":"0 5 15 5 *"}},{"ActivityId":"4xdynf0c4813qrc43hwndy4z4r","Name":"ScriptTask","X":270,"Y":0,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"Get Expired Licenses"},"AvailableOutcomes":["Done"],"Script":{"Expression":"    var queryResult = executeQuery(\u0022GetDelinquentLicenses\u0022, {});\r\n    setProperty(\u0022QueryResult\u0022, queryResult);\r\n    setOutcome(\u0027Done\u0027);\r\n"}}},{"ActivityId":"4wqfh15dyshje1pegj9yh719de","Name":"ForEachTask","X":550,"Y":0,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":null},"LoopVariableName":"x","Enumerable":{"Expression":"workflow().Properties.QueryResult"}}},{"ActivityId":"44s3vg7y1sxdkw8vbem079g2xx","Name":"SetLicenseStatusTask","X":870,"Y":0,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"Change Status to Delinquent"},"LicenseContentItemId":{"Expression":"{{Workflow.LastResult[\u0022ContentItemId\u0022]}}"},"StatusId":{"Expression":"46rdj9e6fzd14vx7bmxffzjpcq"},"LicenseTypeId":{"Expression":null},"AssignedUsers":{"Expression":"4qf8jfgjm8qzvxf1n2agbg59xv,4a4cprpqhw54yyxqde3egkbvnj"},"IsRenewalApproved":false}},{"ActivityId":"4aab7882sxn0q53bc8r728gsw2","Name":"TrackEmailTask","X":550,"Y":210,"IsStart":true,"Properties":{"Sender":{"Expression":null},"Author":{"Expression":null},"Recipients":{"Expression":"{{Workflow.LastResult[\u0022Email\u0022]}}"},"ReplyTo":{"Expression":null},"Subject":{"Expression":"DELINQUENT: Your Occupational Tax Certificate Application {{Workflow.LastResult[\u0022Number\u0022]}} is Delinquent"},"Body":{"Expression":"\u003Cemailtemplate\u003E\u003C/emailtemplate\u003E\r\nYour Occupational Tax Certificate Application {{Workflow.LastResult[\u0022Number\u0022]}}, is currently in a delinquent status. This means that there are outstanding requirements or actions needed to process your application. We have attached your official delinquent letter to your case. To review, click \u003Ca href=\u0022/profile\u0022 target=\u0022_blank\u0022\u003E{{ProfileLicenseLink}}\u003C/a\u003E.\r\n\r\nIt\u0027s important to address these issues promptly to avoid any further delays in processing your application."},"IsBodyHtml":true,"CaseContentItemId":{"Expression":null},"LicenseContentItemId":{"Expression":"{{Workflow.LastResult[\u0022ContentItemId\u0022]}}"},"AdvancedFormId":{"Expression":null},"ActivityMetadata":{"Title":"Send Applicant Email"}}},{"ActivityId":"4mm763gm44v9q5mshnjjh261x7","Name":"TrackEmailTask","X":550,"Y":120,"IsStart":true,"Properties":{"Sender":{"Expression":null},"Author":{"Expression":null},"Recipients":{"Expression":"{% assign assignusers = Queries.GetLicenseDetailbyContentItemId | query : contentItemId : Workflow.LastResult[\u0022ContentItemId\u0022] %}  {% assign users = assignusers[0].AssignedUsers | split: \u0027,\u0027%}  {% for userEmail in users %} {% if userEmail != User.Identity.Name %}  {% assign userdetails = Queries.GetUserEmailByUsername | query : userName: userEmail %}  {{userdetails[0].NormalizedEmail}}, {%endif%} {% endfor %}  {% if users == null or users == \u0027\u0027 %} mhales@duluthga.net, kmccgregor@duluthga.net {% endif %}"},"ReplyTo":{"Expression":null},"Subject":{"Expression":"DELINQUENT: Your Occupational Tax Certificate Application {{Workflow.LastResult[\u0022Number\u0022]}} is Delinquent"},"Body":{"Expression":"\u003Cemailtemplate\u003E\u003C/emailtemplate\u003E\r\nYour Occupational Tax Certificate Application {{Workflow.LastResult[\u0022Number\u0022]}}, is currently in a delinquent status. This means that there are outstanding requirements or actions needed to process your application. We have attached your official delinquent letter to your case. To review, click \u003Ca href=\u0022/admin\u0022 target=\u0022_blank\u0022\u003E{{AdminLicenseLink}}\u003C/a\u003E.\r\n"},"IsBodyHtml":true,"CaseContentItemId":{"Expression":null},"LicenseContentItemId":{"Expression":"{{Workflow.LastResult[\u0022ContentItemId\u0022]}}"},"AdvancedFormId":{"Expression":null},"ActivityMetadata":{"Title":"Send Team Member Email"}}},{"ActivityId":"4aa9j6ygy9kvpv6eqbf6mjwqmf","Name":"ForkTask","X":959,"Y":160,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":null},"Forks":["applicant","staff"]}},{"ActivityId":"4yz670vk611em07zy926cawgn1","Name":"JoinTask","X":0,"Y":150,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":null},"Mode":0}}],"Transitions":[{"Id":0,"SourceActivityId":"4wqz3xj5j6cfj3z033y84ncznq","SourceOutcomeName":"Done","DestinationActivityId":"4xdynf0c4813qrc43hwndy4z4r"},{"Id":0,"SourceActivityId":"4xdynf0c4813qrc43hwndy4z4r","SourceOutcomeName":"Done","DestinationActivityId":"4wqfh15dyshje1pegj9yh719de"},{"Id":0,"SourceActivityId":"4wqfh15dyshje1pegj9yh719de","SourceOutcomeName":"Iterate","DestinationActivityId":"44s3vg7y1sxdkw8vbem079g2xx"},{"Id":0,"SourceActivityId":"4aa9j6ygy9kvpv6eqbf6mjwqmf","SourceOutcomeName":"applicant","DestinationActivityId":"4aab7882sxn0q53bc8r728gsw2"},{"Id":0,"SourceActivityId":"4aa9j6ygy9kvpv6eqbf6mjwqmf","SourceOutcomeName":"staff","DestinationActivityId":"4mm763gm44v9q5mshnjjh261x7"},{"Id":0,"SourceActivityId":"4mm763gm44v9q5mshnjjh261x7","SourceOutcomeName":"Done","DestinationActivityId":"4yz670vk611em07zy926cawgn1"},{"Id":0,"SourceActivityId":"4mm763gm44v9q5mshnjjh261x7","SourceOutcomeName":"Failed","DestinationActivityId":"4yz670vk611em07zy926cawgn1"},{"Id":0,"SourceActivityId":"4aab7882sxn0q53bc8r728gsw2","SourceOutcomeName":"Done","DestinationActivityId":"4yz670vk611em07zy926cawgn1"},{"Id":0,"SourceActivityId":"4aab7882sxn0q53bc8r728gsw2","SourceOutcomeName":"Failed","DestinationActivityId":"4yz670vk611em07zy926cawgn1"},{"Id":0,"SourceActivityId":"4yz670vk611em07zy926cawgn1","SourceOutcomeName":"Joined","DestinationActivityId":"4wqfh15dyshje1pegj9yh719de"},{"Id":0,"SourceActivityId":"44s3vg7y1sxdkw8vbem079g2xx","SourceOutcomeName":"Done","DestinationActivityId":"4aa9j6ygy9kvpv6eqbf6mjwqmf"}],"Properties":{}}</t>
+  </si>
+  <si>
+    <t>{"Id":219338,"WorkflowTypeId":"477m4s7mxd5xb6jy059ty5fq4v","Name":"Update Payment Received","IsEnabled":true,"IsSingleton":false,"LockTimeout":0,"LockExpiration":0,"DeleteFinishedWorkflows":true,"Activities":[{"ActivityId":"40qhj42vttgjp5panqjngavd57","Name":"ContentUpdatedEvent","X":0,"Y":10,"IsStart":true,"Properties":{"ContentTypeFilter":["AdvancedFormAccountingDetails"],"ActivityMetadata":{"Title":null}}},{"ActivityId":"4ycfszx5tawh4679bg7k5hhqdc","Name":"ScriptTask","X":900,"Y":170,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"GetUnpaidAccountingDetails"},"AvailableOutcomes":["Done","Finish"],"Script":{"Expression":"let contentItemId = workflow().Input.ContentItem.Content.AdvancedFormAccountingDetailsPart.ContentItemId;\r\nlet timestamp = new Date().getTime();\r\nlet modifiedDate = new Date(timestamp);\r\nlet queryResult = executeQuery(\u0022GetNumberOfUnpaidAccountingDetails\u0022, { contentItemId: contentItemId, modifiedDate : modifiedDate });\r\nif (queryResult[0].NumOfUnPaidDetails == \u00270\u0027) {\r\n    setOutcome(\u0027Done\u0027);\r\n} else {\r\n    setOutcome(\u0027Finish\u0027);\r\n}"}}},{"ActivityId":"4t6tzb4xtfcdr4r56b0dga1rwy","Name":"IfElseTask","X":260,"Y":20,"IsStart":false,"Properties":{"ActivityMetadata":{"Title":"Check LicenseContentItemId Not Null"},"Condition":{"Expression":"(workflow().Input.ContentItem.Content.AdvancedFormAccountingDetailsPart != null \u0026\u0026 workflow().Input.ContentItem.Content.AdvancedFormAccountingDetailsPart != \u0022\u0022) \u0026\u0026 (workflow().Input.ContentItem.Content.AdvancedFormAccountingDetailsPart.LicenseContentItemId != null \u0026\u0026 workflow().Input.ContentItem.Content.AdvancedFormAccountingDetailsPart.LicenseContentItemId != \u0022\u0022)"}}},{"ActivityId":"4w8cwndwt3qzrztdezb4xhmgws","Name":"ScriptTask","X":600,"Y":0,"IsStart":false,"Properties":{"ActivityMetadata":{"Title":"Get License Details"},"AvailableOutcomes":["Done"],"Script":{"Expression":"let licenseContentItemId = workflow().Input.ContentItem.Content.AdvancedFormAccountingDetailsPart.LicenseContentItemId;\r\nlet licenseInfo = executeQuery(\u0022GetLicenseDetailbyContentItemId\u0022, {contentItemId: licenseContentItemId});\r\nsetProperty(\u0022LicenseInfo\u0022, licenseInfo);\r\nsetOutcome(\u0027Done\u0027);"}}},{"ActivityId":"4w5gy6dmr0c1e626nr05s0eext","Name":"IfElseTask","X":890,"Y":0,"IsStart":false,"Properties":{"ActivityMetadata":{"Title":"Check License Type Commercial OTC and Home Occupation License and license Status Not Active"},"Condition":{"Expression":"workflow().Properties.LicenseInfo[0].LicenseType == \u00274hz2esy8t7bqtt73er52envqnc\u0027 \u0026\u0026 workflow().Properties.LicenseInfo[0].StatusId != \u00274pajj3z2chb61s8d9gkz0tfh4d\u0027"}}},{"ActivityId":"4rq1v99w2bh9ew0ssxryeetznh","Name":"ForkTask","X":454,"Y":170,"IsStart":false,"Properties":{"ActivityMetadata":{"Title":"Check Following License Status"},"Forks":["Approved Pending Payment","Renewal Pending Payment"]}},{"ActivityId":"4xjr0nx7eepm8wm2tchzjjy2ne","Name":"IfElseTask","X":274,"Y":290,"IsStart":false,"Properties":{"ActivityMetadata":{"Title":"Check Status Approved Pending Payment"},"Condition":{"Expression":"workflow().Properties.LicenseInfo[0].StatusId == \u00274sg87rp5xj1tr3pr3w5m1v7fcf\u0027"}}},{"ActivityId":"4ckq786h30ea41f97fkrpz0vcf","Name":"IfElseTask","X":614,"Y":290,"IsStart":false,"Properties":{"ActivityMetadata":{"Title":"Check Status Renewal Pending Payment"},"Condition":{"Expression":"workflow().Properties.LicenseInfo[0].StatusId == \u00274q5yqgaxjheqf4w7y578zwe551\u0027"}}},{"ActivityId":"4pk7jecv89dhxsadyb3a6hsbxp","Name":"SetLicenseStatusTask","X":254,"Y":450,"IsStart":false,"Properties":{"ActivityMetadata":{"Title":"Update License Status to Active"},"LicenseContentItemId":{"Expression":"{{Workflow.Input.ContentItem.Content.AdvancedFormAccountingDetailsPart.LicenseContentItemId}}"},"StatusId":{"Expression":"4pajj3z2chb61s8d9gkz0tfh4d"},"LicenseTypeId":{},"AssignedUsers":{},"IsRenewalApproved":false}},{"ActivityId":"402axpcj7n2y16xnhrp01575wr","Name":"SetLicenseStatusTask","X":614,"Y":440,"IsStart":false,"Properties":{"ActivityMetadata":{"Title":"Change Status to Active After Renewal"},"LicenseContentItemId":{"Expression":"{{Workflow.Input.ContentItem.Content.AdvancedFormAccountingDetailsPart.LicenseContentItemId}}"},"StatusId":{"Expression":"4pajj3z2chb61s8d9gkz0tfh4d"},"LicenseTypeId":{},"AssignedUsers":{},"IsRenewalApproved":true}}],"Transitions":[{"Id":0,"SourceActivityId":"40qhj42vttgjp5panqjngavd57","SourceOutcomeName":"Done","DestinationActivityId":"4t6tzb4xtfcdr4r56b0dga1rwy"},{"Id":0,"SourceActivityId":"4t6tzb4xtfcdr4r56b0dga1rwy","SourceOutcomeName":"True","DestinationActivityId":"4w8cwndwt3qzrztdezb4xhmgws"},{"Id":0,"SourceActivityId":"4w8cwndwt3qzrztdezb4xhmgws","SourceOutcomeName":"Done","DestinationActivityId":"4w5gy6dmr0c1e626nr05s0eext"},{"Id":0,"SourceActivityId":"4w5gy6dmr0c1e626nr05s0eext","SourceOutcomeName":"True","DestinationActivityId":"4ycfszx5tawh4679bg7k5hhqdc"},{"Id":0,"SourceActivityId":"4ycfszx5tawh4679bg7k5hhqdc","SourceOutcomeName":"Done","DestinationActivityId":"4rq1v99w2bh9ew0ssxryeetznh"},{"Id":0,"SourceActivityId":"4rq1v99w2bh9ew0ssxryeetznh","SourceOutcomeName":"Approved Pending Payment","DestinationActivityId":"4xjr0nx7eepm8wm2tchzjjy2ne"},{"Id":0,"SourceActivityId":"4rq1v99w2bh9ew0ssxryeetznh","SourceOutcomeName":"Renewal Pending Payment","DestinationActivityId":"4ckq786h30ea41f97fkrpz0vcf"},{"Id":0,"SourceActivityId":"4xjr0nx7eepm8wm2tchzjjy2ne","SourceOutcomeName":"True","DestinationActivityId":"4pk7jecv89dhxsadyb3a6hsbxp"},{"Id":0,"SourceActivityId":"4ckq786h30ea41f97fkrpz0vcf","SourceOutcomeName":"True","DestinationActivityId":"402axpcj7n2y16xnhrp01575wr"}],"Properties":{}}</t>
+  </si>
+  <si>
+    <t>{"Id":219339,"WorkflowTypeId":"49hv4h64gapebsrg7a4p9jck5e","Name":"OTC - Change to OTC Review on Part 3 Submission","IsEnabled":false,"IsSingleton":false,"LockTimeout":0,"LockExpiration":0,"DeleteFinishedWorkflows":true,"Activities":[{"ActivityId":"44wzkj7zhvqzcw0qytmj9rwyw2","Name":"ContentCreatedEvent","X":0,"Y":0,"IsStart":true,"Properties":{"ContentTypeFilter":["AdvancedFormSubmissions"],"ActivityMetadata":{}}},{"ActivityId":"42nf9rnsrg5mcterh56w30pqcm","Name":"ScriptTask","X":230,"Y":10,"IsStart":false,"Properties":{"ActivityMetadata":{"Title":"Get License Data"},"AvailableOutcomes":["Done"],"Script":{"Expression":"let id = workflow().Input.ContentItem.Content.AdvancedFormSubmissions.LicenseContentItemId.Text;\r\nlet formId = workflow().Input.ContentItem.Content.AdvancedFormSubmissions.AdvancedFormId.Text;\r\nlet licenseInfo = executeQuery(\u0022GetLicenseDetailbyContentItemId\u0022, {\u0022contentItemId\u0022: id});\r\nlet formInfo = executeQuery(\u0022GetFormTypeByVersionId\u0022, {\u0022contentItemVersionId\u0022: formId});\r\nsetProperty(\u0027LicenseId\u0027, id);\r\nsetProperty(\u0027LicenseInfo\u0027, licenseInfo[0]);\r\nsetProperty(\u0027FormId\u0027, formInfo[0].ContentItemId);\r\nsetOutcome(\u0027Done\u0027);"}}},{"ActivityId":"4s6xq696ppmwc29mc7a1jg13d7","Name":"SetLicenseStatusTask","X":790,"Y":10,"IsStart":false,"Properties":{"ActivityMetadata":{"Title":"Change to OTC Review"},"LicenseContentItemId":{"Expression":"{{Workflow.Properties.LicenseId}}"},"StatusId":{"Expression":"49w6tb1753mr53ak5c3hajp24s"},"LicenseTypeId":{},"AssignedUsers":{"Expression":"4qf8jfgjm8qzvxf1n2agbg59xv"},"IsRenewalApproved":false,"RenewalStatus":{},"ExpirationDate":{},"IssueDate":{},"EffectiveDate":{},"LiabilityInsuranceExpirationDate":{},"WorkerCompInsuranceExpirationDate":{},"PaymentReceived":{}}},{"ActivityId":"47eh3f76fr0g8ye0fm5271gpdm","Name":"TrackEmailTask","X":1220,"Y":30,"IsStart":false,"Properties":{"Sender":{},"Author":{},"Recipients":{"Expression":"mhales@duluthga.net"},"ReplyTo":{},"Subject":{"Expression":"OTC REVIEW: Your Occupational Tax Certificate Application Is Under Review"},"Body":{"Expression":"\u003Cemailtemplate\u003E\u003C/emailtemplate\u003E\r\nYour Occupational Tax Certificate Application License is under review. We\u0027ll provide an update on your license once our review process is complete. To review your license, click \u003Ca href=\u0022https://duluthga.govbuilt.com/admin\u0022 target=\u0022_blank\u0022\u003Ehere\u003C/a\u003E."},"IsBodyHtml":true,"CaseContentItemId":{},"LicenseContentItemId":{"Expression":"{{Workflow.Properties.LicenseId}}"},"AdvancedFormId":{},"ActivityMetadata":{}}},{"ActivityId":"4bnpqep7hryawydadnagj2h7cy","Name":"TrackEmailTask","X":1220,"Y":270,"IsStart":false,"Properties":{"Sender":{},"Author":{},"Recipients":{"Expression":"{{Workflow.Properties.LicenseInfo.Email}}"},"ReplyTo":{},"Subject":{"Expression":"OTC REVIEW: Your Occupational Tax Certificate Application Is Under Review"},"Body":{"Expression":"\u003Cemailtemplate\u003E\u003C/emailtemplate\u003E\r\nHello {{Workflow.Properties.LicenseInfo.ApplicantFirstName}} {{Workflow.Properties.LicenseInfo.ApplicantLastName}},\r\n\u003Cbr\u003E\u003Cbr\u003E\r\nThank you for submitting Part 3 of the Occupational Tax (business license) process.  Your application is currently under review for completeness and accuracy.  The verification process may take 5-7 business days.  Once approved, you will receive an email when your invoice is available for payment."},"IsBodyHtml":true,"CaseContentItemId":{},"LicenseContentItemId":{"Expression":"{{Workflow.Properties.LicenseId}}"},"AdvancedFormId":{},"ActivityMetadata":{"Title":"Send Email to Applicant"}}},{"ActivityId":"48pmkezk4hx9wzqx89knvkcfxv","Name":"IfElseTask","X":440,"Y":0,"IsStart":false,"Properties":{"ActivityMetadata":{"Title":"If Status Equal CD Approved and Submission is Part 3 Form"},"Condition":{"Expression":"workflow().Properties.LicenseInfo.StatusId == \u00224ytyv6fp6x3mw3am345mpw0kwr\u0022 \u0026\u0026 workflow().Properties.FormId == \u002241bq91zc8fj624g42st8s0ency\u0022"}}}],"Transitions":[{"Id":0,"SourceActivityId":"44wzkj7zhvqzcw0qytmj9rwyw2","SourceOutcomeName":"Done","DestinationActivityId":"42nf9rnsrg5mcterh56w30pqcm"},{"Id":0,"SourceActivityId":"4s6xq696ppmwc29mc7a1jg13d7","SourceOutcomeName":"Done","DestinationActivityId":"47eh3f76fr0g8ye0fm5271gpdm"},{"Id":0,"SourceActivityId":"4s6xq696ppmwc29mc7a1jg13d7","SourceOutcomeName":"Failed","DestinationActivityId":"47eh3f76fr0g8ye0fm5271gpdm"},{"Id":0,"SourceActivityId":"47eh3f76fr0g8ye0fm5271gpdm","SourceOutcomeName":"Done","DestinationActivityId":"4bnpqep7hryawydadnagj2h7cy"},{"Id":0,"SourceActivityId":"47eh3f76fr0g8ye0fm5271gpdm","SourceOutcomeName":"Failed","DestinationActivityId":"4bnpqep7hryawydadnagj2h7cy"},{"Id":0,"SourceActivityId":"42nf9rnsrg5mcterh56w30pqcm","SourceOutcomeName":"Done","DestinationActivityId":"48pmkezk4hx9wzqx89knvkcfxv"},{"Id":0,"SourceActivityId":"48pmkezk4hx9wzqx89knvkcfxv","SourceOutcomeName":"True","DestinationActivityId":"4s6xq696ppmwc29mc7a1jg13d7"}],"Properties":{}}</t>
+  </si>
+  <si>
+    <t>{"Id":219340,"WorkflowTypeId":"4f2qptpx35s620mafn4142sk5g","Name":"Set license status to renewal submitted of OTC","IsEnabled":false,"IsSingleton":false,"LockTimeout":0,"LockExpiration":0,"DeleteFinishedWorkflows":true,"Activities":[{"ActivityId":"42410s9apfe3g3ecc090satmnf","Name":"ContentPublishedEvent","X":0,"Y":70,"IsStart":true,"Properties":{"ActivityMetadata":{},"ContentTypeFilter":["AdvancedFormSubmissions"]}},{"ActivityId":"432fzxya3z4zc4cq3vwcxw2fcr","Name":"ScriptTask","X":310,"Y":30,"IsStart":false,"Properties":{"ActivityMetadata":{"Title":"Get License Data"},"AvailableOutcomes":["Done","Finish"],"Script":{"Expression":"var formId = workflow().Input.ContentItem.Content.AdvancedFormSubmissions.AdvancedFormId.Text;\r\nvar queryResult = executeQuery(\u0022GetFormTypeByVersionId\u0022, { contentItemVersionId : String(formId) }); \r\nvar licenseInfo = executeQuery(\u0022GetAdvancedFormSubmissionById\u0022, { contentItemId : workflow().Input.ContentEvent.ContentItemId } );\r\nvar applicantInfo = executeQuery(\u0022GetLicenseDetailbyContentItemId\u0022, { contentItemId : licenseInfo[0].LicenseContentItemId });\r\nvar queryBusTax = executeQuery(\u0022GETBusEquipInvTaxByLicense\u0022, { licenseContentItemId : licenseInfo[0].LicenseContentItemId });\r\nsetProperty(\u0022TypeOfForm\u0022, queryResult[0].TypeOfForm);\r\nsetProperty(\u0022AdvancedFormContentItemId\u0022, queryResult[0].ContentItemId);\r\nsetProperty(\u0022AdvancedFormId\u0022, formId);\r\nsetProperty(\u0022FormStatus\u0022, licenseInfo[0].Status);\r\nsetProperty(\u0022Title\u0022, licenseInfo[0].Title );\r\nsetProperty(\u0022LicensenContentItemId\u0022, licenseInfo[0].LicenseContentItemId );\r\nsetProperty(\u0022ApplicantInfo\u0022, applicantInfo[0]);\r\nsetProperty(\u0022BusEquipInvTaxByLicense\u0022, queryBusTax[0]);\r\nif(licenseInfo[0].StatusId == \u002245g8de07jxfsf5c5sn5jeq5r4n\u0022){\r\nsetOutcome(\u0027Done\u0027);\r\n}else{\r\n    setOutcome(\u0027Finish\u0027);\r\n}"}}},{"ActivityId":"4ja178a040sg5t7ma29w6a7z5g","Name":"SetLicenseStatusTask","X":500,"Y":260,"IsStart":false,"Properties":{"ActivityMetadata":{"Title":"Update license status to Renewal Submitted"},"LicenseContentItemId":{"Expression":"{{Workflow.Input.ContentItem.Content.AdvancedFormSubmissionsPart.LicenseContentItemId}}"},"StatusId":{"Expression":"4r4qx6by0zey2sad0jw8fhn9xq"},"LicenseTypeId":{},"AssignedUsers":{},"IsRenewalApproved":false}},{"ActivityId":"4qk9b3cca0564yntppah9cvpxn","Name":"IfElseTask","X":720,"Y":20,"IsStart":false,"Properties":{"ActivityMetadata":{"Title":"Check Renewal form"},"Condition":{"Expression":"(workflow().Properties.AdvancedFormContentItemId == \u00224wajbf3sptrz9ykqae9rdgzzna\u0022 || workflow().Properties.AdvancedFormContentItemId ==  \u002242n0zyzdf00dk4jkbv304gx7c5\u0022) \u0026\u0026 workflow().Input.ContentItem.Content.AdvancedFormSubmissionsPart.Status != \u0022Closed\u0022"}}},{"ActivityId":"4nqzvhc7t1ras2krvn4ev8pqwc","Name":"SetSubmissionValueTask","X":1250,"Y":330,"IsStart":false,"Properties":{"ActivityMetadata":{},"IsAdmin":true,"Key":{"Expression":"busEquipInvTax"},"Value":{},"ContentItemId":{"Expression":"{{Workflow.Input.ContentItem.Content.AdvancedFormSubmissionsPart.LicenseContentItemId}}"},"StringValue":{"Expression":"{{Workflow.Properties.BusEquipInvTaxByLicense}}"},"IsValue":true}},{"ActivityId":"4fahg2xzqtytvtfhestt7hfxme","Name":"IfElseTask","X":1180,"Y":130,"IsStart":false,"Properties":{"ActivityMetadata":{"Title":"If BusEquipInvTaxByLicense"},"Condition":{"Expression":"(!!workflow().Properties.BusEquipInvTaxByLicense)"}}},{"ActivityId":"45d9z5jsfkyb3xr1k5bxwvz34z","Name":"TrackEmailTask","X":70,"Y":260,"IsStart":false,"Properties":{"ActivityMetadata":{},"Sender":{},"Author":{},"Recipients":{"Expression":"{{Workflow.Properties.ApplicantInfo.Email}}"},"ReplyTo":{},"Subject":{"Expression":"RENEWAL SUBMITTED: Your Occupational Tax Renewal Application Is Under Review"},"Body":{"Expression":"\u003Cemailtemplate\u003E\u003C/emailtemplate\u003E\r\nHello {{Workflow.Properties.ApplicantInfo.ApplicantFirstName}} {{Workflow.Properties.ApplicantInfo.ApplicantLastName}},\r\n\u003Cbr\u003E\u003Cbr\u003E\r\nThank you for submitting your Occupational Tax renewal application.  Your renewal is currently under review for completeness and accuracy.   The verification process may take 10-14 business days during peak renewal season.  Once approved, you will receive an email when your invoice is available for payment. There is a grace period from January 31 until April 30th, at which time full payment must be made to avoid interest and penalties."},"IsBodyHtml":true,"CaseContentItemId":{},"LicenseContentItemId":{"Expression":"{{Workflow.Input.ContentItem.Content.AdvancedFormSubmissionsPart.LicenseContentItemId}}"},"AdvancedFormId":{}}}],"Transitions":[{"Id":0,"SourceActivityId":"42410s9apfe3g3ecc090satmnf","SourceOutcomeName":"Done","DestinationActivityId":"432fzxya3z4zc4cq3vwcxw2fcr"},{"Id":0,"SourceActivityId":"432fzxya3z4zc4cq3vwcxw2fcr","SourceOutcomeName":"Done","DestinationActivityId":"4qk9b3cca0564yntppah9cvpxn"},{"Id":0,"SourceActivityId":"4nqzvhc7t1ras2krvn4ev8pqwc","SourceOutcomeName":"Failed","DestinationActivityId":"4ja178a040sg5t7ma29w6a7z5g"},{"Id":0,"SourceActivityId":"4nqzvhc7t1ras2krvn4ev8pqwc","SourceOutcomeName":"Done","DestinationActivityId":"4ja178a040sg5t7ma29w6a7z5g"},{"Id":0,"SourceActivityId":"4qk9b3cca0564yntppah9cvpxn","SourceOutcomeName":"True","DestinationActivityId":"4fahg2xzqtytvtfhestt7hfxme"},{"Id":0,"SourceActivityId":"4fahg2xzqtytvtfhestt7hfxme","SourceOutcomeName":"True","DestinationActivityId":"4nqzvhc7t1ras2krvn4ev8pqwc"},{"Id":0,"SourceActivityId":"4fahg2xzqtytvtfhestt7hfxme","SourceOutcomeName":"False","DestinationActivityId":"4ja178a040sg5t7ma29w6a7z5g"},{"Id":0,"SourceActivityId":"4ja178a040sg5t7ma29w6a7z5g","SourceOutcomeName":"Done","DestinationActivityId":"45d9z5jsfkyb3xr1k5bxwvz34z"},{"Id":0,"SourceActivityId":"4ja178a040sg5t7ma29w6a7z5g","SourceOutcomeName":"Failed","DestinationActivityId":"45d9z5jsfkyb3xr1k5bxwvz34z"}],"Properties":{}}</t>
+  </si>
+  <si>
+    <t>{"Id":219341,"WorkflowTypeId":"47zrvja1je0j76nrjexdqtmyxy","Name":"License Status Set Expired","IsEnabled":true,"IsSingleton":true,"LockTimeout":0,"LockExpiration":0,"DeleteFinishedWorkflows":true,"Activities":[{"ActivityId":"46thsaahnwy1c3fd6q8y2tj2wr","Name":"TimerEvent","X":40,"Y":150,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"Execute everyday 6am"},"CronExpression":"0 13 * * *"}},{"ActivityId":"4akn21f0thmwk07b9hhe1tqjcx","Name":"ScriptTask","X":300,"Y":30,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"GetAllExpiredLicense"},"AvailableOutcomes":["Done"],"Script":{"Expression":"var queryResult = executeQuery(\u0022GetAllExpiredLicense\u0022, { dateDelivered: \u0027\u0027 }); \r\nsetProperty(\u0027QueryResult\u0027, queryResult);\r\nsetOutcome(\u0027Done\u0027);"}}},{"ActivityId":"495fg1ht3p7arv6aeq4zxmfqcm","Name":"ForEachTask","X":910,"Y":100,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":null},"LoopVariableName":"x","Enumerable":{"Expression":"workflow().Properties.QueryResult"}}},{"ActivityId":"4tb3dapd6ry3sw841jzr9gex46","Name":"SetLicenseStatusTask","X":460,"Y":270,"IsStart":true,"Properties":{"ActivityMetadata":{"Title":"Set License Status Expired"},"LicenseContentItemId":{"Expression":"{{Workflow.LastResult[\u0022ContentItemId\u0022]}}"},"StatusId":{"Expression":"4ar9awz156txd54qda6gdzevnv"},"LicenseTypeId":{"Expression":null}}}],"Transitions":[{"Id":0,"SourceActivityId":"46thsaahnwy1c3fd6q8y2tj2wr","SourceOutcomeName":"Done","DestinationActivityId":"4akn21f0thmwk07b9hhe1tqjcx"},{"Id":0,"SourceActivityId":"4akn21f0thmwk07b9hhe1tqjcx","SourceOutcomeName":"Done","DestinationActivityId":"495fg1ht3p7arv6aeq4zxmfqcm"},{"Id":0,"SourceActivityId":"495fg1ht3p7arv6aeq4zxmfqcm","SourceOutcomeName":"Iterate","DestinationActivityId":"4tb3dapd6ry3sw841jzr9gex46"},{"Id":0,"SourceActivityId":"4tb3dapd6ry3sw841jzr9gex46","SourceOutcomeName":"Done","DestinationActivityId":"495fg1ht3p7arv6aeq4zxmfqcm"}],"Properties":{}}</t>
+  </si>
+  <si>
+    <t>{"Id":325758,"WorkflowTypeId":"4zxt86pd041rk4b3r60b4qnmcv","Name":"Migration - Update Admin Fields","IsEnabled":false,"IsSingleton":true,"LockTimeout":0,"LockExpiration":0,"DeleteFinishedWorkflows":false,"Activities":[{"ActivityId":"44zymjzgkhh6t606q919bcy953","Name":"ScriptTask","X":350,"Y":40,"IsStart":false,"Properties":{"ActivityMetadata":{"Title":"GetLicenseInfo"},"AvailableOutcomes":["Done"],"Script":{"Expression":"let queryResult =  [\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224sd1yqzafwynerajq0rgt5nr4x\u0022,\r\n        \u0022submissionID\u0022: \u00224kc0x9ws09c5z24xqz6162ffxp\u0022,\r\n        \u0022saveName\u0022: \u0022KAMAL PREET\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224wf6dj6068v5b42pdvdc7a4exx\u0022,\r\n        \u0022submissionID\u0022: \u00224y0apdfq4azhvxjqb8wakytsx5\u0022,\r\n        \u0022saveName\u0022: \u0022JAY ORZECH\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224n7jgw5bs1nbqx8t1qp7b6x8d6\u0022,\r\n        \u0022submissionID\u0022: \u00224dt344hqzms2p0xhzxky0qsxwt\u0022,\r\n        \u0022saveName\u0022: \u0022PETER H MERRIAM\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224hxqc0harcr3k42yewjyehxhck\u0022,\r\n        \u0022submissionID\u0022: \u002246kpmejpxemc969p14728ejam4\u0022,\r\n        \u0022saveName\u0022: \u0022AMRYM SOLDIER\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224wy52tez76tbzvjpwc1y1zcx40\u0022,\r\n        \u0022submissionID\u0022: \u00224mkcfdp67pf3kth6m9cpfepr5v\u0022,\r\n        \u0022saveName\u0022: \u0022RONNIE NIXON\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224j0wsg62p61f7s5s4kw3tnts43\u0022,\r\n        \u0022submissionID\u0022: \u002246pt41z56w6xvxzhvpca4gnmd6\u0022,\r\n        \u0022saveName\u0022: \u0022ROBERT Y SHIN\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224mmxsy429apq0tq1dtw2eet9mm\u0022,\r\n        \u0022submissionID\u0022: \u00224hkpystf2y4tftcr2v6jfj6sn8\u0022,\r\n        \u0022saveName\u0022: \u0022AKLILE A BEZAW\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224eh3frsgx1k69tqzdmv05qn6nx\u0022,\r\n        \u0022submissionID\u0022: \u00224b1cfs112e4rc0hssbm3rbrmw9\u0022,\r\n        \u0022saveName\u0022: \u0022TIMOTHY HOWE\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u0022450dqtzk7dc0d61wjwyp3zz2x0\u0022,\r\n        \u0022submissionID\u0022: \u002248zr1vgvargwq4bfg17ayz924g\u0022,\r\n        \u0022saveName\u0022: \u0022PAUL CURTIS\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224qw03c1zfs1hers10h0mbby7cg\u0022,\r\n        \u0022submissionID\u0022: \u00224w8ebstqg6pghv02gpyx84qynb\u0022,\r\n        \u0022saveName\u0022: \u0022MICHAEL NAPPI\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u002249k6db5gqj777y1evcrz9cbnw0\u0022,\r\n        \u0022submissionID\u0022: \u00224sr9wg585ewdg5sjm4tqbbhkn8\u0022,\r\n        \u0022saveName\u0022: \u0022JAMES Z MAWHINNEY\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224t73sfht66mtkv987xpck88p5a\u0022,\r\n        \u0022submissionID\u0022: \u002243gxcg4351xxwr4nkyaxjxcy4e\u0022,\r\n        \u0022saveName\u0022: \u0022TIMOHTY SHINGLETON\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224afzw4ht2h6261fsjejb0nx3d4\u0022,\r\n        \u0022submissionID\u0022: \u002242tx7bcavktkc6hd7rh793vdm1\u0022,\r\n        \u0022saveName\u0022: \u0022CHRISTOPHER WHITE\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224xwjya51xgsj7swma8mfxvq2wy\u0022,\r\n        \u0022submissionID\u0022: \u00224fdkrcfa8r3ay14acd8p1r34my\u0022,\r\n        \u0022saveName\u0022: \u0022LINDA Y. LEE\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224p4z9qbyq2faz3r57n7hhs7mx5\u0022,\r\n        \u0022submissionID\u0022: \u002244y757b979v1mwm9fa8v2rcynw\u0022,\r\n        \u0022saveName\u0022: \u0022POORNIMA KADDI\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u002243we36n394zj40c9bym624h9d7\u0022,\r\n        \u0022submissionID\u0022: \u0022489emtyb3m5tj424hzje20vkc8\u0022,\r\n        \u0022saveName\u0022: \u0022CHRISTINE LEE\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u002242pbbjbdm8c6jv9vqxywssxbcz\u0022,\r\n        \u0022submissionID\u0022: \u002245g6p1haan755v327r7d75twwf\u0022,\r\n        \u0022saveName\u0022: \u0022HYOSOK CHO\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224awrjas9d4np945rkb7wb31mwj\u0022,\r\n        \u0022submissionID\u0022: \u002242y1w0wqsahn44gnysf7zhbtm6\u0022,\r\n        \u0022saveName\u0022: \u0022JOMON P SEBASTIAN\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224qzw2m68rjc275gb8ys2ddqbd7\u0022,\r\n        \u0022submissionID\u0022: \u00224rexzjpen538xwyr9bbwysc6dr\u0022,\r\n        \u0022saveName\u0022: \u0022RACHEL M DUNCAN\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224wxqp8gqzr2pjy02q3akmjy6n4\u0022,\r\n        \u0022submissionID\u0022: \u00224s5b6cdf527g84vsp1y6ykv9nt\u0022,\r\n        \u0022saveName\u0022: \u0022ERICA WOO KIM\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224vnb7t1cfv10e7zqbz9a1awtxa\u0022,\r\n        \u0022submissionID\u0022: \u00224tqpngf2pdv495hp5ad0mh57xd\u0022,\r\n        \u0022saveName\u0022: \u0022HUASHI AMY PARK\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224cxa5k6daxdgp1bsksj7mah1de\u0022,\r\n        \u0022submissionID\u0022: \u00224ypktar388bw605enapgezm7m8\u0022,\r\n        \u0022saveName\u0022: \u0022JUAN C ESCARATE\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u002242chrjby86fbe6n1ccwg8tf4d6\u0022,\r\n        \u0022submissionID\u0022: \u002242755gv4dbhhswrt97gv3cdmm7\u0022,\r\n        \u0022saveName\u0022: \u0022NEUNG LEE\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224eccsears82104wkmqctt91x4s\u0022,\r\n        \u0022submissionID\u0022: \u00224dm7xv5yfj55x2qkeh5ww1z156\u0022,\r\n        \u0022saveName\u0022: \u0022JENNIFER O\u0027BRIEN\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224c878x9q4bmha4081vf9y3g9mr\u0022,\r\n        \u0022submissionID\u0022: \u00224yakkf7hevgb8trjnhjdnzgbc6\u0022,\r\n        \u0022saveName\u0022: \u0022CHUNG HUN LEE\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224kskq6nch7yy70rvafwthhnfwy\u0022,\r\n        \u0022submissionID\u0022: \u00224e5twkk3dpss45dbxkn4d5ybwz\u0022,\r\n        \u0022saveName\u0022: \u0022THOMAS E RAINES\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224pnfyn85we70jygmabrzdgszx4\u0022,\r\n        \u0022submissionID\u0022: \u00224x9qrzj646hawxst1rh275deme\u0022,\r\n        \u0022saveName\u0022: \u0022ZACHARY YURCHUCK\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u002240r7ttyefbs1k3jbn6429a6rmp\u0022,\r\n        \u0022submissionID\u0022: \u00224005rsnxcexwztsvmea0jf7hxm\u0022,\r\n        \u0022saveName\u0022: \u0022DEBORAH M LOVETT\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224pd01v0tkyc77ztqbztzt54fx1\u0022,\r\n        \u0022submissionID\u0022: \u00224zxvkkx1mqj755rb4cz2wsk44q\u0022,\r\n        \u0022saveName\u0022: \u0022JIM MALKASIAN\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u0022416m59vy3avdc72t66zeg3ywmd\u0022,\r\n        \u0022submissionID\u0022: \u00224ch2ewvyr0h910v44mvjd36c4v\u0022,\r\n        \u0022saveName\u0022: \u0022JAMES D ELLIOTT\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u0022460vxdk8f0qpjyysj1qbz7heds\u0022,\r\n        \u0022submissionID\u0022: \u00224jpthhaabm2en51ze86kbywexa\u0022,\r\n        \u0022saveName\u0022: \u0022TERESA D. PARRISH\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224sd392q72rwev5x77m4ztj6zm6\u0022,\r\n        \u0022submissionID\u0022: \u00224tex4w72fe42zw9cnse5fpk64z\u0022,\r\n        \u0022saveName\u0022: \u0022YAAGSOOK YU\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224scgerqzn5tfr2hsms3bre5sdf\u0022,\r\n        \u0022submissionID\u0022: \u002240wtgfp1emsaxtsv783m667yn6\u0022,\r\n        \u0022saveName\u0022: \u0022JAIME O\u0027KEEFFE\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224tt88dn2znex000gwpzm4wtnn7\u0022,\r\n        \u0022submissionID\u0022: \u00224yyjgz7yc4r6z076dq3zc8zwn8\u0022,\r\n        \u0022saveName\u0022: \u0022WEIQIANG LING\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224rrg21kx2kgn3v2mepwxxv6dw8\u0022,\r\n        \u0022submissionID\u0022: \u00224hb0pmq3t7yyh7xc91cxndyjm5\u0022,\r\n        \u0022saveName\u0022: \u0022YANTING LI\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224zqcsfd6vnd2ntyg8g9aa81hw2\u0022,\r\n        \u0022submissionID\u0022: \u00224dmvhf77cxe19syf279tpanqn6\u0022,\r\n        \u0022saveName\u0022: \u0022MARGARET RYAN MCLYNN\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224rtskzfz80jcp7e0cfavevm7dx\u0022,\r\n        \u0022submissionID\u0022: \u002243phrjdptna1rsjf7kzm3gxkm6\u0022,\r\n        \u0022saveName\u0022: \u0022DAVID SOBARO\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224hp21az5c9rjsxdfb9ehckmgm7\u0022,\r\n        \u0022submissionID\u0022: \u00224dswrnhrycpfb64mmx2v15j2ny\u0022,\r\n        \u0022saveName\u0022: \u0022HYOUN HEE CHANG\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224nbaaq0e395n8x0ka3ew2tjhmn\u0022,\r\n        \u0022submissionID\u0022: \u002248hsy1nesrmcy0040eeptxmjd9\u0022,\r\n        \u0022saveName\u0022: \u0022 XUAN CAO\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224wetmf55k0ewf2pakg70sb0tcf\u0022,\r\n        \u0022submissionID\u0022: \u00224x3twqdcns8dcxwv9tkbrjsmdy\u0022,\r\n        \u0022saveName\u0022: \u0022JOONHEE SIM\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224wetmf55k0ewf2pakg70sb0tcf\u0022,\r\n        \u0022submissionID\u0022: \u00224rz588apfy2mz4mvphtwxmfmnm\u0022,\r\n        \u0022saveName\u0022: \u0022JOONHEE SIM\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224n0q8mcwx8tzp1e133t2bbw1wr\u0022,\r\n        \u0022submissionID\u0022: \u00224vgj07gpt1pwt0a8vyeyxh8r4j\u0022,\r\n        \u0022saveName\u0022: \u0022WENQIANG LU\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224enk6zkzwcabe4j61w2z1hj4wm\u0022,\r\n        \u0022submissionID\u0022: \u002242f2c239xk5ys386j6hgrdk7ne\u0022,\r\n        \u0022saveName\u0022: \u0022DAMIAN ROBERTS\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u002244dqfghgrz5mysjd1crgjn2jn7\u0022,\r\n        \u0022submissionID\u0022: \u00224r0w96pf70j8t5zv84069ec15t\u0022,\r\n        \u0022saveName\u0022: \u0022MELANIE L CONNER\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224tbjvc5gs4kmh702r46n1gfvnz\u0022,\r\n        \u0022submissionID\u0022: \u00224kpn7jbsck5zjycmwcs39zm7m7\u0022,\r\n        \u0022saveName\u0022: \u0022EUN MI YOO\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224q99w6kzf7b2h776b1cw7ekmwh\u0022,\r\n        \u0022submissionID\u0022: \u002244ndjdpeyjtay2fthvzyx3q8xr\u0022,\r\n        \u0022saveName\u0022: \u0022ANWAR GILANI\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224ahsc8v9jhxgm4816whasknpw7\u0022,\r\n        \u0022submissionID\u0022: \u00224c5x8rje5td3531x8x17jkt4cp\u0022,\r\n        \u0022saveName\u0022: \u0022SUJITHA JOHN\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224m46jewv58mjxz672s76bd8v5e\u0022,\r\n        \u0022submissionID\u0022: \u00224zd2mkqxxx7jc5750bgwst16c9\u0022,\r\n        \u0022saveName\u0022: \u0022JAESEOK HWANG\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224etndt8ns8stesqkmh82ar1wdz\u0022,\r\n        \u0022submissionID\u0022: \u00224ab7qp039w0qazcqjx5dx05jdj\u0022,\r\n        \u0022saveName\u0022: \u0022JAE KIM\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u002242nkvp1gwn0pjthgp4vcajm7m6\u0022,\r\n        \u0022submissionID\u0022: \u00224gdg83xmbp40nsm2m2day7avma\u0022,\r\n        \u0022saveName\u0022: \u0022GLENN SARVER\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224pfvm9djsb89s7111k3cv5sfcx\u0022,\r\n        \u0022submissionID\u0022: \u0022499vk2g0v61k95p5cxhg69a2cg\u0022,\r\n        \u0022saveName\u0022: \u0022AKLILE A BEZAW\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224ke1d60n6pmfp08by42m1pm65s\u0022,\r\n        \u0022submissionID\u0022: \u00224d1qdfhyy4hfm2j1wvb3zd2rc8\u0022,\r\n        \u0022saveName\u0022: \u0022OGHENERUME S ANAJE\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224t8bkzxp5hnhdrgsb81hxw115n\u0022,\r\n        \u0022submissionID\u0022: \u00224hybedtgkjn3a74njajfn0ngch\u0022,\r\n        \u0022saveName\u0022: \u0022GREGORY G MELLOTT\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u0022491q8x7662qcr0v81zz6bn06w6\u0022,\r\n        \u0022submissionID\u0022: \u00224pp5v1qb4w7bpry7ygmshy2c5m\u0022,\r\n        \u0022saveName\u0022: \u0022MELANIE FOSTER\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224pnfyjwjd8529yg0yaqw1jry40\u0022,\r\n        \u0022submissionID\u0022: \u00224f6paxz53q6bh6fgbybk6txb5g\u0022,\r\n        \u0022saveName\u0022: \u0022JASON BURR\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u002243sjy05aw0qq0s23r2ykvc7gw7\u0022,\r\n        \u0022submissionID\u0022: \u002248wghfjqs5qfz25kkjcee0q9nb\u0022,\r\n        \u0022saveName\u0022: \u0022YUON JU KWON\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224f31jm6873bb3r3b643je5we4q\u0022,\r\n        \u0022submissionID\u0022: \u00224rc1h5v91kpmzyjdejszb1xs54\u0022,\r\n        \u0022saveName\u0022: \u0022RYAN DAN\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224mk7x63ewnkdj0389v5fwx5vw1\u0022,\r\n        \u0022submissionID\u0022: \u002243zr30mjzva083asz0ncqttzcc\u0022,\r\n        \u0022saveName\u0022: \u0022THAO THI PHUONG NGUYEN\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224btwz687scv2t729n6jz3pr145\u0022,\r\n        \u0022submissionID\u0022: \u00224zrp6kmkapffx0gz6k3kacg4wn\u0022,\r\n        \u0022saveName\u0022: \u0022HYO JIN HA\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u0022475ep6b9wzwvh0r93mmda0symg\u0022,\r\n        \u0022submissionID\u0022: \u00224gq1h3pqawrd0whnv2w567nj5q\u0022,\r\n        \u0022saveName\u0022: \u0022XIANG LIANG\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224q3cems8bqhyb2fbs64t5fxhwc\u0022,\r\n        \u0022submissionID\u0022: \u00224fna9gmjgzkcx4zt51f0stme46\u0022,\r\n        \u0022saveName\u0022: \u0022JOSE M RODRIGUEZ DOMINGUEZ\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u002243j1amde3h4cmwjaggjzekm9cq\u0022,\r\n        \u0022submissionID\u0022: \u002243m4gh6qndddrtk674npwbk7x8\u0022,\r\n        \u0022saveName\u0022: \u0022AZIZ RATNANI\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224ae1v052zs8746tzwybtqbzqct\u0022,\r\n        \u0022submissionID\u0022: \u002242pjm5kkyf8rm01wev7a2wqmnc\u0022,\r\n        \u0022saveName\u0022: \u0022LEH SUEN\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224e2ydawznfxwg1w5t7vthwkwnb\u0022,\r\n        \u0022submissionID\u0022: \u00224de8407wy2gjxvpzf6jw4bd94s\u0022,\r\n        \u0022saveName\u0022: \u0022ROBERT M BAILEY\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224p8jp5e1pxzsk5npzxypn05txb\u0022,\r\n        \u0022submissionID\u0022: \u00224gn5gx07aca056bps8mr6spt44\u0022,\r\n        \u0022saveName\u0022: \u0022PHILLIP SONG\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u0022435dnjyavjkn2smc0731h4fyx8\u0022,\r\n        \u0022submissionID\u0022: \u00224g8bmqb9ecr6258c1ybzt2ejmm\u0022,\r\n        \u0022saveName\u0022: \u0022ESTHER LEE\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224xjszjgfxzec5ykhaw5x30kkd7\u0022,\r\n        \u0022submissionID\u0022: \u0022477gqh9wjcj07vz12p79p9614n\u0022,\r\n        \u0022saveName\u0022: \u0022YANLI MENG\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224nrttfts2njhsz6kjgb0kt10xc\u0022,\r\n        \u0022submissionID\u0022: \u002249ckbjvz8tn8w36d7ab8j5k95h\u0022,\r\n        \u0022saveName\u0022: \u0022ELIZABETH M SPONSELLER\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u0022460snyjv0459a75q1c8r6tdg5g\u0022,\r\n        \u0022submissionID\u0022: \u00224rd2b3agzxptgwadns123s5tw3\u0022,\r\n        \u0022saveName\u0022: \u0022ANGELLA PEROTTI\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u0022467pdkeqf56hyse94sqpwbrcwn\u0022,\r\n        \u0022submissionID\u0022: \u00224fdtaww14ty1q5y4qdpe0a904e\u0022,\r\n        \u0022saveName\u0022: \u0022JUMG YUP LEE\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u002247bt90wzb507m43gnbsxsspgxw\u0022,\r\n        \u0022submissionID\u0022: \u00224agznzw7r32c16dp12pw6nfyd6\u0022,\r\n        \u0022saveName\u0022: \u0022KRISTINA ILINA\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224qzz09xyhdcjk5mrnmsp9d5qm6\u0022,\r\n        \u0022submissionID\u0022: \u00224d9500gy2cb9j4d0a4y6vaf4mr\u0022,\r\n        \u0022saveName\u0022: \u0022PATRICIA A WALLIS\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u002240k3bx7dfp2cgsa940yc74mwn3\u0022,\r\n        \u0022submissionID\u0022: \u00224ynr0mazfj1ks4p9rdt3q6scd1\u0022,\r\n        \u0022saveName\u0022: \u0022MEIFENG ZHENG\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224echdn44nswkn6fsv9tgwf5ex1\u0022,\r\n        \u0022submissionID\u0022: \u0022410g1fq7xtx6h19162qrzkc74k\u0022,\r\n        \u0022saveName\u0022: \u0022JUNG HYUN GIL\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224s84cz5w63kc66tmya47pkhdw4\u0022,\r\n        \u0022submissionID\u0022: \u00224b5dtcjhgs9yqs88t4qrr57amh\u0022,\r\n        \u0022saveName\u0022: \u0022SUZIE L HAN\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224benrh80zs0pm31ptgdp82nmwk\u0022,\r\n        \u0022submissionID\u0022: \u00224entmy6hvssbkswq8rs69r1k4c\u0022,\r\n        \u0022saveName\u0022: \u0022KAREN WASSERMAN\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224nj58mszk87nb2qwwn4wrf3qw1\u0022,\r\n        \u0022submissionID\u0022: \u00224mh9zmnchb4ba21knr4qba9rwe\u0022,\r\n        \u0022saveName\u0022: \u0022JEFF RICHARDSON\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224nfmj5mhbhq4s5ykt364qbncdz\u0022,\r\n        \u0022submissionID\u0022: \u00224p9jhkat4t4rj46fx795n0jmx4\u0022,\r\n        \u0022saveName\u0022: \u0022MIN SUNG KOH\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u002242qwf5fw2p2cwtrrtsstyww8m9\u0022,\r\n        \u0022submissionID\u0022: \u00224yakf8av9mdqp235tw6kgmmene\u0022,\r\n        \u0022saveName\u0022: \u0022JAMES JONES\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224x308t3pv8dyhzc5m00tn8vhnk\u0022,\r\n        \u0022submissionID\u0022: \u00224wrs46r400jw858bsyfyvaw25q\u0022,\r\n        \u0022saveName\u0022: \u0022WEI WANG\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224g3pgrtkjzygc2yh9e9qzkgmn6\u0022,\r\n        \u0022submissionID\u0022: \u00224rhmaxghqtdhs3dn7dxdcy3d5q\u0022,\r\n        \u0022saveName\u0022: \u0022HYEBIN KIM\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224768dqzpb4rbjveptgr4s3ce4c\u0022,\r\n        \u0022submissionID\u0022: \u00224955pjm1sh4je37t15yp22m6ce\u0022,\r\n        \u0022saveName\u0022: \u0022MILAGROS JACOME\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224s6frc5qw69txtne1g7fb78v4f\u0022,\r\n        \u0022submissionID\u0022: \u00224y318jy96wq4x7pvsv393fntnm\u0022,\r\n        \u0022saveName\u0022: \u0022SHAMSUDDIN LAKHANI\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224hf70jycgxb2kv6k0fpxgkq6my\u0022,\r\n        \u0022submissionID\u0022: \u00224ez50kz6gzsqrw6gn1cppp7vm2\u0022,\r\n        \u0022saveName\u0022: \u0022HUI LING YU\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224svxq4kp2xzzn2sfhhqy98gmdf\u0022,\r\n        \u0022submissionID\u0022: \u00224nm6vbe4g9n9qzjm042zkbn950\u0022,\r\n        \u0022saveName\u0022: \u0022TIA ROBINSON\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u002247fbwgxajgn3v59q1xyscdkn4w\u0022,\r\n        \u0022submissionID\u0022: \u00224xxvaa0y0wvjms19etecjgrsmd\u0022,\r\n        \u0022saveName\u0022: \u0022CHARLES E MILLER\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224z62n0av4b9ew4t11jk2cgqmmq\u0022,\r\n        \u0022submissionID\u0022: \u002243ca6e5z4w1922gr8ynb2adpd7\u0022,\r\n        \u0022saveName\u0022: \u0022HICHAM TOURABI\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224sbkrwn5samaw6a35p9023vzdc\u0022,\r\n        \u0022submissionID\u0022: \u00224tqfxnpefwxntyj1jmh6wxrzcm\u0022,\r\n        \u0022saveName\u0022: \u0022KIMIBEN PATEL\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224qvnvnjc8p5x632ymj29ham346\u0022,\r\n        \u0022submissionID\u0022: \u00224j224t6tjbq105dp97b9c83gn7\u0022,\r\n        \u0022saveName\u0022: \u0022IDY SEOWYEE LIM\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224edffh2xpj3tq6kkwphrdgtsxj\u0022,\r\n        \u0022submissionID\u0022: \u002240xd8538kmm4hx7wbp2gkhr0c4\u0022,\r\n        \u0022saveName\u0022: \u0022DYLAN G DEGRAAF\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u002248sfcyhtf7v7ayq3kjt1wa674h\u0022,\r\n        \u0022submissionID\u0022: \u00224d9fyqa6j4mt3xg24d5n83p9dz\u0022,\r\n        \u0022saveName\u0022: \u0022SUDHIR SHARMA\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224ppkdk95hjxt2tfcbzcmqhra4r\u0022,\r\n        \u0022submissionID\u0022: \u00224b8vg2m3pj1qbr2fy97rzt5s4d\u0022,\r\n        \u0022saveName\u0022: \u0022GALAL GARGODHI\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u002248raj2ta0anf16vb8xxys4jqd2\u0022,\r\n        \u0022submissionID\u0022: \u002245m8cn9xab2z6zyp3zdm6yvpx8\u0022,\r\n        \u0022saveName\u0022: \u0022EUN SUK KIM\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224519e5ygpm5p7x3nc9m15jjr47\u0022,\r\n        \u0022submissionID\u0022: \u00224g9bae3r6maek7cwcbk0gpcpws\u0022,\r\n        \u0022saveName\u0022: \u0022DANIELA V BOCK-MARTINEZ\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u002248a587ybzjhke34x6vaz17x15y\u0022,\r\n        \u0022submissionID\u0022: \u00224cfwf6xxq12tt3qrd38b3b8f4z\u0022,\r\n        \u0022saveName\u0022: \u0022HYOSOON PARK\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224f9wb691xk1cd12e6sqvv0xcnw\u0022,\r\n        \u0022submissionID\u0022: \u00224gh4yx7c37dmr7c15cdxzgvgnf\u0022,\r\n        \u0022saveName\u0022: \u0022RASHAN DICKINSON\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224zq7m19e2gr56t8kczvcdnqk5b\u0022,\r\n        \u0022submissionID\u0022: \u00224j4mpp72xdddyz3grpzdqrrtwr\u0022,\r\n        \u0022saveName\u0022: \u0022RAJ PATEL\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u002242s6fdmpcvgqasqd0816dxtx58\u0022,\r\n        \u0022submissionID\u0022: \u00224hhh0bhrwh4qrwjbnkw4vtyjmj\u0022,\r\n        \u0022saveName\u0022: \u0022TONY LU\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224n9qhvkr1jcptr95vpanh7g0m0\u0022,\r\n        \u0022submissionID\u0022: \u002247cn54rypyetpth43qfy2v0cd1\u0022,\r\n        \u0022saveName\u0022: \u0022JONATHAN TURMON\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u002240gnqar3frbgw33s6spwvetkcs\u0022,\r\n        \u0022submissionID\u0022: \u00224wfftezf0a0fsy29thgzet01dj\u0022,\r\n        \u0022saveName\u0022: \u0022TONY ROGERS\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224ghv6492tzsg2w9zdgj5k317dj\u0022,\r\n        \u0022submissionID\u0022: \u00224byjr52nh5kptw54f4j7rvk9c6\u0022,\r\n        \u0022saveName\u0022: \u0022JENNIFER LEIGH MCDONALD\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224ydxdgkvqke9ws6cx91fr2rtdy\u0022,\r\n        \u0022submissionID\u0022: \u00224e49g3wes58vv4xphpxe9z99m2\u0022,\r\n        \u0022saveName\u0022: \u0022RAFAEL ANGARICA VILLSENOR\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u002243sh6f6jf5wxfyphy0c1ev6jw2\u0022,\r\n        \u0022submissionID\u0022: \u002242pjey85v5e6avsq8a9sr1a85d\u0022,\r\n        \u0022saveName\u0022: \u0022KWAN H PAK\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224ccy7rfszf65464evkr9se6fwc\u0022,\r\n        \u0022submissionID\u0022: \u002246vvmd0qgee1yxcpnrq2sq35d4\u0022,\r\n        \u0022saveName\u0022: \u0022PAULEKA COOPER\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224ekqhxvqzh0zjy499sz9w4gt5p\u0022,\r\n        \u0022submissionID\u0022: \u002247yjy71pyqaw84kxe0617fnj4q\u0022,\r\n        \u0022saveName\u0022: \u0022YOUN SUN LEE\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224f9fhj24p5gfavvkfnjwg4xk5t\u0022,\r\n        \u0022submissionID\u0022: \u00224grzbr0tdfd8h4e1tkhj07wsmn\u0022,\r\n        \u0022saveName\u0022: \u0022DAE H KIM\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u0022463cmhw3ajqcr3vxr83vjkgnwz\u0022,\r\n        \u0022submissionID\u0022: \u002240xv8qxhqdv4bsknm6dwj9f4mb\u0022,\r\n        \u0022saveName\u0022: \u0022GUBRAN GUBRAN\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u002246855rts011331g2g4x3xk12mg\u0022,\r\n        \u0022submissionID\u0022: \u002246djbe7bev16p1t8pncr81r1w2\u0022,\r\n        \u0022saveName\u0022: \u0022JOON KIM\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224neqy97hra5qm5tqck5ywxkgm4\u0022,\r\n        \u0022submissionID\u0022: \u00224rre96h4syg2qtcgxmabn4mpcf\u0022,\r\n        \u0022saveName\u0022: \u0022STEVEN WILLIS\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224zfvjy9f5cpkryns5h820dz45v\u0022,\r\n        \u0022submissionID\u0022: \u00224eefcwev24z9k0jmreckmp3d4y\u0022,\r\n        \u0022saveName\u0022: \u0022MIN JEON CHO\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224w1gx4np89qssw01ky1n1q96ch\u0022,\r\n        \u0022submissionID\u0022: \u00224hx90r4q4swnr4t70jy3ed4tme\u0022,\r\n        \u0022saveName\u0022: \u0022GREGORY G. MELLOTT\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224pzd3atcd0mjasjzdztqecmbnp\u0022,\r\n        \u0022submissionID\u0022: \u00224e9gchknvwdqa28qqkdssqtems\u0022,\r\n        \u0022saveName\u0022: \u0022JACOB ZECHARIAH SMITH\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224rhderqsrmgjqt08vx09tfy4cr\u0022,\r\n        \u0022submissionID\u0022: \u002243t82wshpt5t21pfay2m6jyjnf\u0022,\r\n        \u0022saveName\u0022: \u0022VICTORIA JEISY SCOTT\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u002241h1reja06yj66sqkp3efvg7m7\u0022,\r\n        \u0022submissionID\u0022: \u00224zz2axyyb13k819vdkeecxcpd1\u0022,\r\n        \u0022saveName\u0022: \u0022ANTIONETTE P HAMILTON\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u002240thpxw16sg5x741bf1xqf3h4k\u0022,\r\n        \u0022submissionID\u0022: \u00224jtjwt4ydcmtkvmg2d4d32s3xz\u0022,\r\n        \u0022saveName\u0022: \u0022OGHENERUME SIEBERE\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224gqpxke29d0pv0djg1ywthvpny\u0022,\r\n        \u0022submissionID\u0022: \u002243ykc0r6jtmd1twpnrxf8radm4\u0022,\r\n        \u0022saveName\u0022: \u0022DEBRA A SIBILA\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u002248yf4kxh35a4y78er75nfxr1ny\u0022,\r\n        \u0022submissionID\u0022: \u0022455cm0nrfz8jd6mbsbjr21kedh\u0022,\r\n        \u0022saveName\u0022: \u0022HONG JA JEONG\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224nnzct6awyhhz2md6gkczz42cd\u0022,\r\n        \u0022submissionID\u0022: \u00224net4xwxepw7w4pd453hbdrpmw\u0022,\r\n        \u0022saveName\u0022: \u0022JUNG HEE LEE\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224bqdcba1sbry1zeh5yz8hq5jwz\u0022,\r\n        \u0022submissionID\u0022: \u00224wcg1t6ze9nj0w9agjjt9vwbca\u0022,\r\n        \u0022saveName\u0022: \u0022BETTY UNDERWOOD MCATEE\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u0022419w61d7tjzya22zz4j99rttd2\u0022,\r\n        \u0022submissionID\u0022: \u002242hxkz586b6zdze552bx869jx1\u0022,\r\n        \u0022saveName\u0022: \u0022JEAN P VINALS JR\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224zzgaj319s6pzxrrga435135n3\u0022,\r\n        \u0022submissionID\u0022: \u0022410kxybbf5mzxww9cbnsy0mhmq\u0022,\r\n        \u0022saveName\u0022: \u0022JAMES LIN\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224jy2pk65npwj9wk61hej3zc6xg\u0022,\r\n        \u0022submissionID\u0022: \u00224fkb14mrd2jge39z85j71tfac5\u0022,\r\n        \u0022saveName\u0022: \u0022TODD A WEAR\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u002244534qsjv26f42gmztaqhyjgww\u0022,\r\n        \u0022submissionID\u0022: \u00224w80g6sxcrzxb3jhcmnqcy18n5\u0022,\r\n        \u0022saveName\u0022: \u0022XUAN CAO\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224g7hcnpr265mg0f79sd565a5xt\u0022,\r\n        \u0022submissionID\u0022: \u00224yv33j845qs5jvmajgx03gzwde\u0022,\r\n        \u0022saveName\u0022: \u0022JASON R INGERMANSON\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u002243tvhjcd94m683gfn94eb2ppd1\u0022,\r\n        \u0022submissionID\u0022: \u0022401ran6ka0g7rv5njkxv5mjv59\u0022,\r\n        \u0022saveName\u0022: \u0022EDGAR SILVA\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224p17ndfbzfmarygbs9gvkrx74j\u0022,\r\n        \u0022submissionID\u0022: \u00224s13b1dhh6bfc2ckg3yp6gep4d\u0022,\r\n        \u0022saveName\u0022: \u0022IN S KANG\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u002242xzyrw9qhvna3qmv7snc1tq5g\u0022,\r\n        \u0022submissionID\u0022: \u002247wsxpacgg0dtwzvpp32dxfnwm\u0022,\r\n        \u0022saveName\u0022: \u0022NAHYUN JOO\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224g006zy02vwqj3kg9rtvvk8rmm\u0022,\r\n        \u0022submissionID\u0022: \u00224kcfrb9tn6d3prehjptqd6235t\u0022,\r\n        \u0022saveName\u0022: \u0022Shu Wan Chen\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224ex7s13xqgkex5txtvepncq64x\u0022,\r\n        \u0022submissionID\u0022: \u00224e4yatcr2v4ac5q5jzvjt95rn8\u0022,\r\n        \u0022saveName\u0022: \u0022YOUNG JOON KIM\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224n8xxym35hez3s5s2m8y0rt7wj\u0022,\r\n        \u0022submissionID\u0022: \u002241rrsmvjsnxn0vvsy3fgmxm9n8\u0022,\r\n        \u0022saveName\u0022: \u0022MILIND KSMIRSAGAR\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224pkynwpkq5hc9zwdcbpe2dvkwj\u0022,\r\n        \u0022submissionID\u0022: \u00224jz76w47sdsbyw2qam3bnt6yxn\u0022,\r\n        \u0022saveName\u0022: \u0022JING SHI\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224wjdzh3rbvfwg49fx1qer6qsnb\u0022,\r\n        \u0022submissionID\u0022: \u00224n9whygv5jg3t0ahzmkfdaf4xd\u0022,\r\n        \u0022saveName\u0022: \u0022SYLVIA WANG\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u002247se6135p7p4f3m8h24rmnp2wt\u0022,\r\n        \u0022submissionID\u0022: \u00224hs5hfnahvfrq69rz2dsxrqz4g\u0022,\r\n        \u0022saveName\u0022: \u0022YOUNG RA KIM\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u00224h9mqzwm0b90b0b4dhs14a2tc4\u0022,\r\n        \u0022submissionID\u0022: \u00224j9pyfgst90t3tchqvjj5z30d1\u0022,\r\n        \u0022saveName\u0022: \u0022JAMES A RICE\u0022\r\n    },\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u002244t6jbhw</t>
+  </si>
+  <si>
+    <t>knrv7xvyq674ytq456\u0022,\r\n        \u0022submissionID\u0022: \u00224rtn0468yj2xxtzsgg8nhf43nw\u0022,\r\n        \u0022saveName\u0022: \u0022HONG PING WEI\u0022\r\n    }\r\n]\r\n\r\nsetProperty(\u0022Result\u0022, queryResult);\r\nsetOutcome(\u0027Done\u0027);"}}},{"ActivityId":"4zw1g7vqtq36j084dc9q2c20xn","Name":"ForEachTask","X":600,"Y":30,"IsStart":false,"Properties":{"ActivityMetadata":{},"LoopVariableName":"x","Enumerable":{"Expression":"workflow().Properties.Result"}}},{"ActivityId":"4fx7qheyx72vt51ce3g5sx4m5x","Name":"SetSubmissionValueTask","X":1280,"Y":140,"IsStart":false,"Properties":{"ActivityMetadata":{"Title":"busEquipInvTax"},"IsAdmin":false,"Key":{"Expression":"busEquipInvTax"},"Value":{},"ContentItemId":{"Expression":"{{Workflow.LastResult.submissionID}}"},"StringValue":{"Expression":"{{Workflow.LastResult[\u0022busEquipInvTax\u0022]}}"},"IsValue":true}},{"ActivityId":"42722cy2vycmf6hy7vr2zf7fc3","Name":"SetSubmissionValueTask","X":1421,"Y":230,"IsStart":false,"Properties":{"ActivityMetadata":{"Title":"saveVerification"},"IsAdmin":true,"Key":{"Expression":"saveVerification"},"Value":{},"ContentItemId":{"Expression":"{{Workflow.LastResult.submissionID}}"},"StringValue":{"Expression":"{{Workflow.LastResult[\u0022saveVerification\u0022] | default: \u0022\u0022}}"},"IsValue":true}},{"ActivityId":"4x55v21mczhwgsk2pgkmnjxy56","Name":"SetSubmissionValueTask","X":1370,"Y":320,"IsStart":false,"Properties":{"ActivityMetadata":{"Title":"documentExpiration"},"IsAdmin":true,"Key":{"Expression":"documentExpiration"},"Value":{},"ContentItemId":{"Expression":"{{Workflow.LastResult.submissionID}}"},"StringValue":{"Expression":"{{Workflow.LastResult[\u0022documentExpiration\u0022] | default: \u0022\u0022}}"},"IsValue":true}},{"ActivityId":"4jvmycr08rh83vdr6wxnrdajwn","Name":"SetSubmissionValueTask","X":1100,"Y":330,"IsStart":false,"Properties":{"ActivityMetadata":{"Title":"areYouAUSCitizenSAVE"},"IsAdmin":true,"Key":{"Expression":"areYouAUSCitizenSAVE"},"Value":{},"ContentItemId":{"Expression":"{{Workflow.LastResult.submissionID}}"},"StringValue":{"Expression":"{{Workflow.LastResult[\u0022areYouAUSCitizenSAVE\u0022]}}"},"IsValue":true}},{"ActivityId":"4e2n9yjs8fzc3v897y4nmh1741","Name":"SetSubmissionValueTask","X":660,"Y":360,"IsStart":false,"Properties":{"ActivityMetadata":{"Title":"everifyExempt"},"IsAdmin":true,"Key":{"Expression":"everifyExempt"},"Value":{},"ContentItemId":{"Expression":"{{Workflow.LastResult.submissionID}}"},"StringValue":{"Expression":"{{Workflow.LastResult[\u0022everifyExempt\u0022]}}"},"IsValue":true}},{"ActivityId":"4fjm2p7bhsdv6tz5n4xvpyhbwv","Name":"SetSubmissionValueTask","X":190,"Y":360,"IsStart":false,"Properties":{"ActivityMetadata":{"Title":"everify"},"IsAdmin":true,"Key":{"Expression":"everify"},"Value":{},"ContentItemId":{"Expression":"{{Workflow.LastResult.submissionID}}"},"StringValue":{"Expression":"{{Workflow.LastResult[\u0022everify\u0022]}}"},"IsValue":true}},{"ActivityId":"43zmcnccbdfh40aezymk633vcw","Name":"HttpRequestEvent","X":0,"Y":50,"IsStart":true,"Properties":{"ActivityMetadata":{},"HttpMethod":"GET","Url":"/workflows/Invoke?token=CfDJ8LTPCim2SIdNr8sZN1RcXOe0dhIV_ztAVxETLKwVS23mNGbKCSkt3qsonWXNSa6dxs6qhTn8E9RmtgpAQUzG4BN4UwZO5sKsVQo2_78-9EUkV0R4ecNjyVSSfb2ayktu8MYDMoBhqkoHarA_dvgVAnT5B99SNMnHXnKFmbDX0ORJg_Cjxu3WqSB5RcyTvJx_pm8OV0kijfZstoN4ZIPu8bK9CI2BOFV4xUg5pP7hikKQ","ValidateAntiforgeryToken":true,"TokenLifeSpan":0,"FormLocationKey":""}},{"ActivityId":"40gztw636s12bt71y795474dwv","Name":"SetSubmissionValueTask","X":920,"Y":50,"IsStart":false,"Properties":{"ActivityMetadata":{"Title":"saveName"},"IsAdmin":true,"Key":{"Expression":"saveName"},"Value":{},"ContentItemId":{"Expression":"{{Workflow.LastResult.submissionID}}"},"StringValue":{"Expression":"{{Workflow.LastResult[\u0022saveName\u0022]}}"},"IsValue":true}}],"Transitions":[{"Id":0,"SourceActivityId":"44zymjzgkhh6t606q919bcy953","SourceOutcomeName":"Done","DestinationActivityId":"4zw1g7vqtq36j084dc9q2c20xn"},{"Id":0,"SourceActivityId":"42722cy2vycmf6hy7vr2zf7fc3","SourceOutcomeName":"Done","DestinationActivityId":"4x55v21mczhwgsk2pgkmnjxy56"},{"Id":0,"SourceActivityId":"42722cy2vycmf6hy7vr2zf7fc3","SourceOutcomeName":"Failed","DestinationActivityId":"4x55v21mczhwgsk2pgkmnjxy56"},{"Id":0,"SourceActivityId":"4x55v21mczhwgsk2pgkmnjxy56","SourceOutcomeName":"Done","DestinationActivityId":"4jvmycr08rh83vdr6wxnrdajwn"},{"Id":0,"SourceActivityId":"4x55v21mczhwgsk2pgkmnjxy56","SourceOutcomeName":"Failed","DestinationActivityId":"4jvmycr08rh83vdr6wxnrdajwn"},{"Id":0,"SourceActivityId":"4jvmycr08rh83vdr6wxnrdajwn","SourceOutcomeName":"Done","DestinationActivityId":"4e2n9yjs8fzc3v897y4nmh1741"},{"Id":0,"SourceActivityId":"4jvmycr08rh83vdr6wxnrdajwn","SourceOutcomeName":"Failed","DestinationActivityId":"4e2n9yjs8fzc3v897y4nmh1741"},{"Id":0,"SourceActivityId":"4e2n9yjs8fzc3v897y4nmh1741","SourceOutcomeName":"Done","DestinationActivityId":"4fjm2p7bhsdv6tz5n4xvpyhbwv"},{"Id":0,"SourceActivityId":"4e2n9yjs8fzc3v897y4nmh1741","SourceOutcomeName":"Failed","DestinationActivityId":"4fjm2p7bhsdv6tz5n4xvpyhbwv"},{"Id":0,"SourceActivityId":"43zmcnccbdfh40aezymk633vcw","SourceOutcomeName":"Done","DestinationActivityId":"44zymjzgkhh6t606q919bcy953"},{"Id":0,"SourceActivityId":"4zw1g7vqtq36j084dc9q2c20xn","SourceOutcomeName":"Iterate","DestinationActivityId":"40gztw636s12bt71y795474dwv"},{"Id":0,"SourceActivityId":"40gztw636s12bt71y795474dwv","SourceOutcomeName":"Done","DestinationActivityId":"4zw1g7vqtq36j084dc9q2c20xn"},{"Id":0,"SourceActivityId":"40gztw636s12bt71y795474dwv","SourceOutcomeName":"Failed","DestinationActivityId":"4zw1g7vqtq36j084dc9q2c20xn"}],"Properties":{}}</t>
+  </si>
+  <si>
+    <t>{"Id":327672,"WorkflowTypeId":"411p5t1ns9q1as60awrmerrbcq","Name":"Migration - Renewal Submitted","IsEnabled":false,"IsSingleton":false,"LockTimeout":0,"LockExpiration":0,"DeleteFinishedWorkflows":false,"Activities":[{"ActivityId":"41az7shj6s7rjxa8f3d8jje15x","Name":"SetLicenseStatusTask","X":1130,"Y":20,"IsStart":false,"Properties":{"ActivityMetadata":{"Title":"Update status to Expired"},"LicenseContentItemId":{"Expression":"{{Workflow.LastResult[\u0022ContentItemId\u0022]}}"},"StatusId":{"Expression":"4k917d2f49dpzzpd1g8r1pxwdb"},"LicenseTypeId":{},"AssignedUsers":{},"IsRenewalApproved":false}},{"ActivityId":"4jsdc3g4k3yy1tqfdae1ev10w4","Name":"ForEachTask","X":660,"Y":0,"IsStart":false,"Properties":{"ActivityMetadata":{},"LoopVariableName":"x","Enumerable":{"Expression":"workflow().Properties.Result"}}},{"ActivityId":"46rvrzjqefr4jvqgntdg9pdkmd","Name":"ScriptTask","X":320,"Y":90,"IsStart":false,"Properties":{"ActivityMetadata":{"Title":"Incorrectly In Renewal Submitted"},"AvailableOutcomes":["Done"],"Script":{"Expression":"let result = [\r\n    {\r\n        \u0022ContentItemId\u0022: \u00224ga97xm1x10bz310v0fgg10wmp\u0022,\r\n        \u0022Number\u0022: \u0022OTC-3042\u0022,\r\n        \u0022OTCID\u0022: \u00224w6jg2q1rdrb25v2p7dxeacywh\u0022,\r\n        \u0022LicenseStatus\u0022: \u0022Renewal Submitted\u0022,\r\n        \u0022FormStatus\u0022: \u0022Draft\u0022,\r\n        \u0022CreatedUTC\u0022: \u00222025-01-24T20:16:31.553\u0022,\r\n        \u0022ModifiedUTC\u0022: \u00222025-01-28T03:22:51.02\u0022,\r\n        \u0022FormModifiedUTC\u0022: \u00222025-02-07T14:30:36.837\u0022\r\n    }\r\n];\r\nsetProperty(\u0022Result\u0022, result);\r\nsetOutcome(\u0027Done\u0027);"}}},{"ActivityId":"48qdz3vbdxa1a702j0n5xyy2c7","Name":"HttpRequestEvent","X":0,"Y":0,"IsStart":true,"Properties":{"ActivityMetadata":{},"HttpMethod":"GET","Url":"/workflows/Invoke?token=CfDJ8LTPCim2SIdNr8sZN1RcXOf3sNLP_0GmQ7kNRiD9bweK5dRe15MmpY72vaxZ8ZzgO9nEwjsMnvuq3CxarE1YzpdNCqrzn-_Ojvp0Yi73etBG6ac4Q9YpCwPBmnW1jCyzG9BgW5e_Ag_XnGHf0mGFDxjM4uBGFHBCGw0ucgti0xejX5A69-jV7CWbr6XkvMre-6jwC-y6uWVmEbGiH4XbrIxTB-53DVHGQMRftKRHt1Va","ValidateAntiforgeryToken":true,"TokenLifeSpan":0,"FormLocationKey":""}}],"Transitions":[{"Id":0,"SourceActivityId":"4jsdc3g4k3yy1tqfdae1ev10w4","SourceOutcomeName":"Iterate","DestinationActivityId":"41az7shj6s7rjxa8f3d8jje15x"},{"Id":0,"SourceActivityId":"41az7shj6s7rjxa8f3d8jje15x","SourceOutcomeName":"Done","DestinationActivityId":"4jsdc3g4k3yy1tqfdae1ev10w4"},{"Id":0,"SourceActivityId":"41az7shj6s7rjxa8f3d8jje15x","SourceOutcomeName":"Failed","DestinationActivityId":"4jsdc3g4k3yy1tqfdae1ev10w4"},{"Id":0,"SourceActivityId":"46rvrzjqefr4jvqgntdg9pdkmd","SourceOutcomeName":"Done","DestinationActivityId":"4jsdc3g4k3yy1tqfdae1ev10w4"},{"Id":0,"SourceActivityId":"48qdz3vbdxa1a702j0n5xyy2c7","SourceOutcomeName":"Done","DestinationActivityId":"46rvrzjqefr4jvqgntdg9pdkmd"}],"Properties":{}}</t>
+  </si>
+  <si>
+    <t>{"Id":344824,"WorkflowTypeId":"4ryz35ws5w8vm7q9sywjfeffm0","Name":"Migration - Update Gross Receipts Tax Calculations","IsEnabled":false,"IsSingleton":true,"LockTimeout":0,"LockExpiration":0,"DeleteFinishedWorkflows":false,"Activities":[{"ActivityId":"4gjxxyth1vbgwrs5t1x55v055m","Name":"ScriptTask","X":310,"Y":30,"IsStart":false,"Properties":{"ActivityMetadata":{},"AvailableOutcomes":["Done"],"Script":{"Expression":"let queryResult = [\r\n    {\r\n        \u0022ContentItemId\u0022: \u00224cvkg26s6zdqw0d5krx80h9zd4\u0022,\r\n        \u0022data\u0022: {\r\n            \u0022TaxYear\u0022: \u00222025\u0022,\r\n            \u0022NAICS\u0022: \u00225611\u0022,\r\n            \u0022TaxClass\u0022: \u00224\u0022,\r\n            \u0022EstimatedGrossReceipts\u0022: \u00221000\u0022,\r\n            \u0022TaxClassDecimal\u0022: \u00220.0008\u0022,\r\n            \u0022Subtotal\u0022: \u002250\u0022,\r\n            \u0022AdministrationFee\u0022: \u002250\u0022,\r\n            \u0022oneTimeLatePenalty\u0022: \u00220\u0022,\r\n            \u0022monthlyDelinquencyFee\u0022: \u00220\u0022,\r\n            \u0022amountDue\u0022: \u0022100\u0022\r\n        }\r\n    }];\r\nsetProperty(\u0027Result\u0027, queryResult);\r\nsetOutcome(\u0027Done\u0027);"}}},{"ActivityId":"4brcb4dqa11qdxk6x6324nx8x2","Name":"ForEachTask","X":440,"Y":30,"IsStart":false,"Properties":{"ActivityMetadata":{},"LoopVariableName":"x","Enumerable":{"Expression":"workflow().Properties.Result"}}},{"ActivityId":"4szy5cynv40m42atve9fcvkb5z","Name":"SetSubmissionValueTask","X":1130,"Y":20,"IsStart":false,"Properties":{"ActivityMetadata":{"Title":"Update Data Grid"},"IsAdmin":false,"Key":{"Expression":"dataGrid"},"Value":{"Expression":"{{Workflow.LastResult.data}}"},"ContentItemId":{"Expression":"{{Workflow.LastResult.ContentItemId}}"},"StringValue":{},"IsValue":false}},{"ActivityId":"4cd414k5csxs6r4dppab9kv6xk","Name":"HttpRequestEvent","X":0,"Y":70,"IsStart":true,"Properties":{"ActivityMetadata":{},"HttpMethod":"GET","Url":"/workflows/Invoke?token=CfDJ8LTPCim2SIdNr8sZN1RcXOfjEJxsI4YdwfTVa4fSqT_15bZlHiPaGJ9m4hfnaOQFiZ2IjfgRa9-VGOCqVS65sxK5ay2uLGllmZ4tyUrisTE3Zxy3KwHiE4q1H3KNzuwHd-vWcbyApviSc6fqgdXFjm3cUbo7Wl-GBi6hm6k9hhBCeroCC99ZofVmkIUZ0OExSWHKHrzRSZGIFcDOYlhdAW6bcMuY7PLs4QETJ4gkaaFm","ValidateAntiforgeryToken":true,"TokenLifeSpan":0,"FormLocationKey":""}}],"Transitions":[{"Id":0,"SourceActivityId":"4gjxxyth1vbgwrs5t1x55v055m","SourceOutcomeName":"Done","DestinationActivityId":"4brcb4dqa11qdxk6x6324nx8x2"},{"Id":0,"SourceActivityId":"4brcb4dqa11qdxk6x6324nx8x2","SourceOutcomeName":"Iterate","DestinationActivityId":"4szy5cynv40m42atve9fcvkb5z"},{"Id":0,"SourceActivityId":"4cd414k5csxs6r4dppab9kv6xk","SourceOutcomeName":"Done","DestinationActivityId":"4gjxxyth1vbgwrs5t1x55v055m"},{"Id":0,"SourceActivityId":"4szy5cynv40m42atve9fcvkb5z","SourceOutcomeName":"Done","DestinationActivityId":"4brcb4dqa11qdxk6x6324nx8x2"}],"Properties":{}}</t>
+  </si>
+  <si>
+    <t>{"Id":355226,"WorkflowTypeId":"4zbk36bytw1rg1trgkr18ajpwy","Name":"Migration - Update Number of Employees","IsEnabled":false,"IsSingleton":false,"LockTimeout":0,"LockExpiration":0,"DeleteFinishedWorkflows":false,"Activities":[{"ActivityId":"4sv03ykdzppd9sj3yefe7rxz5w","Name":"ScriptTask","X":340,"Y":20,"IsStart":false,"Properties":{"ActivityMetadata":{},"AvailableOutcomes":["Done"],"Script":{"Expression":"let queryResult = [\r\n    {\r\n        \u0022LicenseContentItemId\u0022: \u0022409qrvz9sh4vz56qpn175z0gxm\u0022,\r\n        \u0022ContentItemId\u0022: \u00224awxk03apvb3k1y4vnzftc46ww\u0022,\r\n        \u0022totalOfEmployeesExcludingOwners\u0022: 0,\r\n        \u0022totalOfEmployees\u0022: 0,\r\n        \u0022DisplayText\u0022: \u0022Part 3 Occupational Tax Certificate Application - Part 3 of 3 Clone 3480 PALISADE LAKE DR\u0022\r\n    }\r\n]\r\nsetProperty(\u0022Result\u0022, queryResult);\r\nsetOutcome(\u0027Done\u0027);"}}},{"ActivityId":"4yxaysn8a2kg16333pm7n9pewx","Name":"ForEachTask","X":580,"Y":20,"IsStart":false,"Properties":{"ActivityMetadata":{},"LoopVariableName":"x","Enumerable":{"Expression":"workflow().Properties.Result"}}},{"ActivityId":"4txna44cnmwe3vx7a6swsc2mxk","Name":"SetSubmissionValueTask","X":630,"Y":290,"IsStart":false,"Properties":{"ActivityMetadata":{"Title":"totalOfEmployees"},"IsAdmin":false,"Key":{"Expression":"totalOfEmployees"},"Value":{},"ContentItemId":{"Expression":"{{Workflow.LastResult[\u0022ContentItemId\u0022]}}"},"StringValue":{"Expression":"{{Workflow.LastResult[\u0022totalOfEmployees\u0022]}}"},"IsValue":true}},{"ActivityId":"4r6vkzp3m86eprk6pgv718c7da","Name":"SetSubmissionValueTask","X":970,"Y":10,"IsStart":false,"Properties":{"ActivityMetadata":{"Title":"Set totalOfEmployeesExcludingOwners"},"IsAdmin":false,"Key":{"Expression":"totalOfEmployeesExcludingOwners"},"Value":{},"ContentItemId":{"Expression":"{{Workflow.LastResult[\u0022ContentItemId\u0022]}}"},"StringValue":{"Expression":"{{Workflow.LastResult[\u0022totalOfEmployeesExcludingOwners\u0022]}}"},"IsValue":true}},{"ActivityId":"47qrwj584tkcdrdrpsxcwzj6w7","Name":"HttpRequestEvent","X":0,"Y":20,"IsStart":true,"Properties":{"ActivityMetadata":{},"HttpMethod":"GET","Url":"/workflows/Invoke?token=CfDJ8LTPCim2SIdNr8sZN1RcXOc5YG6SUDFOVhz2cfSvYe8hRiHi__Lx5fBn6ScTGh0k8Rm4bOlGbE8LpFP0xtDy3feWItss3d8d9FiZ_Ha4YN8g21x3atOfmn8X1Y2w_PPmBf2X5IrHAo-aRiYVKzosHtoVECfY_7ILVJS90FkNe3knsEJDRHkK7PN9g4XwKtOIfDIQQFsijDMhUVgi5zw_U_yQzeBXknoepRThy8LDD3KM","ValidateAntiforgeryToken":true,"TokenLifeSpan":0,"FormLocationKey":""}}],"Transitions":[{"Id":0,"SourceActivityId":"4r6vkzp3m86eprk6pgv718c7da","SourceOutcomeName":"Done","DestinationActivityId":"4txna44cnmwe3vx7a6swsc2mxk"},{"Id":0,"SourceActivityId":"4yxaysn8a2kg16333pm7n9pewx","SourceOutcomeName":"Iterate","DestinationActivityId":"4r6vkzp3m86eprk6pgv718c7da"},{"Id":0,"SourceActivityId":"4txna44cnmwe3vx7a6swsc2mxk","SourceOutcomeName":"Done","DestinationActivityId":"4yxaysn8a2kg16333pm7n9pewx"},{"Id":0,"SourceActivityId":"4sv03ykdzppd9sj3yefe7rxz5w","SourceOutcomeName":"Done","DestinationActivityId":"4yxaysn8a2kg16333pm7n9pewx"},{"Id":0,"SourceActivityId":"47qrwj584tkcdrdrpsxcwzj6w7","SourceOutcomeName":"Done","DestinationActivityId":"4sv03ykdzppd9sj3yefe7rxz5w"}],"Properties":{}}</t>
   </si>
 </sst>
 </file>
@@ -485,7 +485,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -546,7 +546,7 @@
         <v>219329</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -554,7 +554,7 @@
         <v>219330</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -562,7 +562,7 @@
         <v>219331</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -570,7 +570,7 @@
         <v>219332</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -578,7 +578,7 @@
         <v>219333</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -586,7 +586,7 @@
         <v>219334</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -594,7 +594,7 @@
         <v>219335</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -602,7 +602,7 @@
         <v>219336</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -610,7 +610,7 @@
         <v>219337</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -618,7 +618,7 @@
         <v>219338</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -626,7 +626,7 @@
         <v>219339</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -634,7 +634,7 @@
         <v>219340</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -642,7 +642,7 @@
         <v>219341</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -650,7 +650,7 @@
         <v>219342</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
